--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:J266"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,19 +418,25 @@
         <v>APP-Owner</v>
       </c>
       <c r="E1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Target Due Date</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Risk Description</v>
+      </c>
+      <c r="H1" t="str">
+        <v>confirmed</v>
+      </c>
+      <c r="I1" t="str">
+        <v>history</v>
+      </c>
+      <c r="J1" t="str">
         <v>IT-Viewer</v>
       </c>
-      <c r="F1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Target Due Date</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Risk Description</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>OP5</v>
       </c>
@@ -443,14 +449,22 @@
       <c r="D2" t="str">
         <v>Sofia Cassel</v>
       </c>
+      <c r="E2" t="str">
+        <v>active</v>
+      </c>
       <c r="F2" t="str">
-        <v>active</v>
+        <v>2023-08-22</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
-      <c r="H2" t="str">
-        <v/>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">2023-08-31 09:23:16 修改了Target Due Date, 2023-08-31 =&gt; 2023-08-03
+2023-08-31 09:23:21 修改了Target Due Date, 2023-08-03 =&gt; 2023-08-09
+2023-08-31 09:32:34 修改了Target Due Date, 2023-08-09 =&gt; 2023-08-22</v>
       </c>
     </row>
     <row r="3">
@@ -466,13 +480,13 @@
       <c r="D3" t="str">
         <v>Jörgen Andersson</v>
       </c>
+      <c r="E3" t="str">
+        <v>active</v>
+      </c>
       <c r="F3" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
         <v/>
       </c>
     </row>
@@ -489,13 +503,13 @@
       <c r="D4" t="str">
         <v>erik.thoren@scania.com</v>
       </c>
+      <c r="E4" t="str">
+        <v>active</v>
+      </c>
       <c r="F4" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
         <v/>
       </c>
     </row>
@@ -510,16 +524,16 @@
         <v>Independent</v>
       </c>
       <c r="E5" t="str">
+        <v>active</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
         <v>Per-Erik Einéus</v>
-      </c>
-      <c r="F5" t="str">
-        <v>active</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
       </c>
     </row>
     <row r="6">
@@ -532,13 +546,13 @@
       <c r="C6" t="str">
         <v>Independent</v>
       </c>
+      <c r="E6" t="str">
+        <v>active</v>
+      </c>
       <c r="F6" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
         <v/>
       </c>
     </row>
@@ -552,13 +566,13 @@
       <c r="C7" t="str">
         <v>Independent</v>
       </c>
+      <c r="E7" t="str">
+        <v>phaseIn</v>
+      </c>
       <c r="F7" t="str">
-        <v>phaseIn</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
         <v/>
       </c>
     </row>
@@ -576,16 +590,16 @@
         <v>Muhammad Umer</v>
       </c>
       <c r="E8" t="str">
+        <v>active</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
         <v>Angel Devaraj</v>
-      </c>
-      <c r="F8" t="str">
-        <v>active</v>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
       </c>
     </row>
     <row r="9">
@@ -598,13 +612,13 @@
       <c r="C9" t="str">
         <v>Independent</v>
       </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
         <v/>
       </c>
     </row>
@@ -622,16 +636,16 @@
         <v>Rolf Nordin</v>
       </c>
       <c r="E10" t="str">
+        <v>active</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
         <v>Fredrik Tomasson</v>
-      </c>
-      <c r="F10" t="str">
-        <v>active</v>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -648,16 +662,16 @@
         <v>Elke Hoogmartens</v>
       </c>
       <c r="E11" t="str">
+        <v>active</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
         <v>Greet Maurissen</v>
-      </c>
-      <c r="F11" t="str">
-        <v>active</v>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
       </c>
     </row>
     <row r="12">
@@ -674,16 +688,16 @@
         <v>Magnus Lännholm</v>
       </c>
       <c r="E12" t="str">
+        <v>active</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
         <v>Tomas Fjällström</v>
-      </c>
-      <c r="F12" t="str">
-        <v>active</v>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
       </c>
     </row>
     <row r="13">
@@ -699,13 +713,13 @@
       <c r="D13" t="str">
         <v>Birger Winroth</v>
       </c>
+      <c r="E13" t="str">
+        <v>active</v>
+      </c>
       <c r="F13" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
         <v/>
       </c>
     </row>
@@ -722,13 +736,13 @@
       <c r="D14" t="str">
         <v>Santosh Bharadwaj Rangavajjula</v>
       </c>
+      <c r="E14" t="str">
+        <v>active</v>
+      </c>
       <c r="F14" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
         <v/>
       </c>
     </row>
@@ -746,16 +760,16 @@
         <v>Harsha Jain</v>
       </c>
       <c r="E15" t="str">
+        <v>active</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
         <v>Niclas Persson</v>
-      </c>
-      <c r="F15" t="str">
-        <v>active</v>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
       </c>
     </row>
     <row r="16">
@@ -772,16 +786,16 @@
         <v>Yahya Wahid</v>
       </c>
       <c r="E16" t="str">
+        <v>active</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F16" t="str">
-        <v>active</v>
-      </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
       </c>
     </row>
     <row r="17">
@@ -798,16 +812,16 @@
         <v>Rosiane Andretta-Sundman</v>
       </c>
       <c r="E17" t="str">
+        <v>active</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
         <v>Niclas Persson</v>
-      </c>
-      <c r="F17" t="str">
-        <v>active</v>
-      </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
       </c>
     </row>
     <row r="18">
@@ -824,16 +838,16 @@
         <v>Soubhagya Sagar Kanungo</v>
       </c>
       <c r="E18" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
         <v>Sandesh Suresh Satim</v>
-      </c>
-      <c r="F18" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
       </c>
     </row>
     <row r="19">
@@ -850,16 +864,16 @@
         <v>Ulf Elveberg</v>
       </c>
       <c r="E19" t="str">
+        <v>active</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
         <v>Ulf Elveberg</v>
-      </c>
-      <c r="F19" t="str">
-        <v>active</v>
-      </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <v/>
       </c>
     </row>
     <row r="20">
@@ -873,16 +887,16 @@
         <v>Independent</v>
       </c>
       <c r="E20" t="str">
+        <v>active</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
         <v>Amruta Shubhankar Joshi</v>
-      </c>
-      <c r="F20" t="str">
-        <v>active</v>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <v/>
       </c>
     </row>
     <row r="21">
@@ -899,16 +913,16 @@
         <v>Mats Arnberg</v>
       </c>
       <c r="E21" t="str">
+        <v>active</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
         <v>Sandro Dias</v>
-      </c>
-      <c r="F21" t="str">
-        <v>active</v>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
       </c>
     </row>
     <row r="22">
@@ -925,16 +939,16 @@
         <v>Piotr Centala</v>
       </c>
       <c r="E22" t="str">
+        <v>active</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
         <v>Swathi Thotappa</v>
-      </c>
-      <c r="F22" t="str">
-        <v>active</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
       </c>
     </row>
     <row r="23">
@@ -951,16 +965,16 @@
         <v>Mats Jernmo</v>
       </c>
       <c r="E23" t="str">
+        <v>active</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
         <v>Sven-Erik Claesson</v>
-      </c>
-      <c r="F23" t="str">
-        <v>active</v>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
       </c>
     </row>
     <row r="24">
@@ -977,16 +991,16 @@
         <v>Vidyalakshmi Veeraraghavan</v>
       </c>
       <c r="E24" t="str">
+        <v>active</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
         <v>Joakim Glaving</v>
-      </c>
-      <c r="F24" t="str">
-        <v>active</v>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <v/>
       </c>
     </row>
     <row r="25">
@@ -1003,16 +1017,16 @@
         <v>jonas.holmborn@scania.com</v>
       </c>
       <c r="E25" t="str">
+        <v>active</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F25" t="str">
-        <v>active</v>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
       </c>
     </row>
     <row r="26">
@@ -1028,13 +1042,13 @@
       <c r="D26" t="str">
         <v>Mattias Österman</v>
       </c>
+      <c r="E26" t="str">
+        <v>active</v>
+      </c>
       <c r="F26" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v/>
-      </c>
-      <c r="H26" t="str">
         <v/>
       </c>
     </row>
@@ -1052,16 +1066,16 @@
         <v>Åsa Ralpher</v>
       </c>
       <c r="E27" t="str">
+        <v>active</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
         <v>Prasanna Lakshmi Gude</v>
-      </c>
-      <c r="F27" t="str">
-        <v>active</v>
-      </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <v/>
       </c>
     </row>
     <row r="28">
@@ -1078,16 +1092,16 @@
         <v>lena.daudistel@scania.com</v>
       </c>
       <c r="E28" t="str">
+        <v>active</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
         <v>Johan Pettersson</v>
-      </c>
-      <c r="F28" t="str">
-        <v>active</v>
-      </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <v/>
       </c>
     </row>
     <row r="29">
@@ -1103,13 +1117,13 @@
       <c r="D29" t="str">
         <v>Rickard Reite</v>
       </c>
+      <c r="E29" t="str">
+        <v>active</v>
+      </c>
       <c r="F29" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v/>
-      </c>
-      <c r="H29" t="str">
         <v/>
       </c>
     </row>
@@ -1127,16 +1141,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E30" t="str">
+        <v>active</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F30" t="str">
-        <v>active</v>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <v/>
       </c>
     </row>
     <row r="31">
@@ -1153,16 +1167,16 @@
         <v>Katrin Norman</v>
       </c>
       <c r="E31" t="str">
+        <v>active</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
         <v>Devdatt Mundhe</v>
-      </c>
-      <c r="F31" t="str">
-        <v>active</v>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v/>
       </c>
     </row>
     <row r="32">
@@ -1179,16 +1193,16 @@
         <v>Johan Sundblad</v>
       </c>
       <c r="E32" t="str">
+        <v>active</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F32" t="str">
-        <v>active</v>
-      </c>
-      <c r="G32" t="str">
-        <v/>
-      </c>
-      <c r="H32" t="str">
-        <v/>
       </c>
     </row>
     <row r="33">
@@ -1205,16 +1219,16 @@
         <v>Jonas Svedling</v>
       </c>
       <c r="E33" t="str">
+        <v>active</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
         <v>Jonas Svedling</v>
-      </c>
-      <c r="F33" t="str">
-        <v>active</v>
-      </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <v/>
       </c>
     </row>
     <row r="34">
@@ -1231,16 +1245,16 @@
         <v>Marcus Johansson</v>
       </c>
       <c r="E34" t="str">
+        <v>active</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
         <v>Marcus Johansson</v>
-      </c>
-      <c r="F34" t="str">
-        <v>active</v>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <v/>
       </c>
     </row>
     <row r="35">
@@ -1257,16 +1271,16 @@
         <v>Kilian Schott</v>
       </c>
       <c r="E35" t="str">
+        <v>active</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
         <v>Mikaela Garroz</v>
-      </c>
-      <c r="F35" t="str">
-        <v>active</v>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <v/>
       </c>
     </row>
     <row r="36">
@@ -1280,16 +1294,16 @@
         <v>Independent</v>
       </c>
       <c r="E36" t="str">
+        <v>active</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
         <v>Torbjörn Oliveira Lunå</v>
-      </c>
-      <c r="F36" t="str">
-        <v>active</v>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <v/>
       </c>
     </row>
     <row r="37">
@@ -1306,16 +1320,16 @@
         <v>Thomas Öberg</v>
       </c>
       <c r="E37" t="str">
+        <v>active</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
         <v>Thomas Öberg</v>
-      </c>
-      <c r="F37" t="str">
-        <v>active</v>
-      </c>
-      <c r="G37" t="str">
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <v/>
       </c>
     </row>
     <row r="38">
@@ -1332,16 +1346,16 @@
         <v>Fredrik Perdahl</v>
       </c>
       <c r="E38" t="str">
+        <v>active</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
         <v>Amruta Shubhankar Joshi</v>
-      </c>
-      <c r="F38" t="str">
-        <v>active</v>
-      </c>
-      <c r="G38" t="str">
-        <v/>
-      </c>
-      <c r="H38" t="str">
-        <v/>
       </c>
     </row>
     <row r="39">
@@ -1358,16 +1372,16 @@
         <v>Magnus Nordlund</v>
       </c>
       <c r="E39" t="str">
+        <v>active</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
         <v>Ulf Löfström</v>
-      </c>
-      <c r="F39" t="str">
-        <v>active</v>
-      </c>
-      <c r="G39" t="str">
-        <v/>
-      </c>
-      <c r="H39" t="str">
-        <v/>
       </c>
     </row>
     <row r="40">
@@ -1384,16 +1398,16 @@
         <v>Tom Varis</v>
       </c>
       <c r="E40" t="str">
+        <v>active</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
         <v>Nils-Ove Fredriksson</v>
-      </c>
-      <c r="F40" t="str">
-        <v>active</v>
-      </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <v/>
       </c>
     </row>
     <row r="41">
@@ -1410,16 +1424,16 @@
         <v>Thomas Gustavsson</v>
       </c>
       <c r="E41" t="str">
+        <v>active</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
         <v>Erik Malmkvist</v>
-      </c>
-      <c r="F41" t="str">
-        <v>active</v>
-      </c>
-      <c r="G41" t="str">
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <v/>
       </c>
     </row>
     <row r="42">
@@ -1436,16 +1450,16 @@
         <v>Rolf Nordin</v>
       </c>
       <c r="E42" t="str">
+        <v>active</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
         <v>Joakim Karlmark</v>
-      </c>
-      <c r="F42" t="str">
-        <v>active</v>
-      </c>
-      <c r="G42" t="str">
-        <v/>
-      </c>
-      <c r="H42" t="str">
-        <v/>
       </c>
     </row>
     <row r="43">
@@ -1462,16 +1476,16 @@
         <v>Daniel Nyberg</v>
       </c>
       <c r="E43" t="str">
+        <v>active</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
         <v>Subhendu Tripathy</v>
-      </c>
-      <c r="F43" t="str">
-        <v>active</v>
-      </c>
-      <c r="G43" t="str">
-        <v/>
-      </c>
-      <c r="H43" t="str">
-        <v/>
       </c>
     </row>
     <row r="44">
@@ -1488,16 +1502,16 @@
         <v>Katrin Norman</v>
       </c>
       <c r="E44" t="str">
+        <v>active</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
         <v>Ali Demirci</v>
-      </c>
-      <c r="F44" t="str">
-        <v>active</v>
-      </c>
-      <c r="G44" t="str">
-        <v/>
-      </c>
-      <c r="H44" t="str">
-        <v/>
       </c>
     </row>
     <row r="45">
@@ -1514,16 +1528,16 @@
         <v>Anders Ahlström</v>
       </c>
       <c r="E45" t="str">
+        <v>active</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
         <v>Ingemar Jansson</v>
-      </c>
-      <c r="F45" t="str">
-        <v>active</v>
-      </c>
-      <c r="G45" t="str">
-        <v/>
-      </c>
-      <c r="H45" t="str">
-        <v/>
       </c>
     </row>
     <row r="46">
@@ -1540,16 +1554,16 @@
         <v>Petter Markman</v>
       </c>
       <c r="E46" t="str">
+        <v>active</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
         <v>Rodrigo Cid</v>
-      </c>
-      <c r="F46" t="str">
-        <v>active</v>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="str">
-        <v/>
       </c>
     </row>
     <row r="47">
@@ -1563,16 +1577,16 @@
         <v>Independent</v>
       </c>
       <c r="E47" t="str">
+        <v>plan</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
         <v>Håkan Hedqvist</v>
-      </c>
-      <c r="F47" t="str">
-        <v>plan</v>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-      <c r="H47" t="str">
-        <v/>
       </c>
     </row>
     <row r="48">
@@ -1589,16 +1603,16 @@
         <v>joachim.dutz@scania.com</v>
       </c>
       <c r="E48" t="str">
+        <v>active</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
         <v>Yash Surendranath Gawai</v>
-      </c>
-      <c r="F48" t="str">
-        <v>active</v>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-      <c r="H48" t="str">
-        <v/>
       </c>
     </row>
     <row r="49">
@@ -1615,16 +1629,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E49" t="str">
+        <v>active</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F49" t="str">
-        <v>active</v>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <v/>
       </c>
     </row>
     <row r="50">
@@ -1640,13 +1654,13 @@
       <c r="D50" t="str">
         <v>Johan Larsson</v>
       </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
-      </c>
-      <c r="H50" t="str">
         <v/>
       </c>
     </row>
@@ -1663,13 +1677,13 @@
       <c r="D51" t="str">
         <v>Raman Ahuja</v>
       </c>
+      <c r="E51" t="str">
+        <v>active</v>
+      </c>
       <c r="F51" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G51" t="str">
-        <v/>
-      </c>
-      <c r="H51" t="str">
         <v/>
       </c>
     </row>
@@ -1687,16 +1701,16 @@
         <v>Jonas Svedling</v>
       </c>
       <c r="E52" t="str">
+        <v>active</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
         <v>Jonas Svedling</v>
-      </c>
-      <c r="F52" t="str">
-        <v>active</v>
-      </c>
-      <c r="G52" t="str">
-        <v/>
-      </c>
-      <c r="H52" t="str">
-        <v/>
       </c>
     </row>
     <row r="53">
@@ -1709,13 +1723,13 @@
       <c r="C53" t="str">
         <v>Independent</v>
       </c>
+      <c r="E53" t="str">
+        <v>active</v>
+      </c>
       <c r="F53" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G53" t="str">
-        <v/>
-      </c>
-      <c r="H53" t="str">
         <v/>
       </c>
     </row>
@@ -1733,16 +1747,16 @@
         <v>Christina Grundström</v>
       </c>
       <c r="E54" t="str">
+        <v>active</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
         <v>Helena Hyttnäs</v>
-      </c>
-      <c r="F54" t="str">
-        <v>active</v>
-      </c>
-      <c r="G54" t="str">
-        <v/>
-      </c>
-      <c r="H54" t="str">
-        <v/>
       </c>
     </row>
     <row r="55">
@@ -1755,13 +1769,13 @@
       <c r="C55" t="str">
         <v>Independent</v>
       </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
       <c r="F55" t="str">
         <v/>
       </c>
       <c r="G55" t="str">
-        <v/>
-      </c>
-      <c r="H55" t="str">
         <v/>
       </c>
     </row>
@@ -1779,16 +1793,16 @@
         <v>Maria Lagergren</v>
       </c>
       <c r="E56" t="str">
+        <v>active</v>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
         <v>Maria Lagergren</v>
-      </c>
-      <c r="F56" t="str">
-        <v>active</v>
-      </c>
-      <c r="G56" t="str">
-        <v/>
-      </c>
-      <c r="H56" t="str">
-        <v/>
       </c>
     </row>
     <row r="57">
@@ -1801,13 +1815,13 @@
       <c r="C57" t="str">
         <v>Independent</v>
       </c>
+      <c r="E57" t="str">
+        <v>endOfLife</v>
+      </c>
       <c r="F57" t="str">
-        <v>endOfLife</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v/>
-      </c>
-      <c r="H57" t="str">
         <v/>
       </c>
     </row>
@@ -1821,13 +1835,13 @@
       <c r="C58" t="str">
         <v>Independent</v>
       </c>
+      <c r="E58" t="str">
+        <v>active</v>
+      </c>
       <c r="F58" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G58" t="str">
-        <v/>
-      </c>
-      <c r="H58" t="str">
         <v/>
       </c>
     </row>
@@ -1845,16 +1859,16 @@
         <v>Henrik Brandin</v>
       </c>
       <c r="E59" t="str">
+        <v>active</v>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
         <v>Henrik Brandin</v>
-      </c>
-      <c r="F59" t="str">
-        <v>active</v>
-      </c>
-      <c r="G59" t="str">
-        <v/>
-      </c>
-      <c r="H59" t="str">
-        <v/>
       </c>
     </row>
     <row r="60">
@@ -1871,16 +1885,16 @@
         <v>Jonas Svedling</v>
       </c>
       <c r="E60" t="str">
+        <v>active</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
         <v>Jonas Svedling</v>
-      </c>
-      <c r="F60" t="str">
-        <v>active</v>
-      </c>
-      <c r="G60" t="str">
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <v/>
       </c>
     </row>
     <row r="61">
@@ -1897,16 +1911,16 @@
         <v>George Kalo</v>
       </c>
       <c r="E61" t="str">
+        <v>endOfLife</v>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
         <v>Samira Ishak Johansson</v>
-      </c>
-      <c r="F61" t="str">
-        <v>endOfLife</v>
-      </c>
-      <c r="G61" t="str">
-        <v/>
-      </c>
-      <c r="H61" t="str">
-        <v/>
       </c>
     </row>
     <row r="62">
@@ -1923,16 +1937,16 @@
         <v>Azam Roomi</v>
       </c>
       <c r="E62" t="str">
+        <v>active</v>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
         <v>Nikeshkumar Jain</v>
-      </c>
-      <c r="F62" t="str">
-        <v>active</v>
-      </c>
-      <c r="G62" t="str">
-        <v/>
-      </c>
-      <c r="H62" t="str">
-        <v/>
       </c>
     </row>
     <row r="63">
@@ -1949,16 +1963,16 @@
         <v>Fredrik Svanström</v>
       </c>
       <c r="E63" t="str">
+        <v>active</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
         <v>Fredrik Fagervall</v>
-      </c>
-      <c r="F63" t="str">
-        <v>active</v>
-      </c>
-      <c r="G63" t="str">
-        <v/>
-      </c>
-      <c r="H63" t="str">
-        <v/>
       </c>
     </row>
     <row r="64">
@@ -1975,16 +1989,16 @@
         <v>Rasmus Nordqvist</v>
       </c>
       <c r="E64" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
         <v>Sandro Dias</v>
-      </c>
-      <c r="F64" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G64" t="str">
-        <v/>
-      </c>
-      <c r="H64" t="str">
-        <v/>
       </c>
     </row>
     <row r="65">
@@ -2001,16 +2015,16 @@
         <v>ingemar.liden@scania.com</v>
       </c>
       <c r="E65" t="str">
+        <v>active</v>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
         <v>Johnny Uddstrand</v>
-      </c>
-      <c r="F65" t="str">
-        <v>active</v>
-      </c>
-      <c r="G65" t="str">
-        <v/>
-      </c>
-      <c r="H65" t="str">
-        <v/>
       </c>
     </row>
     <row r="66">
@@ -2026,13 +2040,13 @@
       <c r="D66" t="str">
         <v>Per Casserdahl</v>
       </c>
+      <c r="E66" t="str">
+        <v>active</v>
+      </c>
       <c r="F66" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G66" t="str">
-        <v/>
-      </c>
-      <c r="H66" t="str">
         <v/>
       </c>
     </row>
@@ -2050,16 +2064,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E67" t="str">
+        <v>active</v>
+      </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="J67" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F67" t="str">
-        <v>active</v>
-      </c>
-      <c r="G67" t="str">
-        <v/>
-      </c>
-      <c r="H67" t="str">
-        <v/>
       </c>
     </row>
     <row r="68">
@@ -2076,16 +2090,16 @@
         <v>Jan Laestander</v>
       </c>
       <c r="E68" t="str">
+        <v>active</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="J68" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F68" t="str">
-        <v>active</v>
-      </c>
-      <c r="G68" t="str">
-        <v/>
-      </c>
-      <c r="H68" t="str">
-        <v/>
       </c>
     </row>
     <row r="69">
@@ -2101,13 +2115,13 @@
       <c r="D69" t="str">
         <v>Camilla Pettersson</v>
       </c>
+      <c r="E69" t="str">
+        <v>active</v>
+      </c>
       <c r="F69" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v/>
-      </c>
-      <c r="H69" t="str">
         <v/>
       </c>
     </row>
@@ -2122,16 +2136,16 @@
         <v>Independent</v>
       </c>
       <c r="E70" t="str">
+        <v>active</v>
+      </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
         <v>Carina Lillieqvist</v>
-      </c>
-      <c r="F70" t="str">
-        <v>active</v>
-      </c>
-      <c r="G70" t="str">
-        <v/>
-      </c>
-      <c r="H70" t="str">
-        <v/>
       </c>
     </row>
     <row r="71">
@@ -2145,16 +2159,16 @@
         <v>Independent</v>
       </c>
       <c r="E71" t="str">
+        <v>active</v>
+      </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
         <v>Andreas Dahlin</v>
-      </c>
-      <c r="F71" t="str">
-        <v>active</v>
-      </c>
-      <c r="G71" t="str">
-        <v/>
-      </c>
-      <c r="H71" t="str">
-        <v/>
       </c>
     </row>
     <row r="72">
@@ -2171,16 +2185,16 @@
         <v>Henrik Boman</v>
       </c>
       <c r="E72" t="str">
+        <v>active</v>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
         <v>Matts Dalvik</v>
-      </c>
-      <c r="F72" t="str">
-        <v>active</v>
-      </c>
-      <c r="G72" t="str">
-        <v/>
-      </c>
-      <c r="H72" t="str">
-        <v/>
       </c>
     </row>
     <row r="73">
@@ -2193,13 +2207,13 @@
       <c r="C73" t="str">
         <v>Independent</v>
       </c>
+      <c r="E73" t="str">
+        <v>-</v>
+      </c>
       <c r="F73" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="G73" t="str">
-        <v/>
-      </c>
-      <c r="H73" t="str">
         <v/>
       </c>
     </row>
@@ -2216,13 +2230,13 @@
       <c r="D74" t="str">
         <v>pavel.krepala@scania.de</v>
       </c>
+      <c r="E74" t="str">
+        <v/>
+      </c>
       <c r="F74" t="str">
         <v/>
       </c>
       <c r="G74" t="str">
-        <v/>
-      </c>
-      <c r="H74" t="str">
         <v/>
       </c>
     </row>
@@ -2240,16 +2254,16 @@
         <v>Omar Khalid</v>
       </c>
       <c r="E75" t="str">
+        <v>active</v>
+      </c>
+      <c r="F75" t="str">
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
         <v>Angel Devaraj</v>
-      </c>
-      <c r="F75" t="str">
-        <v>active</v>
-      </c>
-      <c r="G75" t="str">
-        <v/>
-      </c>
-      <c r="H75" t="str">
-        <v/>
       </c>
     </row>
     <row r="76">
@@ -2266,16 +2280,16 @@
         <v>Michael Eriksson</v>
       </c>
       <c r="E76" t="str">
+        <v>active</v>
+      </c>
+      <c r="F76" t="str">
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
         <v>Michael Eriksson</v>
-      </c>
-      <c r="F76" t="str">
-        <v>active</v>
-      </c>
-      <c r="G76" t="str">
-        <v/>
-      </c>
-      <c r="H76" t="str">
-        <v/>
       </c>
     </row>
     <row r="77">
@@ -2291,13 +2305,13 @@
       <c r="D77" t="str">
         <v>Tomas Hebbou</v>
       </c>
+      <c r="E77" t="str">
+        <v>active</v>
+      </c>
       <c r="F77" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G77" t="str">
-        <v/>
-      </c>
-      <c r="H77" t="str">
         <v/>
       </c>
     </row>
@@ -2315,16 +2329,16 @@
         <v>Tom Varis</v>
       </c>
       <c r="E78" t="str">
+        <v>active</v>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
         <v>Carina Lillieqvist</v>
-      </c>
-      <c r="F78" t="str">
-        <v>active</v>
-      </c>
-      <c r="G78" t="str">
-        <v/>
-      </c>
-      <c r="H78" t="str">
-        <v/>
       </c>
     </row>
     <row r="79">
@@ -2338,16 +2352,16 @@
         <v>Independent</v>
       </c>
       <c r="E79" t="str">
+        <v>active</v>
+      </c>
+      <c r="F79" t="str">
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
         <v>Jennifer Huang</v>
-      </c>
-      <c r="F79" t="str">
-        <v>active</v>
-      </c>
-      <c r="G79" t="str">
-        <v/>
-      </c>
-      <c r="H79" t="str">
-        <v/>
       </c>
     </row>
     <row r="80">
@@ -2364,16 +2378,16 @@
         <v>Jan Laestander</v>
       </c>
       <c r="E80" t="str">
+        <v>active</v>
+      </c>
+      <c r="F80" t="str">
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F80" t="str">
-        <v>active</v>
-      </c>
-      <c r="G80" t="str">
-        <v/>
-      </c>
-      <c r="H80" t="str">
-        <v/>
       </c>
     </row>
     <row r="81">
@@ -2387,16 +2401,16 @@
         <v>Independent</v>
       </c>
       <c r="E81" t="str">
+        <v>active</v>
+      </c>
+      <c r="F81" t="str">
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
         <v>Jakob Mäehans</v>
-      </c>
-      <c r="F81" t="str">
-        <v>active</v>
-      </c>
-      <c r="G81" t="str">
-        <v/>
-      </c>
-      <c r="H81" t="str">
-        <v/>
       </c>
     </row>
     <row r="82">
@@ -2413,16 +2427,16 @@
         <v>Sofia Karlgård Fräjdin</v>
       </c>
       <c r="E82" t="str">
+        <v>active</v>
+      </c>
+      <c r="F82" t="str">
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="J82" t="str">
         <v>Janardhan Venkatesh Kadashettahalli</v>
-      </c>
-      <c r="F82" t="str">
-        <v>active</v>
-      </c>
-      <c r="G82" t="str">
-        <v/>
-      </c>
-      <c r="H82" t="str">
-        <v/>
       </c>
     </row>
     <row r="83">
@@ -2439,16 +2453,16 @@
         <v>Sofia Karlgård Fräjdin</v>
       </c>
       <c r="E83" t="str">
+        <v>active</v>
+      </c>
+      <c r="F83" t="str">
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+      <c r="J83" t="str">
         <v>Janardhan Venkatesh Kadashettahalli</v>
-      </c>
-      <c r="F83" t="str">
-        <v>active</v>
-      </c>
-      <c r="G83" t="str">
-        <v/>
-      </c>
-      <c r="H83" t="str">
-        <v/>
       </c>
     </row>
     <row r="84">
@@ -2465,16 +2479,16 @@
         <v>Johan Sundblad</v>
       </c>
       <c r="E84" t="str">
+        <v>active</v>
+      </c>
+      <c r="F84" t="str">
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F84" t="str">
-        <v>active</v>
-      </c>
-      <c r="G84" t="str">
-        <v/>
-      </c>
-      <c r="H84" t="str">
-        <v/>
       </c>
     </row>
     <row r="85">
@@ -2490,13 +2504,13 @@
       <c r="D85" t="str">
         <v>Johan Sundblad</v>
       </c>
+      <c r="E85" t="str">
+        <v>active</v>
+      </c>
       <c r="F85" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G85" t="str">
-        <v/>
-      </c>
-      <c r="H85" t="str">
         <v/>
       </c>
     </row>
@@ -2514,16 +2528,16 @@
         <v>Soile Lundqvist</v>
       </c>
       <c r="E86" t="str">
+        <v>plan</v>
+      </c>
+      <c r="F86" t="str">
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
         <v>Radomir Zuniga</v>
-      </c>
-      <c r="F86" t="str">
-        <v>plan</v>
-      </c>
-      <c r="G86" t="str">
-        <v/>
-      </c>
-      <c r="H86" t="str">
-        <v/>
       </c>
     </row>
     <row r="87">
@@ -2540,16 +2554,16 @@
         <v>Jan Laestander</v>
       </c>
       <c r="E87" t="str">
+        <v>active</v>
+      </c>
+      <c r="F87" t="str">
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F87" t="str">
-        <v>active</v>
-      </c>
-      <c r="G87" t="str">
-        <v/>
-      </c>
-      <c r="H87" t="str">
-        <v/>
       </c>
     </row>
     <row r="88">
@@ -2565,13 +2579,13 @@
       <c r="D88" t="str">
         <v>Ann-Charlotte Prause</v>
       </c>
+      <c r="E88" t="str">
+        <v>active</v>
+      </c>
       <c r="F88" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G88" t="str">
-        <v/>
-      </c>
-      <c r="H88" t="str">
         <v/>
       </c>
     </row>
@@ -2589,16 +2603,16 @@
         <v>Rolf Nordin</v>
       </c>
       <c r="E89" t="str">
+        <v>active</v>
+      </c>
+      <c r="F89" t="str">
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
         <v>Fredrik Tomasson</v>
-      </c>
-      <c r="F89" t="str">
-        <v>active</v>
-      </c>
-      <c r="G89" t="str">
-        <v/>
-      </c>
-      <c r="H89" t="str">
-        <v/>
       </c>
     </row>
     <row r="90">
@@ -2615,16 +2629,16 @@
         <v>Marie Pålsson</v>
       </c>
       <c r="E90" t="str">
+        <v>active</v>
+      </c>
+      <c r="F90" t="str">
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F90" t="str">
-        <v>active</v>
-      </c>
-      <c r="G90" t="str">
-        <v/>
-      </c>
-      <c r="H90" t="str">
-        <v/>
       </c>
     </row>
     <row r="91">
@@ -2641,16 +2655,16 @@
         <v>Marcus Brodersen</v>
       </c>
       <c r="E91" t="str">
+        <v>active</v>
+      </c>
+      <c r="F91" t="str">
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
         <v>Johan Berggren</v>
-      </c>
-      <c r="F91" t="str">
-        <v>active</v>
-      </c>
-      <c r="G91" t="str">
-        <v/>
-      </c>
-      <c r="H91" t="str">
-        <v/>
       </c>
     </row>
     <row r="92">
@@ -2667,16 +2681,16 @@
         <v>niklas.torstensson@scania.com</v>
       </c>
       <c r="E92" t="str">
+        <v>active</v>
+      </c>
+      <c r="F92" t="str">
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="J92" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F92" t="str">
-        <v>active</v>
-      </c>
-      <c r="G92" t="str">
-        <v/>
-      </c>
-      <c r="H92" t="str">
-        <v/>
       </c>
     </row>
     <row r="93">
@@ -2690,16 +2704,16 @@
         <v>Independent</v>
       </c>
       <c r="E93" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F93" t="str">
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="J93" t="str">
         <v>Ragini Sabharaj Singh</v>
-      </c>
-      <c r="F93" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G93" t="str">
-        <v/>
-      </c>
-      <c r="H93" t="str">
-        <v/>
       </c>
     </row>
     <row r="94">
@@ -2716,16 +2730,16 @@
         <v>Argeu Lazzarotto</v>
       </c>
       <c r="E94" t="str">
+        <v>active</v>
+      </c>
+      <c r="F94" t="str">
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
         <v>Asif Shakoor</v>
-      </c>
-      <c r="F94" t="str">
-        <v>active</v>
-      </c>
-      <c r="G94" t="str">
-        <v/>
-      </c>
-      <c r="H94" t="str">
-        <v/>
       </c>
     </row>
     <row r="95">
@@ -2742,16 +2756,16 @@
         <v>Christianne Sandstig</v>
       </c>
       <c r="E95" t="str">
+        <v>active</v>
+      </c>
+      <c r="F95" t="str">
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
         <v>Gunpreet Kaur</v>
-      </c>
-      <c r="F95" t="str">
-        <v>active</v>
-      </c>
-      <c r="G95" t="str">
-        <v/>
-      </c>
-      <c r="H95" t="str">
-        <v/>
       </c>
     </row>
     <row r="96">
@@ -2765,16 +2779,16 @@
         <v>Independent</v>
       </c>
       <c r="E96" t="str">
+        <v>active</v>
+      </c>
+      <c r="F96" t="str">
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
         <v>Ulf Löfström</v>
-      </c>
-      <c r="F96" t="str">
-        <v>active</v>
-      </c>
-      <c r="G96" t="str">
-        <v/>
-      </c>
-      <c r="H96" t="str">
-        <v/>
       </c>
     </row>
     <row r="97">
@@ -2787,13 +2801,13 @@
       <c r="C97" t="str">
         <v>Independent</v>
       </c>
+      <c r="E97" t="str">
+        <v>-</v>
+      </c>
       <c r="F97" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="G97" t="str">
-        <v/>
-      </c>
-      <c r="H97" t="str">
         <v/>
       </c>
     </row>
@@ -2811,16 +2825,16 @@
         <v>Björn Näslund</v>
       </c>
       <c r="E98" t="str">
+        <v>active</v>
+      </c>
+      <c r="F98" t="str">
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
         <v>Björn Näslund</v>
-      </c>
-      <c r="F98" t="str">
-        <v>active</v>
-      </c>
-      <c r="G98" t="str">
-        <v/>
-      </c>
-      <c r="H98" t="str">
-        <v/>
       </c>
     </row>
     <row r="99">
@@ -2837,16 +2851,16 @@
         <v>Linda Svensson</v>
       </c>
       <c r="E99" t="str">
+        <v>active</v>
+      </c>
+      <c r="F99" t="str">
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="J99" t="str">
         <v>Angel Devaraj</v>
-      </c>
-      <c r="F99" t="str">
-        <v>active</v>
-      </c>
-      <c r="G99" t="str">
-        <v/>
-      </c>
-      <c r="H99" t="str">
-        <v/>
       </c>
     </row>
     <row r="100">
@@ -2863,16 +2877,16 @@
         <v>Richard Andersson</v>
       </c>
       <c r="E100" t="str">
+        <v>active</v>
+      </c>
+      <c r="F100" t="str">
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
         <v>Paul Dmello</v>
-      </c>
-      <c r="F100" t="str">
-        <v>active</v>
-      </c>
-      <c r="G100" t="str">
-        <v/>
-      </c>
-      <c r="H100" t="str">
-        <v/>
       </c>
     </row>
     <row r="101">
@@ -2889,16 +2903,16 @@
         <v>Katrin Norman</v>
       </c>
       <c r="E101" t="str">
+        <v>active</v>
+      </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
         <v>Ali Demirci</v>
-      </c>
-      <c r="F101" t="str">
-        <v>active</v>
-      </c>
-      <c r="G101" t="str">
-        <v/>
-      </c>
-      <c r="H101" t="str">
-        <v/>
       </c>
     </row>
     <row r="102">
@@ -2914,13 +2928,13 @@
       <c r="D102" t="str">
         <v>Fernanda Marques</v>
       </c>
+      <c r="E102" t="str">
+        <v>phaseIn</v>
+      </c>
       <c r="F102" t="str">
-        <v>phaseIn</v>
+        <v/>
       </c>
       <c r="G102" t="str">
-        <v/>
-      </c>
-      <c r="H102" t="str">
         <v/>
       </c>
     </row>
@@ -2938,16 +2952,16 @@
         <v>Martina Pettersson</v>
       </c>
       <c r="E103" t="str">
+        <v>active</v>
+      </c>
+      <c r="F103" t="str">
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="J103" t="str">
         <v>Bianca Björkman</v>
-      </c>
-      <c r="F103" t="str">
-        <v>active</v>
-      </c>
-      <c r="G103" t="str">
-        <v/>
-      </c>
-      <c r="H103" t="str">
-        <v/>
       </c>
     </row>
     <row r="104">
@@ -2961,16 +2975,16 @@
         <v>Independent</v>
       </c>
       <c r="E104" t="str">
+        <v>active</v>
+      </c>
+      <c r="F104" t="str">
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="J104" t="str">
         <v>Yash Surendranath Gawai</v>
-      </c>
-      <c r="F104" t="str">
-        <v>active</v>
-      </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-      <c r="H104" t="str">
-        <v/>
       </c>
     </row>
     <row r="105">
@@ -2987,16 +3001,16 @@
         <v>Ola Sandström</v>
       </c>
       <c r="E105" t="str">
+        <v>active</v>
+      </c>
+      <c r="F105" t="str">
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="J105" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F105" t="str">
-        <v>active</v>
-      </c>
-      <c r="G105" t="str">
-        <v/>
-      </c>
-      <c r="H105" t="str">
-        <v/>
       </c>
     </row>
     <row r="106">
@@ -3013,16 +3027,16 @@
         <v>Birger Winroth</v>
       </c>
       <c r="E106" t="str">
+        <v>active</v>
+      </c>
+      <c r="F106" t="str">
+        <v/>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="J106" t="str">
         <v>Jonas Fransson</v>
-      </c>
-      <c r="F106" t="str">
-        <v>active</v>
-      </c>
-      <c r="G106" t="str">
-        <v/>
-      </c>
-      <c r="H106" t="str">
-        <v/>
       </c>
     </row>
     <row r="107">
@@ -3039,16 +3053,16 @@
         <v>Christina Grundström</v>
       </c>
       <c r="E107" t="str">
+        <v>active</v>
+      </c>
+      <c r="F107" t="str">
+        <v/>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="J107" t="str">
         <v>Helena Hyttnäs</v>
-      </c>
-      <c r="F107" t="str">
-        <v>active</v>
-      </c>
-      <c r="G107" t="str">
-        <v/>
-      </c>
-      <c r="H107" t="str">
-        <v/>
       </c>
     </row>
     <row r="108">
@@ -3065,16 +3079,16 @@
         <v>Helen Nordquist</v>
       </c>
       <c r="E108" t="str">
+        <v>active</v>
+      </c>
+      <c r="F108" t="str">
+        <v/>
+      </c>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+      <c r="J108" t="str">
         <v>Pontus Hellgren</v>
-      </c>
-      <c r="F108" t="str">
-        <v>active</v>
-      </c>
-      <c r="G108" t="str">
-        <v/>
-      </c>
-      <c r="H108" t="str">
-        <v/>
       </c>
     </row>
     <row r="109">
@@ -3091,16 +3105,16 @@
         <v>Pia Saifer</v>
       </c>
       <c r="E109" t="str">
+        <v>active</v>
+      </c>
+      <c r="F109" t="str">
+        <v/>
+      </c>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+      <c r="J109" t="str">
         <v>Liver Toma</v>
-      </c>
-      <c r="F109" t="str">
-        <v>active</v>
-      </c>
-      <c r="G109" t="str">
-        <v/>
-      </c>
-      <c r="H109" t="str">
-        <v/>
       </c>
     </row>
     <row r="110">
@@ -3117,16 +3131,16 @@
         <v>Gustaf Wadman</v>
       </c>
       <c r="E110" t="str">
+        <v>active</v>
+      </c>
+      <c r="F110" t="str">
+        <v/>
+      </c>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+      <c r="J110" t="str">
         <v>Sofie McInnes</v>
-      </c>
-      <c r="F110" t="str">
-        <v>active</v>
-      </c>
-      <c r="G110" t="str">
-        <v/>
-      </c>
-      <c r="H110" t="str">
-        <v/>
       </c>
     </row>
     <row r="111">
@@ -3143,16 +3157,16 @@
         <v>Daniel Hök</v>
       </c>
       <c r="E111" t="str">
+        <v>active</v>
+      </c>
+      <c r="F111" t="str">
+        <v/>
+      </c>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+      <c r="J111" t="str">
         <v>Philip Axelsson Moberg</v>
-      </c>
-      <c r="F111" t="str">
-        <v>active</v>
-      </c>
-      <c r="G111" t="str">
-        <v/>
-      </c>
-      <c r="H111" t="str">
-        <v/>
       </c>
     </row>
     <row r="112">
@@ -3166,16 +3180,16 @@
         <v>Independent</v>
       </c>
       <c r="E112" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F112" t="str">
+        <v/>
+      </c>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+      <c r="J112" t="str">
         <v>Libna Mareza Monteiro Frehner</v>
-      </c>
-      <c r="F112" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G112" t="str">
-        <v/>
-      </c>
-      <c r="H112" t="str">
-        <v/>
       </c>
     </row>
     <row r="113">
@@ -3192,16 +3206,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E113" t="str">
+        <v>active</v>
+      </c>
+      <c r="F113" t="str">
+        <v/>
+      </c>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+      <c r="J113" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F113" t="str">
-        <v>active</v>
-      </c>
-      <c r="G113" t="str">
-        <v/>
-      </c>
-      <c r="H113" t="str">
-        <v/>
       </c>
     </row>
     <row r="114">
@@ -3218,16 +3232,16 @@
         <v>erik.thoren@scania.com</v>
       </c>
       <c r="E114" t="str">
+        <v>active</v>
+      </c>
+      <c r="F114" t="str">
+        <v/>
+      </c>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+      <c r="J114" t="str">
         <v>Ankit Gautam</v>
-      </c>
-      <c r="F114" t="str">
-        <v>active</v>
-      </c>
-      <c r="G114" t="str">
-        <v/>
-      </c>
-      <c r="H114" t="str">
-        <v/>
       </c>
     </row>
     <row r="115">
@@ -3244,16 +3258,16 @@
         <v>Jakob Mäehans</v>
       </c>
       <c r="E115" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F115" t="str">
+        <v/>
+      </c>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+      <c r="J115" t="str">
         <v>Jakob Mäehans</v>
-      </c>
-      <c r="F115" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G115" t="str">
-        <v/>
-      </c>
-      <c r="H115" t="str">
-        <v/>
       </c>
     </row>
     <row r="116">
@@ -3266,13 +3280,13 @@
       <c r="C116" t="str">
         <v>Independent</v>
       </c>
+      <c r="E116" t="str">
+        <v/>
+      </c>
       <c r="F116" t="str">
         <v/>
       </c>
       <c r="G116" t="str">
-        <v/>
-      </c>
-      <c r="H116" t="str">
         <v/>
       </c>
     </row>
@@ -3289,13 +3303,13 @@
       <c r="D117" t="str">
         <v>Anders Lenntorp</v>
       </c>
+      <c r="E117" t="str">
+        <v>endOfLife</v>
+      </c>
       <c r="F117" t="str">
-        <v>endOfLife</v>
+        <v/>
       </c>
       <c r="G117" t="str">
-        <v/>
-      </c>
-      <c r="H117" t="str">
         <v/>
       </c>
     </row>
@@ -3309,13 +3323,13 @@
       <c r="C118" t="str">
         <v>Independent</v>
       </c>
+      <c r="E118" t="str">
+        <v>plan</v>
+      </c>
       <c r="F118" t="str">
-        <v>plan</v>
+        <v/>
       </c>
       <c r="G118" t="str">
-        <v/>
-      </c>
-      <c r="H118" t="str">
         <v/>
       </c>
     </row>
@@ -3333,16 +3347,16 @@
         <v>Alva Falinger</v>
       </c>
       <c r="E119" t="str">
+        <v>active</v>
+      </c>
+      <c r="F119" t="str">
+        <v/>
+      </c>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+      <c r="J119" t="str">
         <v>Belinda Granberg</v>
-      </c>
-      <c r="F119" t="str">
-        <v>active</v>
-      </c>
-      <c r="G119" t="str">
-        <v/>
-      </c>
-      <c r="H119" t="str">
-        <v/>
       </c>
     </row>
     <row r="120">
@@ -3356,16 +3370,16 @@
         <v>Independent</v>
       </c>
       <c r="E120" t="str">
+        <v>active</v>
+      </c>
+      <c r="F120" t="str">
+        <v/>
+      </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+      <c r="J120" t="str">
         <v>Fredrik Nyberg</v>
-      </c>
-      <c r="F120" t="str">
-        <v>active</v>
-      </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-      <c r="H120" t="str">
-        <v/>
       </c>
     </row>
     <row r="121">
@@ -3382,16 +3396,16 @@
         <v>Magnus Nordlund</v>
       </c>
       <c r="E121" t="str">
+        <v>active</v>
+      </c>
+      <c r="F121" t="str">
+        <v/>
+      </c>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+      <c r="J121" t="str">
         <v>Kristian Talvitie</v>
-      </c>
-      <c r="F121" t="str">
-        <v>active</v>
-      </c>
-      <c r="G121" t="str">
-        <v/>
-      </c>
-      <c r="H121" t="str">
-        <v/>
       </c>
     </row>
     <row r="122">
@@ -3408,16 +3422,16 @@
         <v>Thomas Öberg</v>
       </c>
       <c r="E122" t="str">
+        <v>active</v>
+      </c>
+      <c r="F122" t="str">
+        <v/>
+      </c>
+      <c r="G122" t="str">
+        <v/>
+      </c>
+      <c r="J122" t="str">
         <v>Thomas Öberg</v>
-      </c>
-      <c r="F122" t="str">
-        <v>active</v>
-      </c>
-      <c r="G122" t="str">
-        <v/>
-      </c>
-      <c r="H122" t="str">
-        <v/>
       </c>
     </row>
     <row r="123">
@@ -3434,16 +3448,16 @@
         <v>Usman Arshad Khan</v>
       </c>
       <c r="E123" t="str">
+        <v>endOfLife</v>
+      </c>
+      <c r="F123" t="str">
+        <v/>
+      </c>
+      <c r="G123" t="str">
+        <v/>
+      </c>
+      <c r="J123" t="str">
         <v>Komal Matkar</v>
-      </c>
-      <c r="F123" t="str">
-        <v>endOfLife</v>
-      </c>
-      <c r="G123" t="str">
-        <v/>
-      </c>
-      <c r="H123" t="str">
-        <v/>
       </c>
     </row>
     <row r="124">
@@ -3460,16 +3474,16 @@
         <v>Katrin Norman</v>
       </c>
       <c r="E124" t="str">
+        <v>active</v>
+      </c>
+      <c r="F124" t="str">
+        <v/>
+      </c>
+      <c r="G124" t="str">
+        <v/>
+      </c>
+      <c r="J124" t="str">
         <v>Mikaela Nilsson</v>
-      </c>
-      <c r="F124" t="str">
-        <v>active</v>
-      </c>
-      <c r="G124" t="str">
-        <v/>
-      </c>
-      <c r="H124" t="str">
-        <v/>
       </c>
     </row>
     <row r="125">
@@ -3486,16 +3500,16 @@
         <v>Jörgen Andersson</v>
       </c>
       <c r="E125" t="str">
+        <v>active</v>
+      </c>
+      <c r="F125" t="str">
+        <v/>
+      </c>
+      <c r="G125" t="str">
+        <v/>
+      </c>
+      <c r="J125" t="str">
         <v>Johan Sundblad</v>
-      </c>
-      <c r="F125" t="str">
-        <v>active</v>
-      </c>
-      <c r="G125" t="str">
-        <v/>
-      </c>
-      <c r="H125" t="str">
-        <v/>
       </c>
     </row>
     <row r="126">
@@ -3509,16 +3523,16 @@
         <v>Independent</v>
       </c>
       <c r="E126" t="str">
+        <v>active</v>
+      </c>
+      <c r="F126" t="str">
+        <v/>
+      </c>
+      <c r="G126" t="str">
+        <v/>
+      </c>
+      <c r="J126" t="str">
         <v>Johnny Åkerlind</v>
-      </c>
-      <c r="F126" t="str">
-        <v>active</v>
-      </c>
-      <c r="G126" t="str">
-        <v/>
-      </c>
-      <c r="H126" t="str">
-        <v/>
       </c>
     </row>
     <row r="127">
@@ -3532,16 +3546,16 @@
         <v>Independent</v>
       </c>
       <c r="E127" t="str">
+        <v>active</v>
+      </c>
+      <c r="F127" t="str">
+        <v/>
+      </c>
+      <c r="G127" t="str">
+        <v/>
+      </c>
+      <c r="J127" t="str">
         <v>Farangis Hakimi</v>
-      </c>
-      <c r="F127" t="str">
-        <v>active</v>
-      </c>
-      <c r="G127" t="str">
-        <v/>
-      </c>
-      <c r="H127" t="str">
-        <v/>
       </c>
     </row>
     <row r="128">
@@ -3558,16 +3572,16 @@
         <v>Johan Nilo</v>
       </c>
       <c r="E128" t="str">
+        <v>active</v>
+      </c>
+      <c r="F128" t="str">
+        <v/>
+      </c>
+      <c r="G128" t="str">
+        <v/>
+      </c>
+      <c r="J128" t="str">
         <v>Lara Johansson</v>
-      </c>
-      <c r="F128" t="str">
-        <v>active</v>
-      </c>
-      <c r="G128" t="str">
-        <v/>
-      </c>
-      <c r="H128" t="str">
-        <v/>
       </c>
     </row>
     <row r="129">
@@ -3580,13 +3594,13 @@
       <c r="C129" t="str">
         <v>Independent</v>
       </c>
+      <c r="E129" t="str">
+        <v/>
+      </c>
       <c r="F129" t="str">
         <v/>
       </c>
       <c r="G129" t="str">
-        <v/>
-      </c>
-      <c r="H129" t="str">
         <v/>
       </c>
     </row>
@@ -3604,16 +3618,16 @@
         <v>Vidyalakshmi Veeraraghavan</v>
       </c>
       <c r="E130" t="str">
+        <v>active</v>
+      </c>
+      <c r="F130" t="str">
+        <v/>
+      </c>
+      <c r="G130" t="str">
+        <v/>
+      </c>
+      <c r="J130" t="str">
         <v>Anju Naveenraj</v>
-      </c>
-      <c r="F130" t="str">
-        <v>active</v>
-      </c>
-      <c r="G130" t="str">
-        <v/>
-      </c>
-      <c r="H130" t="str">
-        <v/>
       </c>
     </row>
     <row r="131">
@@ -3630,16 +3644,16 @@
         <v>Larissa Bueno</v>
       </c>
       <c r="E131" t="str">
+        <v>active</v>
+      </c>
+      <c r="F131" t="str">
+        <v/>
+      </c>
+      <c r="G131" t="str">
+        <v/>
+      </c>
+      <c r="J131" t="str">
         <v>Elias Abissamra</v>
-      </c>
-      <c r="F131" t="str">
-        <v>active</v>
-      </c>
-      <c r="G131" t="str">
-        <v/>
-      </c>
-      <c r="H131" t="str">
-        <v/>
       </c>
     </row>
     <row r="132">
@@ -3656,16 +3670,16 @@
         <v>Magnus Karlsson</v>
       </c>
       <c r="E132" t="str">
+        <v>active</v>
+      </c>
+      <c r="F132" t="str">
+        <v/>
+      </c>
+      <c r="G132" t="str">
+        <v/>
+      </c>
+      <c r="J132" t="str">
         <v>Belinda Granberg</v>
-      </c>
-      <c r="F132" t="str">
-        <v>active</v>
-      </c>
-      <c r="G132" t="str">
-        <v/>
-      </c>
-      <c r="H132" t="str">
-        <v/>
       </c>
     </row>
     <row r="133">
@@ -3682,16 +3696,16 @@
         <v>Fredrik Perdahl</v>
       </c>
       <c r="E133" t="str">
+        <v>active</v>
+      </c>
+      <c r="F133" t="str">
+        <v/>
+      </c>
+      <c r="G133" t="str">
+        <v/>
+      </c>
+      <c r="J133" t="str">
         <v>Amruta Shubhankar Joshi</v>
-      </c>
-      <c r="F133" t="str">
-        <v>active</v>
-      </c>
-      <c r="G133" t="str">
-        <v/>
-      </c>
-      <c r="H133" t="str">
-        <v/>
       </c>
     </row>
     <row r="134">
@@ -3704,13 +3718,13 @@
       <c r="C134" t="str">
         <v>Independent</v>
       </c>
+      <c r="E134" t="str">
+        <v>active</v>
+      </c>
       <c r="F134" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G134" t="str">
-        <v/>
-      </c>
-      <c r="H134" t="str">
         <v/>
       </c>
     </row>
@@ -3728,16 +3742,16 @@
         <v>Pietro Astori</v>
       </c>
       <c r="E135" t="str">
+        <v>active</v>
+      </c>
+      <c r="F135" t="str">
+        <v/>
+      </c>
+      <c r="G135" t="str">
+        <v/>
+      </c>
+      <c r="J135" t="str">
         <v>Nils-Ove Fredriksson</v>
-      </c>
-      <c r="F135" t="str">
-        <v>active</v>
-      </c>
-      <c r="G135" t="str">
-        <v/>
-      </c>
-      <c r="H135" t="str">
-        <v/>
       </c>
     </row>
     <row r="136">
@@ -3754,16 +3768,16 @@
         <v>Elie Shamey</v>
       </c>
       <c r="E136" t="str">
+        <v>active</v>
+      </c>
+      <c r="F136" t="str">
+        <v/>
+      </c>
+      <c r="G136" t="str">
+        <v/>
+      </c>
+      <c r="J136" t="str">
         <v>Anders Hedenstrand</v>
-      </c>
-      <c r="F136" t="str">
-        <v>active</v>
-      </c>
-      <c r="G136" t="str">
-        <v/>
-      </c>
-      <c r="H136" t="str">
-        <v/>
       </c>
     </row>
     <row r="137">
@@ -3780,16 +3794,16 @@
         <v>Daniel Rosner</v>
       </c>
       <c r="E137" t="str">
+        <v>active</v>
+      </c>
+      <c r="F137" t="str">
+        <v/>
+      </c>
+      <c r="G137" t="str">
+        <v/>
+      </c>
+      <c r="J137" t="str">
         <v>Helena Bjuresäter-Sjöholm</v>
-      </c>
-      <c r="F137" t="str">
-        <v>active</v>
-      </c>
-      <c r="G137" t="str">
-        <v/>
-      </c>
-      <c r="H137" t="str">
-        <v/>
       </c>
     </row>
     <row r="138">
@@ -3806,16 +3820,16 @@
         <v>Per Tulldahl</v>
       </c>
       <c r="E138" t="str">
+        <v>active</v>
+      </c>
+      <c r="F138" t="str">
+        <v/>
+      </c>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+      <c r="J138" t="str">
         <v>Belinda Granberg</v>
-      </c>
-      <c r="F138" t="str">
-        <v>active</v>
-      </c>
-      <c r="G138" t="str">
-        <v/>
-      </c>
-      <c r="H138" t="str">
-        <v/>
       </c>
     </row>
     <row r="139">
@@ -3828,13 +3842,13 @@
       <c r="C139" t="str">
         <v>Independent</v>
       </c>
+      <c r="E139" t="str">
+        <v>active</v>
+      </c>
       <c r="F139" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G139" t="str">
-        <v/>
-      </c>
-      <c r="H139" t="str">
         <v/>
       </c>
     </row>
@@ -3851,13 +3865,13 @@
       <c r="D140" t="str">
         <v>Conny Örtlund</v>
       </c>
+      <c r="E140" t="str">
+        <v>active</v>
+      </c>
       <c r="F140" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G140" t="str">
-        <v/>
-      </c>
-      <c r="H140" t="str">
         <v/>
       </c>
     </row>
@@ -3874,13 +3888,13 @@
       <c r="D141" t="str">
         <v>Magnus Karlsson</v>
       </c>
+      <c r="E141" t="str">
+        <v>active</v>
+      </c>
       <c r="F141" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G141" t="str">
-        <v/>
-      </c>
-      <c r="H141" t="str">
         <v/>
       </c>
     </row>
@@ -3898,16 +3912,16 @@
         <v>Jakob Mäehans</v>
       </c>
       <c r="E142" t="str">
+        <v>active</v>
+      </c>
+      <c r="F142" t="str">
+        <v/>
+      </c>
+      <c r="G142" t="str">
+        <v/>
+      </c>
+      <c r="J142" t="str">
         <v>Jakob Mäehans</v>
-      </c>
-      <c r="F142" t="str">
-        <v>active</v>
-      </c>
-      <c r="G142" t="str">
-        <v/>
-      </c>
-      <c r="H142" t="str">
-        <v/>
       </c>
     </row>
     <row r="143">
@@ -3921,16 +3935,16 @@
         <v>Independent</v>
       </c>
       <c r="E143" t="str">
+        <v>active</v>
+      </c>
+      <c r="F143" t="str">
+        <v/>
+      </c>
+      <c r="G143" t="str">
+        <v/>
+      </c>
+      <c r="J143" t="str">
         <v>Johnny Åkerlind</v>
-      </c>
-      <c r="F143" t="str">
-        <v>active</v>
-      </c>
-      <c r="G143" t="str">
-        <v/>
-      </c>
-      <c r="H143" t="str">
-        <v/>
       </c>
     </row>
     <row r="144">
@@ -3943,13 +3957,13 @@
       <c r="C144" t="str">
         <v>Independent</v>
       </c>
+      <c r="E144" t="str">
+        <v>active</v>
+      </c>
       <c r="F144" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G144" t="str">
-        <v/>
-      </c>
-      <c r="H144" t="str">
         <v/>
       </c>
     </row>
@@ -3967,16 +3981,16 @@
         <v>Pankaj Gupta</v>
       </c>
       <c r="E145" t="str">
+        <v>active</v>
+      </c>
+      <c r="F145" t="str">
+        <v/>
+      </c>
+      <c r="G145" t="str">
+        <v/>
+      </c>
+      <c r="J145" t="str">
         <v>Sargon Suberkli</v>
-      </c>
-      <c r="F145" t="str">
-        <v>active</v>
-      </c>
-      <c r="G145" t="str">
-        <v/>
-      </c>
-      <c r="H145" t="str">
-        <v/>
       </c>
     </row>
     <row r="146">
@@ -3989,13 +4003,13 @@
       <c r="C146" t="str">
         <v>Independent</v>
       </c>
+      <c r="E146" t="str">
+        <v/>
+      </c>
       <c r="F146" t="str">
         <v/>
       </c>
       <c r="G146" t="str">
-        <v/>
-      </c>
-      <c r="H146" t="str">
         <v/>
       </c>
     </row>
@@ -4010,16 +4024,16 @@
         <v>Independent</v>
       </c>
       <c r="E147" t="str">
+        <v>active</v>
+      </c>
+      <c r="F147" t="str">
+        <v/>
+      </c>
+      <c r="G147" t="str">
+        <v/>
+      </c>
+      <c r="J147" t="str">
         <v>Liver Toma</v>
-      </c>
-      <c r="F147" t="str">
-        <v>active</v>
-      </c>
-      <c r="G147" t="str">
-        <v/>
-      </c>
-      <c r="H147" t="str">
-        <v/>
       </c>
     </row>
     <row r="148">
@@ -4036,16 +4050,16 @@
         <v>Björn Näslund</v>
       </c>
       <c r="E148" t="str">
+        <v>active</v>
+      </c>
+      <c r="F148" t="str">
+        <v/>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+      <c r="J148" t="str">
         <v>Björn Näslund</v>
-      </c>
-      <c r="F148" t="str">
-        <v>active</v>
-      </c>
-      <c r="G148" t="str">
-        <v/>
-      </c>
-      <c r="H148" t="str">
-        <v/>
       </c>
     </row>
     <row r="149">
@@ -4062,16 +4076,16 @@
         <v>Anders Ahlström</v>
       </c>
       <c r="E149" t="str">
+        <v>active</v>
+      </c>
+      <c r="F149" t="str">
+        <v/>
+      </c>
+      <c r="G149" t="str">
+        <v/>
+      </c>
+      <c r="J149" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F149" t="str">
-        <v>active</v>
-      </c>
-      <c r="G149" t="str">
-        <v/>
-      </c>
-      <c r="H149" t="str">
-        <v/>
       </c>
     </row>
     <row r="150">
@@ -4088,16 +4102,16 @@
         <v>Kilian Schott</v>
       </c>
       <c r="E150" t="str">
+        <v>active</v>
+      </c>
+      <c r="F150" t="str">
+        <v/>
+      </c>
+      <c r="G150" t="str">
+        <v/>
+      </c>
+      <c r="J150" t="str">
         <v>Mikaela Garroz</v>
-      </c>
-      <c r="F150" t="str">
-        <v>active</v>
-      </c>
-      <c r="G150" t="str">
-        <v/>
-      </c>
-      <c r="H150" t="str">
-        <v/>
       </c>
     </row>
     <row r="151">
@@ -4114,16 +4128,16 @@
         <v>Camilla Larsson</v>
       </c>
       <c r="E151" t="str">
+        <v>active</v>
+      </c>
+      <c r="F151" t="str">
+        <v/>
+      </c>
+      <c r="G151" t="str">
+        <v/>
+      </c>
+      <c r="J151" t="str">
         <v>Stephanie Härdig</v>
-      </c>
-      <c r="F151" t="str">
-        <v>active</v>
-      </c>
-      <c r="G151" t="str">
-        <v/>
-      </c>
-      <c r="H151" t="str">
-        <v/>
       </c>
     </row>
     <row r="152">
@@ -4140,16 +4154,16 @@
         <v>Anne-May Lundberg</v>
       </c>
       <c r="E152" t="str">
+        <v>active</v>
+      </c>
+      <c r="F152" t="str">
+        <v/>
+      </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+      <c r="J152" t="str">
         <v>Anand Sharma</v>
-      </c>
-      <c r="F152" t="str">
-        <v>active</v>
-      </c>
-      <c r="G152" t="str">
-        <v/>
-      </c>
-      <c r="H152" t="str">
-        <v/>
       </c>
     </row>
     <row r="153">
@@ -4166,16 +4180,16 @@
         <v>Staffan Halvarsson</v>
       </c>
       <c r="E153" t="str">
+        <v>active</v>
+      </c>
+      <c r="F153" t="str">
+        <v/>
+      </c>
+      <c r="G153" t="str">
+        <v/>
+      </c>
+      <c r="J153" t="str">
         <v>Sunayana Chatterjee</v>
-      </c>
-      <c r="F153" t="str">
-        <v>active</v>
-      </c>
-      <c r="G153" t="str">
-        <v/>
-      </c>
-      <c r="H153" t="str">
-        <v/>
       </c>
     </row>
     <row r="154">
@@ -4192,16 +4206,16 @@
         <v>Robin Gador</v>
       </c>
       <c r="E154" t="str">
+        <v>active</v>
+      </c>
+      <c r="F154" t="str">
+        <v/>
+      </c>
+      <c r="G154" t="str">
+        <v/>
+      </c>
+      <c r="J154" t="str">
         <v>Malin Spång</v>
-      </c>
-      <c r="F154" t="str">
-        <v>active</v>
-      </c>
-      <c r="G154" t="str">
-        <v/>
-      </c>
-      <c r="H154" t="str">
-        <v/>
       </c>
     </row>
     <row r="155">
@@ -4218,16 +4232,16 @@
         <v>Catharina Nyberg</v>
       </c>
       <c r="E155" t="str">
+        <v>active</v>
+      </c>
+      <c r="F155" t="str">
+        <v/>
+      </c>
+      <c r="G155" t="str">
+        <v/>
+      </c>
+      <c r="J155" t="str">
         <v>Anju Naveenraj</v>
-      </c>
-      <c r="F155" t="str">
-        <v>active</v>
-      </c>
-      <c r="G155" t="str">
-        <v/>
-      </c>
-      <c r="H155" t="str">
-        <v/>
       </c>
     </row>
     <row r="156">
@@ -4241,16 +4255,16 @@
         <v>Independent</v>
       </c>
       <c r="E156" t="str">
+        <v>active</v>
+      </c>
+      <c r="F156" t="str">
+        <v/>
+      </c>
+      <c r="G156" t="str">
+        <v/>
+      </c>
+      <c r="J156" t="str">
         <v>Komal Matkar</v>
-      </c>
-      <c r="F156" t="str">
-        <v>active</v>
-      </c>
-      <c r="G156" t="str">
-        <v/>
-      </c>
-      <c r="H156" t="str">
-        <v/>
       </c>
     </row>
     <row r="157">
@@ -4266,13 +4280,13 @@
       <c r="D157" t="str">
         <v>Emanuel Eklund</v>
       </c>
+      <c r="E157" t="str">
+        <v>phaseOut</v>
+      </c>
       <c r="F157" t="str">
-        <v>phaseOut</v>
+        <v/>
       </c>
       <c r="G157" t="str">
-        <v/>
-      </c>
-      <c r="H157" t="str">
         <v/>
       </c>
     </row>
@@ -4289,13 +4303,13 @@
       <c r="D158" t="str">
         <v>Conny Örtlund</v>
       </c>
+      <c r="E158" t="str">
+        <v>active</v>
+      </c>
       <c r="F158" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G158" t="str">
-        <v/>
-      </c>
-      <c r="H158" t="str">
         <v/>
       </c>
     </row>
@@ -4313,16 +4327,16 @@
         <v>Katrin Norman</v>
       </c>
       <c r="E159" t="str">
+        <v>active</v>
+      </c>
+      <c r="F159" t="str">
+        <v/>
+      </c>
+      <c r="G159" t="str">
+        <v/>
+      </c>
+      <c r="J159" t="str">
         <v>Devdatt Mundhe</v>
-      </c>
-      <c r="F159" t="str">
-        <v>active</v>
-      </c>
-      <c r="G159" t="str">
-        <v/>
-      </c>
-      <c r="H159" t="str">
-        <v/>
       </c>
     </row>
     <row r="160">
@@ -4335,13 +4349,13 @@
       <c r="C160" t="str">
         <v>Independent</v>
       </c>
+      <c r="E160" t="str">
+        <v>active</v>
+      </c>
       <c r="F160" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G160" t="str">
-        <v/>
-      </c>
-      <c r="H160" t="str">
         <v/>
       </c>
     </row>
@@ -4359,16 +4373,16 @@
         <v>Karin Alfredsson</v>
       </c>
       <c r="E161" t="str">
+        <v>active</v>
+      </c>
+      <c r="F161" t="str">
+        <v/>
+      </c>
+      <c r="G161" t="str">
+        <v/>
+      </c>
+      <c r="J161" t="str">
         <v>Reena Pathak</v>
-      </c>
-      <c r="F161" t="str">
-        <v>active</v>
-      </c>
-      <c r="G161" t="str">
-        <v/>
-      </c>
-      <c r="H161" t="str">
-        <v/>
       </c>
     </row>
     <row r="162">
@@ -4385,16 +4399,16 @@
         <v>Caroline Carlstedt</v>
       </c>
       <c r="E162" t="str">
+        <v>active</v>
+      </c>
+      <c r="F162" t="str">
+        <v/>
+      </c>
+      <c r="G162" t="str">
+        <v/>
+      </c>
+      <c r="J162" t="str">
         <v>Radomir Zuniga</v>
-      </c>
-      <c r="F162" t="str">
-        <v>active</v>
-      </c>
-      <c r="G162" t="str">
-        <v/>
-      </c>
-      <c r="H162" t="str">
-        <v/>
       </c>
     </row>
     <row r="163">
@@ -4411,16 +4425,16 @@
         <v>Petter Markman</v>
       </c>
       <c r="E163" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F163" t="str">
+        <v/>
+      </c>
+      <c r="G163" t="str">
+        <v/>
+      </c>
+      <c r="J163" t="str">
         <v>Rodrigo Cid</v>
-      </c>
-      <c r="F163" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G163" t="str">
-        <v/>
-      </c>
-      <c r="H163" t="str">
-        <v/>
       </c>
     </row>
     <row r="164">
@@ -4434,16 +4448,16 @@
         <v>Independent</v>
       </c>
       <c r="E164" t="str">
+        <v>active</v>
+      </c>
+      <c r="F164" t="str">
+        <v/>
+      </c>
+      <c r="G164" t="str">
+        <v/>
+      </c>
+      <c r="J164" t="str">
         <v>Sofie McInnes</v>
-      </c>
-      <c r="F164" t="str">
-        <v>active</v>
-      </c>
-      <c r="G164" t="str">
-        <v/>
-      </c>
-      <c r="H164" t="str">
-        <v/>
       </c>
     </row>
     <row r="165">
@@ -4460,16 +4474,16 @@
         <v>Katrin Norman</v>
       </c>
       <c r="E165" t="str">
+        <v>active</v>
+      </c>
+      <c r="F165" t="str">
+        <v/>
+      </c>
+      <c r="G165" t="str">
+        <v/>
+      </c>
+      <c r="J165" t="str">
         <v>Johan Berggren</v>
-      </c>
-      <c r="F165" t="str">
-        <v>active</v>
-      </c>
-      <c r="G165" t="str">
-        <v/>
-      </c>
-      <c r="H165" t="str">
-        <v/>
       </c>
     </row>
     <row r="166">
@@ -4482,13 +4496,13 @@
       <c r="C166" t="str">
         <v>Independent</v>
       </c>
+      <c r="E166" t="str">
+        <v/>
+      </c>
       <c r="F166" t="str">
         <v/>
       </c>
       <c r="G166" t="str">
-        <v/>
-      </c>
-      <c r="H166" t="str">
         <v/>
       </c>
     </row>
@@ -4506,16 +4520,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E167" t="str">
+        <v>active</v>
+      </c>
+      <c r="F167" t="str">
+        <v/>
+      </c>
+      <c r="G167" t="str">
+        <v/>
+      </c>
+      <c r="J167" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F167" t="str">
-        <v>active</v>
-      </c>
-      <c r="G167" t="str">
-        <v/>
-      </c>
-      <c r="H167" t="str">
-        <v/>
       </c>
     </row>
     <row r="168">
@@ -4528,13 +4542,13 @@
       <c r="C168" t="str">
         <v>Independent</v>
       </c>
+      <c r="E168" t="str">
+        <v>active</v>
+      </c>
       <c r="F168" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G168" t="str">
-        <v/>
-      </c>
-      <c r="H168" t="str">
         <v/>
       </c>
     </row>
@@ -4552,16 +4566,16 @@
         <v>Malin Ulltin</v>
       </c>
       <c r="E169" t="str">
+        <v>active</v>
+      </c>
+      <c r="F169" t="str">
+        <v/>
+      </c>
+      <c r="G169" t="str">
+        <v/>
+      </c>
+      <c r="J169" t="str">
         <v>Liver Toma</v>
-      </c>
-      <c r="F169" t="str">
-        <v>active</v>
-      </c>
-      <c r="G169" t="str">
-        <v/>
-      </c>
-      <c r="H169" t="str">
-        <v/>
       </c>
     </row>
     <row r="170">
@@ -4578,16 +4592,16 @@
         <v>fredrik.haslestad@scania.com</v>
       </c>
       <c r="E170" t="str">
+        <v>active</v>
+      </c>
+      <c r="F170" t="str">
+        <v/>
+      </c>
+      <c r="G170" t="str">
+        <v/>
+      </c>
+      <c r="J170" t="str">
         <v>Janne Paul</v>
-      </c>
-      <c r="F170" t="str">
-        <v>active</v>
-      </c>
-      <c r="G170" t="str">
-        <v/>
-      </c>
-      <c r="H170" t="str">
-        <v/>
       </c>
     </row>
     <row r="171">
@@ -4604,16 +4618,16 @@
         <v>bjorn.gunnarsson@scania.com</v>
       </c>
       <c r="E171" t="str">
+        <v>active</v>
+      </c>
+      <c r="F171" t="str">
+        <v/>
+      </c>
+      <c r="G171" t="str">
+        <v/>
+      </c>
+      <c r="J171" t="str">
         <v>Per-Erik Einéus</v>
-      </c>
-      <c r="F171" t="str">
-        <v>active</v>
-      </c>
-      <c r="G171" t="str">
-        <v/>
-      </c>
-      <c r="H171" t="str">
-        <v/>
       </c>
     </row>
     <row r="172">
@@ -4630,16 +4644,16 @@
         <v>Birger Winroth</v>
       </c>
       <c r="E172" t="str">
+        <v>active</v>
+      </c>
+      <c r="F172" t="str">
+        <v/>
+      </c>
+      <c r="G172" t="str">
+        <v/>
+      </c>
+      <c r="J172" t="str">
         <v>Johan Florén</v>
-      </c>
-      <c r="F172" t="str">
-        <v>active</v>
-      </c>
-      <c r="G172" t="str">
-        <v/>
-      </c>
-      <c r="H172" t="str">
-        <v/>
       </c>
     </row>
     <row r="173">
@@ -4656,16 +4670,16 @@
         <v>Risto Aalto</v>
       </c>
       <c r="E173" t="str">
+        <v>active</v>
+      </c>
+      <c r="F173" t="str">
+        <v/>
+      </c>
+      <c r="G173" t="str">
+        <v/>
+      </c>
+      <c r="J173" t="str">
         <v>Ravi Makhija</v>
-      </c>
-      <c r="F173" t="str">
-        <v>active</v>
-      </c>
-      <c r="G173" t="str">
-        <v/>
-      </c>
-      <c r="H173" t="str">
-        <v/>
       </c>
     </row>
     <row r="174">
@@ -4682,16 +4696,16 @@
         <v>Kilian Schott</v>
       </c>
       <c r="E174" t="str">
+        <v>active</v>
+      </c>
+      <c r="F174" t="str">
+        <v/>
+      </c>
+      <c r="G174" t="str">
+        <v/>
+      </c>
+      <c r="J174" t="str">
         <v>Abdikani Mohamed Ahmed</v>
-      </c>
-      <c r="F174" t="str">
-        <v>active</v>
-      </c>
-      <c r="G174" t="str">
-        <v/>
-      </c>
-      <c r="H174" t="str">
-        <v/>
       </c>
     </row>
     <row r="175">
@@ -4708,16 +4722,16 @@
         <v>Yang Xiao</v>
       </c>
       <c r="E175" t="str">
+        <v>active</v>
+      </c>
+      <c r="F175" t="str">
+        <v/>
+      </c>
+      <c r="G175" t="str">
+        <v/>
+      </c>
+      <c r="J175" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F175" t="str">
-        <v>active</v>
-      </c>
-      <c r="G175" t="str">
-        <v/>
-      </c>
-      <c r="H175" t="str">
-        <v/>
       </c>
     </row>
     <row r="176">
@@ -4734,16 +4748,16 @@
         <v>Marcus Brodersen</v>
       </c>
       <c r="E176" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F176" t="str">
+        <v/>
+      </c>
+      <c r="G176" t="str">
+        <v/>
+      </c>
+      <c r="J176" t="str">
         <v>Conny Nyman</v>
-      </c>
-      <c r="F176" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G176" t="str">
-        <v/>
-      </c>
-      <c r="H176" t="str">
-        <v/>
       </c>
     </row>
     <row r="177">
@@ -4760,16 +4774,16 @@
         <v>Marcus Brodersen</v>
       </c>
       <c r="E177" t="str">
+        <v>active</v>
+      </c>
+      <c r="F177" t="str">
+        <v/>
+      </c>
+      <c r="G177" t="str">
+        <v/>
+      </c>
+      <c r="J177" t="str">
         <v>Conny Nyman</v>
-      </c>
-      <c r="F177" t="str">
-        <v>active</v>
-      </c>
-      <c r="G177" t="str">
-        <v/>
-      </c>
-      <c r="H177" t="str">
-        <v/>
       </c>
     </row>
     <row r="178">
@@ -4783,16 +4797,16 @@
         <v>Independent</v>
       </c>
       <c r="E178" t="str">
+        <v>active</v>
+      </c>
+      <c r="F178" t="str">
+        <v/>
+      </c>
+      <c r="G178" t="str">
+        <v/>
+      </c>
+      <c r="J178" t="str">
         <v>Paul Dmello</v>
-      </c>
-      <c r="F178" t="str">
-        <v>active</v>
-      </c>
-      <c r="G178" t="str">
-        <v/>
-      </c>
-      <c r="H178" t="str">
-        <v/>
       </c>
     </row>
     <row r="179">
@@ -4808,13 +4822,13 @@
       <c r="D179" t="str">
         <v>Emanuel Eklund</v>
       </c>
+      <c r="E179" t="str">
+        <v>active</v>
+      </c>
       <c r="F179" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G179" t="str">
-        <v/>
-      </c>
-      <c r="H179" t="str">
         <v/>
       </c>
     </row>
@@ -4829,16 +4843,16 @@
         <v>Independent</v>
       </c>
       <c r="E180" t="str">
+        <v>active</v>
+      </c>
+      <c r="F180" t="str">
+        <v/>
+      </c>
+      <c r="G180" t="str">
+        <v/>
+      </c>
+      <c r="J180" t="str">
         <v>Rong Fan</v>
-      </c>
-      <c r="F180" t="str">
-        <v>active</v>
-      </c>
-      <c r="G180" t="str">
-        <v/>
-      </c>
-      <c r="H180" t="str">
-        <v/>
       </c>
     </row>
     <row r="181">
@@ -4851,13 +4865,13 @@
       <c r="C181" t="str">
         <v>Independent</v>
       </c>
+      <c r="E181" t="str">
+        <v>active</v>
+      </c>
       <c r="F181" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G181" t="str">
-        <v/>
-      </c>
-      <c r="H181" t="str">
         <v/>
       </c>
     </row>
@@ -4875,16 +4889,16 @@
         <v>Bhavani Jonna</v>
       </c>
       <c r="E182" t="str">
+        <v>active</v>
+      </c>
+      <c r="F182" t="str">
+        <v/>
+      </c>
+      <c r="G182" t="str">
+        <v/>
+      </c>
+      <c r="J182" t="str">
         <v>Sven-Erik Claesson</v>
-      </c>
-      <c r="F182" t="str">
-        <v>active</v>
-      </c>
-      <c r="G182" t="str">
-        <v/>
-      </c>
-      <c r="H182" t="str">
-        <v/>
       </c>
     </row>
     <row r="183">
@@ -4901,16 +4915,16 @@
         <v>Henrik Thorsen</v>
       </c>
       <c r="E183" t="str">
+        <v>active</v>
+      </c>
+      <c r="F183" t="str">
+        <v/>
+      </c>
+      <c r="G183" t="str">
+        <v/>
+      </c>
+      <c r="J183" t="str">
         <v>Mattias Järnhäll</v>
-      </c>
-      <c r="F183" t="str">
-        <v>active</v>
-      </c>
-      <c r="G183" t="str">
-        <v/>
-      </c>
-      <c r="H183" t="str">
-        <v/>
       </c>
     </row>
     <row r="184">
@@ -4927,16 +4941,16 @@
         <v>Jennie Friberg</v>
       </c>
       <c r="E184" t="str">
+        <v>active</v>
+      </c>
+      <c r="F184" t="str">
+        <v/>
+      </c>
+      <c r="G184" t="str">
+        <v/>
+      </c>
+      <c r="J184" t="str">
         <v>Suzanne Lundberg</v>
-      </c>
-      <c r="F184" t="str">
-        <v>active</v>
-      </c>
-      <c r="G184" t="str">
-        <v/>
-      </c>
-      <c r="H184" t="str">
-        <v/>
       </c>
     </row>
     <row r="185">
@@ -4953,16 +4967,16 @@
         <v>Mikael Svanholm</v>
       </c>
       <c r="E185" t="str">
+        <v>active</v>
+      </c>
+      <c r="F185" t="str">
+        <v/>
+      </c>
+      <c r="G185" t="str">
+        <v/>
+      </c>
+      <c r="J185" t="str">
         <v>Maritha Kvist</v>
-      </c>
-      <c r="F185" t="str">
-        <v>active</v>
-      </c>
-      <c r="G185" t="str">
-        <v/>
-      </c>
-      <c r="H185" t="str">
-        <v/>
       </c>
     </row>
     <row r="186">
@@ -4979,16 +4993,16 @@
         <v>Palle Berlin</v>
       </c>
       <c r="E186" t="str">
+        <v>active</v>
+      </c>
+      <c r="F186" t="str">
+        <v/>
+      </c>
+      <c r="G186" t="str">
+        <v/>
+      </c>
+      <c r="J186" t="str">
         <v>Danilo Oliveira</v>
-      </c>
-      <c r="F186" t="str">
-        <v>active</v>
-      </c>
-      <c r="G186" t="str">
-        <v/>
-      </c>
-      <c r="H186" t="str">
-        <v/>
       </c>
     </row>
     <row r="187">
@@ -5005,16 +5019,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E187" t="str">
+        <v>active</v>
+      </c>
+      <c r="F187" t="str">
+        <v/>
+      </c>
+      <c r="G187" t="str">
+        <v/>
+      </c>
+      <c r="J187" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F187" t="str">
-        <v>active</v>
-      </c>
-      <c r="G187" t="str">
-        <v/>
-      </c>
-      <c r="H187" t="str">
-        <v/>
       </c>
     </row>
     <row r="188">
@@ -5031,16 +5045,16 @@
         <v>Mårten Andersson</v>
       </c>
       <c r="E188" t="str">
+        <v>active</v>
+      </c>
+      <c r="F188" t="str">
+        <v/>
+      </c>
+      <c r="G188" t="str">
+        <v/>
+      </c>
+      <c r="J188" t="str">
         <v>joakim.kjerner@scania.com</v>
-      </c>
-      <c r="F188" t="str">
-        <v>active</v>
-      </c>
-      <c r="G188" t="str">
-        <v/>
-      </c>
-      <c r="H188" t="str">
-        <v/>
       </c>
     </row>
     <row r="189">
@@ -5057,16 +5071,16 @@
         <v>Björn Näslund</v>
       </c>
       <c r="E189" t="str">
+        <v>active</v>
+      </c>
+      <c r="F189" t="str">
+        <v/>
+      </c>
+      <c r="G189" t="str">
+        <v/>
+      </c>
+      <c r="J189" t="str">
         <v>Håkan Pettersson</v>
-      </c>
-      <c r="F189" t="str">
-        <v>active</v>
-      </c>
-      <c r="G189" t="str">
-        <v/>
-      </c>
-      <c r="H189" t="str">
-        <v/>
       </c>
     </row>
     <row r="190">
@@ -5083,16 +5097,16 @@
         <v>Henrik Fagerlund</v>
       </c>
       <c r="E190" t="str">
+        <v>active</v>
+      </c>
+      <c r="F190" t="str">
+        <v/>
+      </c>
+      <c r="G190" t="str">
+        <v/>
+      </c>
+      <c r="J190" t="str">
         <v>Praveen Balaji Govindasamy</v>
-      </c>
-      <c r="F190" t="str">
-        <v>active</v>
-      </c>
-      <c r="G190" t="str">
-        <v/>
-      </c>
-      <c r="H190" t="str">
-        <v/>
       </c>
     </row>
     <row r="191">
@@ -5108,13 +5122,13 @@
       <c r="D191" t="str">
         <v>Gustav Kynnefjäll</v>
       </c>
+      <c r="E191" t="str">
+        <v>active</v>
+      </c>
       <c r="F191" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G191" t="str">
-        <v/>
-      </c>
-      <c r="H191" t="str">
         <v/>
       </c>
     </row>
@@ -5129,16 +5143,16 @@
         <v>Independent</v>
       </c>
       <c r="E192" t="str">
+        <v>endOfLife</v>
+      </c>
+      <c r="F192" t="str">
+        <v/>
+      </c>
+      <c r="G192" t="str">
+        <v/>
+      </c>
+      <c r="J192" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F192" t="str">
-        <v>endOfLife</v>
-      </c>
-      <c r="G192" t="str">
-        <v/>
-      </c>
-      <c r="H192" t="str">
-        <v/>
       </c>
     </row>
     <row r="193">
@@ -5155,16 +5169,16 @@
         <v>Andreas Davidsson</v>
       </c>
       <c r="E193" t="str">
+        <v>active</v>
+      </c>
+      <c r="F193" t="str">
+        <v/>
+      </c>
+      <c r="G193" t="str">
+        <v/>
+      </c>
+      <c r="J193" t="str">
         <v>Ronnie Viklund</v>
-      </c>
-      <c r="F193" t="str">
-        <v>active</v>
-      </c>
-      <c r="G193" t="str">
-        <v/>
-      </c>
-      <c r="H193" t="str">
-        <v/>
       </c>
     </row>
     <row r="194">
@@ -5181,16 +5195,16 @@
         <v>Francesco Fenoaltea</v>
       </c>
       <c r="E194" t="str">
+        <v>active</v>
+      </c>
+      <c r="F194" t="str">
+        <v/>
+      </c>
+      <c r="G194" t="str">
+        <v/>
+      </c>
+      <c r="J194" t="str">
         <v>Alvin Samuelsson</v>
-      </c>
-      <c r="F194" t="str">
-        <v>active</v>
-      </c>
-      <c r="G194" t="str">
-        <v/>
-      </c>
-      <c r="H194" t="str">
-        <v/>
       </c>
     </row>
     <row r="195">
@@ -5207,16 +5221,16 @@
         <v>Robert Beiron</v>
       </c>
       <c r="E195" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F195" t="str">
+        <v/>
+      </c>
+      <c r="G195" t="str">
+        <v/>
+      </c>
+      <c r="J195" t="str">
         <v>Kari Ljung</v>
-      </c>
-      <c r="F195" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G195" t="str">
-        <v/>
-      </c>
-      <c r="H195" t="str">
-        <v/>
       </c>
     </row>
     <row r="196">
@@ -5233,16 +5247,16 @@
         <v>jessica.robertsson@scania.com</v>
       </c>
       <c r="E196" t="str">
+        <v>active</v>
+      </c>
+      <c r="F196" t="str">
+        <v/>
+      </c>
+      <c r="G196" t="str">
+        <v/>
+      </c>
+      <c r="J196" t="str">
         <v>Danilo Oliveira</v>
-      </c>
-      <c r="F196" t="str">
-        <v>active</v>
-      </c>
-      <c r="G196" t="str">
-        <v/>
-      </c>
-      <c r="H196" t="str">
-        <v/>
       </c>
     </row>
     <row r="197">
@@ -5259,16 +5273,16 @@
         <v>Maria Baravdish</v>
       </c>
       <c r="E197" t="str">
+        <v>active</v>
+      </c>
+      <c r="F197" t="str">
+        <v/>
+      </c>
+      <c r="G197" t="str">
+        <v/>
+      </c>
+      <c r="J197" t="str">
         <v>Elaheh Yazdi</v>
-      </c>
-      <c r="F197" t="str">
-        <v>active</v>
-      </c>
-      <c r="G197" t="str">
-        <v/>
-      </c>
-      <c r="H197" t="str">
-        <v/>
       </c>
     </row>
     <row r="198">
@@ -5285,16 +5299,16 @@
         <v>anna-lena.stromsten@scania.com</v>
       </c>
       <c r="E198" t="str">
+        <v>active</v>
+      </c>
+      <c r="F198" t="str">
+        <v/>
+      </c>
+      <c r="G198" t="str">
+        <v/>
+      </c>
+      <c r="J198" t="str">
         <v>Katarina Lindeborg</v>
-      </c>
-      <c r="F198" t="str">
-        <v>active</v>
-      </c>
-      <c r="G198" t="str">
-        <v/>
-      </c>
-      <c r="H198" t="str">
-        <v/>
       </c>
     </row>
     <row r="199">
@@ -5311,16 +5325,16 @@
         <v>Vidyalakshmi Veeraraghavan</v>
       </c>
       <c r="E199" t="str">
+        <v>active</v>
+      </c>
+      <c r="F199" t="str">
+        <v/>
+      </c>
+      <c r="G199" t="str">
+        <v/>
+      </c>
+      <c r="J199" t="str">
         <v>Juan Pablo Galvis Muñoz</v>
-      </c>
-      <c r="F199" t="str">
-        <v>active</v>
-      </c>
-      <c r="G199" t="str">
-        <v/>
-      </c>
-      <c r="H199" t="str">
-        <v/>
       </c>
     </row>
     <row r="200">
@@ -5336,13 +5350,13 @@
       <c r="D200" t="str">
         <v>Ebba Dyrell</v>
       </c>
+      <c r="E200" t="str">
+        <v>phaseOut</v>
+      </c>
       <c r="F200" t="str">
-        <v>phaseOut</v>
+        <v/>
       </c>
       <c r="G200" t="str">
-        <v/>
-      </c>
-      <c r="H200" t="str">
         <v/>
       </c>
     </row>
@@ -5360,16 +5374,16 @@
         <v>Fredrik Johansson</v>
       </c>
       <c r="E201" t="str">
+        <v>active</v>
+      </c>
+      <c r="F201" t="str">
+        <v/>
+      </c>
+      <c r="G201" t="str">
+        <v/>
+      </c>
+      <c r="J201" t="str">
         <v>Krister Lindqvist</v>
-      </c>
-      <c r="F201" t="str">
-        <v>active</v>
-      </c>
-      <c r="G201" t="str">
-        <v/>
-      </c>
-      <c r="H201" t="str">
-        <v/>
       </c>
     </row>
     <row r="202">
@@ -5386,16 +5400,16 @@
         <v>Emanuel Eklund</v>
       </c>
       <c r="E202" t="str">
+        <v>active</v>
+      </c>
+      <c r="F202" t="str">
+        <v/>
+      </c>
+      <c r="G202" t="str">
+        <v/>
+      </c>
+      <c r="J202" t="str">
         <v>Prasanna Lakshmi Gude</v>
-      </c>
-      <c r="F202" t="str">
-        <v>active</v>
-      </c>
-      <c r="G202" t="str">
-        <v/>
-      </c>
-      <c r="H202" t="str">
-        <v/>
       </c>
     </row>
     <row r="203">
@@ -5412,16 +5426,16 @@
         <v>Rolf Nordin</v>
       </c>
       <c r="E203" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F203" t="str">
+        <v/>
+      </c>
+      <c r="G203" t="str">
+        <v/>
+      </c>
+      <c r="J203" t="str">
         <v>Fredrik Tomasson</v>
-      </c>
-      <c r="F203" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G203" t="str">
-        <v/>
-      </c>
-      <c r="H203" t="str">
-        <v/>
       </c>
     </row>
     <row r="204">
@@ -5437,13 +5451,13 @@
       <c r="D204" t="str">
         <v>Francesco Fenoaltea</v>
       </c>
+      <c r="E204" t="str">
+        <v>active</v>
+      </c>
       <c r="F204" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G204" t="str">
-        <v/>
-      </c>
-      <c r="H204" t="str">
         <v/>
       </c>
     </row>
@@ -5461,16 +5475,16 @@
         <v>lars.x.karlsson@scania.com</v>
       </c>
       <c r="E205" t="str">
+        <v>active</v>
+      </c>
+      <c r="F205" t="str">
+        <v/>
+      </c>
+      <c r="G205" t="str">
+        <v/>
+      </c>
+      <c r="J205" t="str">
         <v>Per-Erik Einéus</v>
-      </c>
-      <c r="F205" t="str">
-        <v>active</v>
-      </c>
-      <c r="G205" t="str">
-        <v/>
-      </c>
-      <c r="H205" t="str">
-        <v/>
       </c>
     </row>
     <row r="206">
@@ -5487,16 +5501,16 @@
         <v>Per Michel</v>
       </c>
       <c r="E206" t="str">
+        <v>active</v>
+      </c>
+      <c r="F206" t="str">
+        <v/>
+      </c>
+      <c r="G206" t="str">
+        <v/>
+      </c>
+      <c r="J206" t="str">
         <v>Per-Erik Einéus</v>
-      </c>
-      <c r="F206" t="str">
-        <v>active</v>
-      </c>
-      <c r="G206" t="str">
-        <v/>
-      </c>
-      <c r="H206" t="str">
-        <v/>
       </c>
     </row>
     <row r="207">
@@ -5510,16 +5524,16 @@
         <v>Independent</v>
       </c>
       <c r="E207" t="str">
+        <v>active</v>
+      </c>
+      <c r="F207" t="str">
+        <v/>
+      </c>
+      <c r="G207" t="str">
+        <v/>
+      </c>
+      <c r="J207" t="str">
         <v>Eva-Lena Svensson</v>
-      </c>
-      <c r="F207" t="str">
-        <v>active</v>
-      </c>
-      <c r="G207" t="str">
-        <v/>
-      </c>
-      <c r="H207" t="str">
-        <v/>
       </c>
     </row>
     <row r="208">
@@ -5535,13 +5549,13 @@
       <c r="D208" t="str">
         <v>Conny Örtlund</v>
       </c>
+      <c r="E208" t="str">
+        <v>active</v>
+      </c>
       <c r="F208" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G208" t="str">
-        <v/>
-      </c>
-      <c r="H208" t="str">
         <v/>
       </c>
     </row>
@@ -5558,13 +5572,13 @@
       <c r="D209" t="str">
         <v>Magnus Lännholm</v>
       </c>
+      <c r="E209" t="str">
+        <v>active</v>
+      </c>
       <c r="F209" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G209" t="str">
-        <v/>
-      </c>
-      <c r="H209" t="str">
         <v/>
       </c>
     </row>
@@ -5582,16 +5596,16 @@
         <v>Ricardo Martins</v>
       </c>
       <c r="E210" t="str">
+        <v>active</v>
+      </c>
+      <c r="F210" t="str">
+        <v/>
+      </c>
+      <c r="G210" t="str">
+        <v/>
+      </c>
+      <c r="J210" t="str">
         <v>Ricardo Martins</v>
-      </c>
-      <c r="F210" t="str">
-        <v>active</v>
-      </c>
-      <c r="G210" t="str">
-        <v/>
-      </c>
-      <c r="H210" t="str">
-        <v/>
       </c>
     </row>
     <row r="211">
@@ -5608,16 +5622,16 @@
         <v>Geert Geebelen</v>
       </c>
       <c r="E211" t="str">
+        <v>active</v>
+      </c>
+      <c r="F211" t="str">
+        <v/>
+      </c>
+      <c r="G211" t="str">
+        <v/>
+      </c>
+      <c r="J211" t="str">
         <v>Greet Maurissen</v>
-      </c>
-      <c r="F211" t="str">
-        <v>active</v>
-      </c>
-      <c r="G211" t="str">
-        <v/>
-      </c>
-      <c r="H211" t="str">
-        <v/>
       </c>
     </row>
     <row r="212">
@@ -5634,16 +5648,16 @@
         <v>Marie Pålsson</v>
       </c>
       <c r="E212" t="str">
+        <v>active</v>
+      </c>
+      <c r="F212" t="str">
+        <v/>
+      </c>
+      <c r="G212" t="str">
+        <v/>
+      </c>
+      <c r="J212" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F212" t="str">
-        <v>active</v>
-      </c>
-      <c r="G212" t="str">
-        <v/>
-      </c>
-      <c r="H212" t="str">
-        <v/>
       </c>
     </row>
     <row r="213">
@@ -5657,16 +5671,16 @@
         <v>Independent</v>
       </c>
       <c r="E213" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F213" t="str">
+        <v/>
+      </c>
+      <c r="G213" t="str">
+        <v/>
+      </c>
+      <c r="J213" t="str">
         <v>Komal Matkar</v>
-      </c>
-      <c r="F213" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G213" t="str">
-        <v/>
-      </c>
-      <c r="H213" t="str">
-        <v/>
       </c>
     </row>
     <row r="214">
@@ -5683,16 +5697,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E214" t="str">
+        <v>active</v>
+      </c>
+      <c r="F214" t="str">
+        <v/>
+      </c>
+      <c r="G214" t="str">
+        <v/>
+      </c>
+      <c r="J214" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F214" t="str">
-        <v>active</v>
-      </c>
-      <c r="G214" t="str">
-        <v/>
-      </c>
-      <c r="H214" t="str">
-        <v/>
       </c>
     </row>
     <row r="215">
@@ -5705,13 +5719,13 @@
       <c r="C215" t="str">
         <v>Independent</v>
       </c>
+      <c r="E215" t="str">
+        <v>active</v>
+      </c>
       <c r="F215" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G215" t="str">
-        <v/>
-      </c>
-      <c r="H215" t="str">
         <v/>
       </c>
     </row>
@@ -5729,16 +5743,16 @@
         <v>Gloria Huang</v>
       </c>
       <c r="E216" t="str">
+        <v>endOfLife</v>
+      </c>
+      <c r="F216" t="str">
+        <v/>
+      </c>
+      <c r="G216" t="str">
+        <v/>
+      </c>
+      <c r="J216" t="str">
         <v>Pierre Herdell</v>
-      </c>
-      <c r="F216" t="str">
-        <v>endOfLife</v>
-      </c>
-      <c r="G216" t="str">
-        <v/>
-      </c>
-      <c r="H216" t="str">
-        <v/>
       </c>
     </row>
     <row r="217">
@@ -5754,13 +5768,13 @@
       <c r="D217" t="str">
         <v>Conny Örtlund</v>
       </c>
+      <c r="E217" t="str">
+        <v>active</v>
+      </c>
       <c r="F217" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G217" t="str">
-        <v/>
-      </c>
-      <c r="H217" t="str">
         <v/>
       </c>
     </row>
@@ -5774,13 +5788,13 @@
       <c r="C218" t="str">
         <v>Independent</v>
       </c>
+      <c r="E218" t="str">
+        <v>active</v>
+      </c>
       <c r="F218" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G218" t="str">
-        <v/>
-      </c>
-      <c r="H218" t="str">
         <v/>
       </c>
     </row>
@@ -5795,16 +5809,16 @@
         <v>Independent</v>
       </c>
       <c r="E219" t="str">
+        <v>active</v>
+      </c>
+      <c r="F219" t="str">
+        <v/>
+      </c>
+      <c r="G219" t="str">
+        <v/>
+      </c>
+      <c r="J219" t="str">
         <v>Andreas Dahlin</v>
-      </c>
-      <c r="F219" t="str">
-        <v>active</v>
-      </c>
-      <c r="G219" t="str">
-        <v/>
-      </c>
-      <c r="H219" t="str">
-        <v/>
       </c>
     </row>
     <row r="220">
@@ -5821,16 +5835,16 @@
         <v>Jonathan Sterky</v>
       </c>
       <c r="E220" t="str">
+        <v>active</v>
+      </c>
+      <c r="F220" t="str">
+        <v/>
+      </c>
+      <c r="G220" t="str">
+        <v/>
+      </c>
+      <c r="J220" t="str">
         <v>Ahmer Shaikh</v>
-      </c>
-      <c r="F220" t="str">
-        <v>active</v>
-      </c>
-      <c r="G220" t="str">
-        <v/>
-      </c>
-      <c r="H220" t="str">
-        <v/>
       </c>
     </row>
     <row r="221">
@@ -5847,16 +5861,16 @@
         <v>Anders Blomgren</v>
       </c>
       <c r="E221" t="str">
+        <v>active</v>
+      </c>
+      <c r="F221" t="str">
+        <v/>
+      </c>
+      <c r="G221" t="str">
+        <v/>
+      </c>
+      <c r="J221" t="str">
         <v>Gun Andersson</v>
-      </c>
-      <c r="F221" t="str">
-        <v>active</v>
-      </c>
-      <c r="G221" t="str">
-        <v/>
-      </c>
-      <c r="H221" t="str">
-        <v/>
       </c>
     </row>
     <row r="222">
@@ -5873,16 +5887,16 @@
         <v>Anders Bäckner</v>
       </c>
       <c r="E222" t="str">
+        <v>active</v>
+      </c>
+      <c r="F222" t="str">
+        <v/>
+      </c>
+      <c r="G222" t="str">
+        <v/>
+      </c>
+      <c r="J222" t="str">
         <v>Anders Bäckner</v>
-      </c>
-      <c r="F222" t="str">
-        <v>active</v>
-      </c>
-      <c r="G222" t="str">
-        <v/>
-      </c>
-      <c r="H222" t="str">
-        <v/>
       </c>
     </row>
     <row r="223">
@@ -5899,16 +5913,16 @@
         <v>George Kalo</v>
       </c>
       <c r="E223" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F223" t="str">
+        <v/>
+      </c>
+      <c r="G223" t="str">
+        <v/>
+      </c>
+      <c r="J223" t="str">
         <v>Samira Ishak Johansson</v>
-      </c>
-      <c r="F223" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G223" t="str">
-        <v/>
-      </c>
-      <c r="H223" t="str">
-        <v/>
       </c>
     </row>
     <row r="224">
@@ -5925,16 +5939,16 @@
         <v>Håkan Träff</v>
       </c>
       <c r="E224" t="str">
+        <v>active</v>
+      </c>
+      <c r="F224" t="str">
+        <v/>
+      </c>
+      <c r="G224" t="str">
+        <v/>
+      </c>
+      <c r="J224" t="str">
         <v>Elaheh Yazdi</v>
-      </c>
-      <c r="F224" t="str">
-        <v>active</v>
-      </c>
-      <c r="G224" t="str">
-        <v/>
-      </c>
-      <c r="H224" t="str">
-        <v/>
       </c>
     </row>
     <row r="225">
@@ -5951,16 +5965,16 @@
         <v>Marie Pålsson</v>
       </c>
       <c r="E225" t="str">
+        <v>active</v>
+      </c>
+      <c r="F225" t="str">
+        <v/>
+      </c>
+      <c r="G225" t="str">
+        <v/>
+      </c>
+      <c r="J225" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F225" t="str">
-        <v>active</v>
-      </c>
-      <c r="G225" t="str">
-        <v/>
-      </c>
-      <c r="H225" t="str">
-        <v/>
       </c>
     </row>
     <row r="226">
@@ -5977,16 +5991,16 @@
         <v>Jörgen Andersson</v>
       </c>
       <c r="E226" t="str">
+        <v>active</v>
+      </c>
+      <c r="F226" t="str">
+        <v/>
+      </c>
+      <c r="G226" t="str">
+        <v/>
+      </c>
+      <c r="J226" t="str">
         <v>Johan Sundblad</v>
-      </c>
-      <c r="F226" t="str">
-        <v>active</v>
-      </c>
-      <c r="G226" t="str">
-        <v/>
-      </c>
-      <c r="H226" t="str">
-        <v/>
       </c>
     </row>
     <row r="227">
@@ -6003,16 +6017,16 @@
         <v>Palle Berlin</v>
       </c>
       <c r="E227" t="str">
+        <v>active</v>
+      </c>
+      <c r="F227" t="str">
+        <v/>
+      </c>
+      <c r="G227" t="str">
+        <v/>
+      </c>
+      <c r="J227" t="str">
         <v>Danilo Oliveira</v>
-      </c>
-      <c r="F227" t="str">
-        <v>active</v>
-      </c>
-      <c r="G227" t="str">
-        <v/>
-      </c>
-      <c r="H227" t="str">
-        <v/>
       </c>
     </row>
     <row r="228">
@@ -6029,16 +6043,16 @@
         <v>Marie Pålsson</v>
       </c>
       <c r="E228" t="str">
+        <v/>
+      </c>
+      <c r="F228" t="str">
+        <v/>
+      </c>
+      <c r="G228" t="str">
+        <v/>
+      </c>
+      <c r="J228" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F228" t="str">
-        <v/>
-      </c>
-      <c r="G228" t="str">
-        <v/>
-      </c>
-      <c r="H228" t="str">
-        <v/>
       </c>
     </row>
     <row r="229">
@@ -6055,16 +6069,16 @@
         <v>Josef Jansson</v>
       </c>
       <c r="E229" t="str">
+        <v>active</v>
+      </c>
+      <c r="F229" t="str">
+        <v/>
+      </c>
+      <c r="G229" t="str">
+        <v/>
+      </c>
+      <c r="J229" t="str">
         <v>Frida Hammarberg</v>
-      </c>
-      <c r="F229" t="str">
-        <v>active</v>
-      </c>
-      <c r="G229" t="str">
-        <v/>
-      </c>
-      <c r="H229" t="str">
-        <v/>
       </c>
     </row>
     <row r="230">
@@ -6081,16 +6095,16 @@
         <v>Tom Varis</v>
       </c>
       <c r="E230" t="str">
+        <v>active</v>
+      </c>
+      <c r="F230" t="str">
+        <v/>
+      </c>
+      <c r="G230" t="str">
+        <v/>
+      </c>
+      <c r="J230" t="str">
         <v>Carina Lillieqvist</v>
-      </c>
-      <c r="F230" t="str">
-        <v>active</v>
-      </c>
-      <c r="G230" t="str">
-        <v/>
-      </c>
-      <c r="H230" t="str">
-        <v/>
       </c>
     </row>
     <row r="231">
@@ -6107,16 +6121,16 @@
         <v>Magnus Nordlund</v>
       </c>
       <c r="E231" t="str">
+        <v>active</v>
+      </c>
+      <c r="F231" t="str">
+        <v/>
+      </c>
+      <c r="G231" t="str">
+        <v/>
+      </c>
+      <c r="J231" t="str">
         <v>Lars-Olof Andersson</v>
-      </c>
-      <c r="F231" t="str">
-        <v>active</v>
-      </c>
-      <c r="G231" t="str">
-        <v/>
-      </c>
-      <c r="H231" t="str">
-        <v/>
       </c>
     </row>
     <row r="232">
@@ -6132,13 +6146,13 @@
       <c r="D232" t="str">
         <v>Nicklas Hernandez</v>
       </c>
+      <c r="E232" t="str">
+        <v/>
+      </c>
       <c r="F232" t="str">
         <v/>
       </c>
       <c r="G232" t="str">
-        <v/>
-      </c>
-      <c r="H232" t="str">
         <v/>
       </c>
     </row>
@@ -6152,13 +6166,13 @@
       <c r="C233" t="str">
         <v>Independent</v>
       </c>
+      <c r="E233" t="str">
+        <v/>
+      </c>
       <c r="F233" t="str">
         <v/>
       </c>
       <c r="G233" t="str">
-        <v/>
-      </c>
-      <c r="H233" t="str">
         <v/>
       </c>
     </row>
@@ -6176,16 +6190,16 @@
         <v>Janne Paul</v>
       </c>
       <c r="E234" t="str">
+        <v>active</v>
+      </c>
+      <c r="F234" t="str">
+        <v/>
+      </c>
+      <c r="G234" t="str">
+        <v/>
+      </c>
+      <c r="J234" t="str">
         <v>Mats Johansson</v>
-      </c>
-      <c r="F234" t="str">
-        <v>active</v>
-      </c>
-      <c r="G234" t="str">
-        <v/>
-      </c>
-      <c r="H234" t="str">
-        <v/>
       </c>
     </row>
     <row r="235">
@@ -6202,16 +6216,16 @@
         <v>Carolina Årman</v>
       </c>
       <c r="E235" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F235" t="str">
+        <v/>
+      </c>
+      <c r="G235" t="str">
+        <v/>
+      </c>
+      <c r="J235" t="str">
         <v>Carolina Årman</v>
-      </c>
-      <c r="F235" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G235" t="str">
-        <v/>
-      </c>
-      <c r="H235" t="str">
-        <v/>
       </c>
     </row>
     <row r="236">
@@ -6228,16 +6242,16 @@
         <v>Martina Pettersson</v>
       </c>
       <c r="E236" t="str">
+        <v>endOfLife</v>
+      </c>
+      <c r="F236" t="str">
+        <v/>
+      </c>
+      <c r="G236" t="str">
+        <v/>
+      </c>
+      <c r="J236" t="str">
         <v>Bianca Björkman</v>
-      </c>
-      <c r="F236" t="str">
-        <v>endOfLife</v>
-      </c>
-      <c r="G236" t="str">
-        <v/>
-      </c>
-      <c r="H236" t="str">
-        <v/>
       </c>
     </row>
     <row r="237">
@@ -6254,16 +6268,16 @@
         <v>Robin Högberg</v>
       </c>
       <c r="E237" t="str">
+        <v>active</v>
+      </c>
+      <c r="F237" t="str">
+        <v/>
+      </c>
+      <c r="G237" t="str">
+        <v/>
+      </c>
+      <c r="J237" t="str">
         <v>Subhendu Tripathy</v>
-      </c>
-      <c r="F237" t="str">
-        <v>active</v>
-      </c>
-      <c r="G237" t="str">
-        <v/>
-      </c>
-      <c r="H237" t="str">
-        <v/>
       </c>
     </row>
     <row r="238">
@@ -6277,16 +6291,16 @@
         <v>Independent</v>
       </c>
       <c r="E238" t="str">
+        <v>active</v>
+      </c>
+      <c r="F238" t="str">
+        <v/>
+      </c>
+      <c r="G238" t="str">
+        <v/>
+      </c>
+      <c r="J238" t="str">
         <v>Elaheh Yazdi</v>
-      </c>
-      <c r="F238" t="str">
-        <v>active</v>
-      </c>
-      <c r="G238" t="str">
-        <v/>
-      </c>
-      <c r="H238" t="str">
-        <v/>
       </c>
     </row>
     <row r="239">
@@ -6303,16 +6317,16 @@
         <v>Jan Laestander</v>
       </c>
       <c r="E239" t="str">
+        <v>active</v>
+      </c>
+      <c r="F239" t="str">
+        <v/>
+      </c>
+      <c r="G239" t="str">
+        <v/>
+      </c>
+      <c r="J239" t="str">
         <v>Mathias Rönnberg</v>
-      </c>
-      <c r="F239" t="str">
-        <v>active</v>
-      </c>
-      <c r="G239" t="str">
-        <v/>
-      </c>
-      <c r="H239" t="str">
-        <v/>
       </c>
     </row>
     <row r="240">
@@ -6329,16 +6343,16 @@
         <v>Marcus Johansson</v>
       </c>
       <c r="E240" t="str">
+        <v>phaseOut</v>
+      </c>
+      <c r="F240" t="str">
+        <v/>
+      </c>
+      <c r="G240" t="str">
+        <v/>
+      </c>
+      <c r="J240" t="str">
         <v>Marcus Johansson</v>
-      </c>
-      <c r="F240" t="str">
-        <v>phaseOut</v>
-      </c>
-      <c r="G240" t="str">
-        <v/>
-      </c>
-      <c r="H240" t="str">
-        <v/>
       </c>
     </row>
     <row r="241">
@@ -6352,16 +6366,16 @@
         <v>Independent</v>
       </c>
       <c r="E241" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F241" t="str">
+        <v/>
+      </c>
+      <c r="G241" t="str">
+        <v/>
+      </c>
+      <c r="J241" t="str">
         <v>Björn Nyqvist</v>
-      </c>
-      <c r="F241" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G241" t="str">
-        <v/>
-      </c>
-      <c r="H241" t="str">
-        <v/>
       </c>
     </row>
     <row r="242">
@@ -6375,16 +6389,16 @@
         <v>Independent</v>
       </c>
       <c r="E242" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F242" t="str">
+        <v/>
+      </c>
+      <c r="G242" t="str">
+        <v/>
+      </c>
+      <c r="J242" t="str">
         <v>Christina Crafoord</v>
-      </c>
-      <c r="F242" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G242" t="str">
-        <v/>
-      </c>
-      <c r="H242" t="str">
-        <v/>
       </c>
     </row>
     <row r="243">
@@ -6398,16 +6412,16 @@
         <v>Independent</v>
       </c>
       <c r="E243" t="str">
+        <v>active</v>
+      </c>
+      <c r="F243" t="str">
+        <v/>
+      </c>
+      <c r="G243" t="str">
+        <v/>
+      </c>
+      <c r="J243" t="str">
         <v>Peter Johansson</v>
-      </c>
-      <c r="F243" t="str">
-        <v>active</v>
-      </c>
-      <c r="G243" t="str">
-        <v/>
-      </c>
-      <c r="H243" t="str">
-        <v/>
       </c>
     </row>
     <row r="244">
@@ -6424,16 +6438,16 @@
         <v>Johan Sundblad</v>
       </c>
       <c r="E244" t="str">
+        <v>active</v>
+      </c>
+      <c r="F244" t="str">
+        <v/>
+      </c>
+      <c r="G244" t="str">
+        <v/>
+      </c>
+      <c r="J244" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F244" t="str">
-        <v>active</v>
-      </c>
-      <c r="G244" t="str">
-        <v/>
-      </c>
-      <c r="H244" t="str">
-        <v/>
       </c>
     </row>
     <row r="245">
@@ -6449,13 +6463,13 @@
       <c r="D245" t="str">
         <v>Magnus Nordlund</v>
       </c>
+      <c r="E245" t="str">
+        <v>active</v>
+      </c>
       <c r="F245" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G245" t="str">
-        <v/>
-      </c>
-      <c r="H245" t="str">
         <v/>
       </c>
     </row>
@@ -6469,13 +6483,13 @@
       <c r="C246" t="str">
         <v>Independent</v>
       </c>
+      <c r="E246" t="str">
+        <v/>
+      </c>
       <c r="F246" t="str">
         <v/>
       </c>
       <c r="G246" t="str">
-        <v/>
-      </c>
-      <c r="H246" t="str">
         <v/>
       </c>
     </row>
@@ -6493,16 +6507,16 @@
         <v>Dennis Millard</v>
       </c>
       <c r="E247" t="str">
+        <v>active</v>
+      </c>
+      <c r="F247" t="str">
+        <v/>
+      </c>
+      <c r="G247" t="str">
+        <v/>
+      </c>
+      <c r="J247" t="str">
         <v>Thomas Lindberg</v>
-      </c>
-      <c r="F247" t="str">
-        <v>active</v>
-      </c>
-      <c r="G247" t="str">
-        <v/>
-      </c>
-      <c r="H247" t="str">
-        <v/>
       </c>
     </row>
     <row r="248">
@@ -6519,16 +6533,16 @@
         <v>Johan Källman</v>
       </c>
       <c r="E248" t="str">
+        <v>active</v>
+      </c>
+      <c r="F248" t="str">
+        <v/>
+      </c>
+      <c r="G248" t="str">
+        <v/>
+      </c>
+      <c r="J248" t="str">
         <v>Susanna Wall</v>
-      </c>
-      <c r="F248" t="str">
-        <v>active</v>
-      </c>
-      <c r="G248" t="str">
-        <v/>
-      </c>
-      <c r="H248" t="str">
-        <v/>
       </c>
     </row>
     <row r="249">
@@ -6545,16 +6559,16 @@
         <v>Bassam Atto</v>
       </c>
       <c r="E249" t="str">
+        <v>active</v>
+      </c>
+      <c r="F249" t="str">
+        <v/>
+      </c>
+      <c r="G249" t="str">
+        <v/>
+      </c>
+      <c r="J249" t="str">
         <v>Swapnil Patil</v>
-      </c>
-      <c r="F249" t="str">
-        <v>active</v>
-      </c>
-      <c r="G249" t="str">
-        <v/>
-      </c>
-      <c r="H249" t="str">
-        <v/>
       </c>
     </row>
     <row r="250">
@@ -6570,13 +6584,13 @@
       <c r="D250" t="str">
         <v>Nicole Sindelar</v>
       </c>
+      <c r="E250" t="str">
+        <v>active</v>
+      </c>
       <c r="F250" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G250" t="str">
-        <v/>
-      </c>
-      <c r="H250" t="str">
         <v/>
       </c>
     </row>
@@ -6594,16 +6608,16 @@
         <v>Erik Söderberg</v>
       </c>
       <c r="E251" t="str">
+        <v>active</v>
+      </c>
+      <c r="F251" t="str">
+        <v/>
+      </c>
+      <c r="G251" t="str">
+        <v/>
+      </c>
+      <c r="J251" t="str">
         <v>Carina Lillieqvist</v>
-      </c>
-      <c r="F251" t="str">
-        <v>active</v>
-      </c>
-      <c r="G251" t="str">
-        <v/>
-      </c>
-      <c r="H251" t="str">
-        <v/>
       </c>
     </row>
     <row r="252">
@@ -6617,16 +6631,16 @@
         <v>Independent</v>
       </c>
       <c r="E252" t="str">
+        <v>-</v>
+      </c>
+      <c r="F252" t="str">
+        <v/>
+      </c>
+      <c r="G252" t="str">
+        <v/>
+      </c>
+      <c r="J252" t="str">
         <v>Christer Åberg</v>
-      </c>
-      <c r="F252" t="str">
-        <v>-</v>
-      </c>
-      <c r="G252" t="str">
-        <v/>
-      </c>
-      <c r="H252" t="str">
-        <v/>
       </c>
     </row>
     <row r="253">
@@ -6642,13 +6656,13 @@
       <c r="D253" t="str">
         <v>Grethe Hallberg</v>
       </c>
+      <c r="E253" t="str">
+        <v>active</v>
+      </c>
       <c r="F253" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G253" t="str">
-        <v/>
-      </c>
-      <c r="H253" t="str">
         <v/>
       </c>
     </row>
@@ -6666,16 +6680,16 @@
         <v>Jonas Wallroth</v>
       </c>
       <c r="E254" t="str">
+        <v>active</v>
+      </c>
+      <c r="F254" t="str">
+        <v/>
+      </c>
+      <c r="G254" t="str">
+        <v/>
+      </c>
+      <c r="J254" t="str">
         <v>Gayathri Rajasekaran</v>
-      </c>
-      <c r="F254" t="str">
-        <v>active</v>
-      </c>
-      <c r="G254" t="str">
-        <v/>
-      </c>
-      <c r="H254" t="str">
-        <v/>
       </c>
     </row>
     <row r="255">
@@ -6691,13 +6705,13 @@
       <c r="D255" t="str">
         <v>Ebba Dyrell</v>
       </c>
+      <c r="E255" t="str">
+        <v>phaseOut</v>
+      </c>
       <c r="F255" t="str">
-        <v>phaseOut</v>
+        <v/>
       </c>
       <c r="G255" t="str">
-        <v/>
-      </c>
-      <c r="H255" t="str">
         <v/>
       </c>
     </row>
@@ -6715,16 +6729,16 @@
         <v>Malin Ulltin</v>
       </c>
       <c r="E256" t="str">
+        <v>active</v>
+      </c>
+      <c r="F256" t="str">
+        <v/>
+      </c>
+      <c r="G256" t="str">
+        <v/>
+      </c>
+      <c r="J256" t="str">
         <v>Sandro Dias</v>
-      </c>
-      <c r="F256" t="str">
-        <v>active</v>
-      </c>
-      <c r="G256" t="str">
-        <v/>
-      </c>
-      <c r="H256" t="str">
-        <v/>
       </c>
     </row>
     <row r="257">
@@ -6741,16 +6755,16 @@
         <v>Jörgen Andersson</v>
       </c>
       <c r="E257" t="str">
+        <v>active</v>
+      </c>
+      <c r="F257" t="str">
+        <v/>
+      </c>
+      <c r="G257" t="str">
+        <v/>
+      </c>
+      <c r="J257" t="str">
         <v>Johan Sundblad</v>
-      </c>
-      <c r="F257" t="str">
-        <v>active</v>
-      </c>
-      <c r="G257" t="str">
-        <v/>
-      </c>
-      <c r="H257" t="str">
-        <v/>
       </c>
     </row>
     <row r="258">
@@ -6764,16 +6778,16 @@
         <v>Independent</v>
       </c>
       <c r="E258" t="str">
+        <v>active</v>
+      </c>
+      <c r="F258" t="str">
+        <v/>
+      </c>
+      <c r="G258" t="str">
+        <v/>
+      </c>
+      <c r="J258" t="str">
         <v>Kjell Nordgren</v>
-      </c>
-      <c r="F258" t="str">
-        <v>active</v>
-      </c>
-      <c r="G258" t="str">
-        <v/>
-      </c>
-      <c r="H258" t="str">
-        <v/>
       </c>
     </row>
     <row r="259">
@@ -6790,16 +6804,16 @@
         <v>Ramakrishna Nepak</v>
       </c>
       <c r="E259" t="str">
+        <v>phaseIn</v>
+      </c>
+      <c r="F259" t="str">
+        <v/>
+      </c>
+      <c r="G259" t="str">
+        <v/>
+      </c>
+      <c r="J259" t="str">
         <v>Aditi Chitgupi</v>
-      </c>
-      <c r="F259" t="str">
-        <v>phaseIn</v>
-      </c>
-      <c r="G259" t="str">
-        <v/>
-      </c>
-      <c r="H259" t="str">
-        <v/>
       </c>
     </row>
     <row r="260">
@@ -6816,16 +6830,16 @@
         <v>Johan Lindahl</v>
       </c>
       <c r="E260" t="str">
+        <v>-</v>
+      </c>
+      <c r="F260" t="str">
+        <v/>
+      </c>
+      <c r="G260" t="str">
+        <v/>
+      </c>
+      <c r="J260" t="str">
         <v>Johan Lindahl</v>
-      </c>
-      <c r="F260" t="str">
-        <v>-</v>
-      </c>
-      <c r="G260" t="str">
-        <v/>
-      </c>
-      <c r="H260" t="str">
-        <v/>
       </c>
     </row>
     <row r="261">
@@ -6842,16 +6856,16 @@
         <v>Jan Laestander</v>
       </c>
       <c r="E261" t="str">
+        <v>active</v>
+      </c>
+      <c r="F261" t="str">
+        <v/>
+      </c>
+      <c r="G261" t="str">
+        <v/>
+      </c>
+      <c r="J261" t="str">
         <v>roger.axo@scania.com</v>
-      </c>
-      <c r="F261" t="str">
-        <v>active</v>
-      </c>
-      <c r="G261" t="str">
-        <v/>
-      </c>
-      <c r="H261" t="str">
-        <v/>
       </c>
     </row>
     <row r="262">
@@ -6868,16 +6882,16 @@
         <v>Åsa Blomqvist</v>
       </c>
       <c r="E262" t="str">
+        <v>active</v>
+      </c>
+      <c r="F262" t="str">
+        <v/>
+      </c>
+      <c r="G262" t="str">
+        <v/>
+      </c>
+      <c r="J262" t="str">
         <v>Fredrik Sarlén</v>
-      </c>
-      <c r="F262" t="str">
-        <v>active</v>
-      </c>
-      <c r="G262" t="str">
-        <v/>
-      </c>
-      <c r="H262" t="str">
-        <v/>
       </c>
     </row>
     <row r="263">
@@ -6893,13 +6907,13 @@
       <c r="D263" t="str">
         <v>anders.cortnum@scania.com</v>
       </c>
+      <c r="E263" t="str">
+        <v>active</v>
+      </c>
       <c r="F263" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G263" t="str">
-        <v/>
-      </c>
-      <c r="H263" t="str">
         <v/>
       </c>
     </row>
@@ -6917,16 +6931,16 @@
         <v>Manjunath Baswaraj</v>
       </c>
       <c r="E264" t="str">
+        <v>active</v>
+      </c>
+      <c r="F264" t="str">
+        <v/>
+      </c>
+      <c r="G264" t="str">
+        <v/>
+      </c>
+      <c r="J264" t="str">
         <v>Angel Devaraj</v>
-      </c>
-      <c r="F264" t="str">
-        <v>active</v>
-      </c>
-      <c r="G264" t="str">
-        <v/>
-      </c>
-      <c r="H264" t="str">
-        <v/>
       </c>
     </row>
     <row r="265">
@@ -6943,16 +6957,16 @@
         <v>Philip Afrim</v>
       </c>
       <c r="E265" t="str">
+        <v>active</v>
+      </c>
+      <c r="F265" t="str">
+        <v/>
+      </c>
+      <c r="G265" t="str">
+        <v/>
+      </c>
+      <c r="J265" t="str">
         <v>Stephanie Härdig</v>
-      </c>
-      <c r="F265" t="str">
-        <v>active</v>
-      </c>
-      <c r="G265" t="str">
-        <v/>
-      </c>
-      <c r="H265" t="str">
-        <v/>
       </c>
     </row>
     <row r="266">
@@ -6966,21 +6980,21 @@
         <v>Independent</v>
       </c>
       <c r="E266" t="str">
+        <v>active</v>
+      </c>
+      <c r="F266" t="str">
+        <v/>
+      </c>
+      <c r="G266" t="str">
+        <v/>
+      </c>
+      <c r="J266" t="str">
         <v>Malin Holmström</v>
-      </c>
-      <c r="F266" t="str">
-        <v>active</v>
-      </c>
-      <c r="G266" t="str">
-        <v/>
-      </c>
-      <c r="H266" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H266"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J266"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7006,16 +7020,16 @@
         <v>APP-Owner</v>
       </c>
       <c r="E1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Target Due Date</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Risk Description</v>
+      </c>
+      <c r="H1" t="str">
         <v>IT-Viewer</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Target Due Date</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Risk Description</v>
       </c>
     </row>
     <row r="2">
@@ -7031,13 +7045,13 @@
       <c r="D2" t="str">
         <v>Diego Benatti</v>
       </c>
+      <c r="E2" t="str">
+        <v>active</v>
+      </c>
       <c r="F2" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
         <v/>
       </c>
     </row>
@@ -7055,16 +7069,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E3" t="str">
+        <v>active</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F3" t="str">
-        <v>active</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
       </c>
     </row>
     <row r="4">
@@ -7081,16 +7095,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E4" t="str">
+        <v>active</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
         <v>Conny Friborg</v>
-      </c>
-      <c r="F4" t="str">
-        <v>active</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
       </c>
     </row>
     <row r="5">
@@ -7107,16 +7121,16 @@
         <v>Niclas Evertsson</v>
       </c>
       <c r="E5" t="str">
+        <v>active</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
         <v>Elaheh Yazdi</v>
-      </c>
-      <c r="F5" t="str">
-        <v>active</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
       </c>
     </row>
     <row r="6">
@@ -7133,16 +7147,16 @@
         <v>Camilla Pettersson</v>
       </c>
       <c r="E6" t="str">
+        <v>active</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
         <v>Peter Schönwell</v>
-      </c>
-      <c r="F6" t="str">
-        <v>active</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
       </c>
     </row>
     <row r="7">
@@ -7159,16 +7173,16 @@
         <v>Jonathan Sterky</v>
       </c>
       <c r="E7" t="str">
+        <v>active</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
         <v>Ahmer Shaikh</v>
-      </c>
-      <c r="F7" t="str">
-        <v>active</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
       </c>
     </row>
     <row r="8">
@@ -7182,16 +7196,16 @@
         <v>Independent</v>
       </c>
       <c r="E8" t="str">
+        <v>active</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
         <v>Fredrik Nyberg</v>
-      </c>
-      <c r="F8" t="str">
-        <v>active</v>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
       </c>
     </row>
     <row r="9">
@@ -7207,13 +7221,13 @@
       <c r="D9" t="str">
         <v>Magendran Padmanaban</v>
       </c>
+      <c r="E9" t="str">
+        <v>active</v>
+      </c>
       <c r="F9" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
         <v/>
       </c>
     </row>
@@ -7231,16 +7245,16 @@
         <v>Robert Ciborowski</v>
       </c>
       <c r="E10" t="str">
+        <v>active</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
         <v>Yasmine Mohamed</v>
-      </c>
-      <c r="F10" t="str">
-        <v>active</v>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -7257,16 +7271,16 @@
         <v>Jan Visscher</v>
       </c>
       <c r="E11" t="str">
+        <v>active</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
         <v>elin.kinnander@scania.com</v>
-      </c>
-      <c r="F11" t="str">
-        <v>active</v>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
       </c>
     </row>
     <row r="12">
@@ -7283,16 +7297,16 @@
         <v>Pekka Palonen</v>
       </c>
       <c r="E12" t="str">
+        <v>active</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
         <v>Vaishali Khandagale</v>
-      </c>
-      <c r="F12" t="str">
-        <v>active</v>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
       </c>
     </row>
     <row r="13">
@@ -7305,13 +7319,13 @@
       <c r="C13" t="str">
         <v>Independent</v>
       </c>
+      <c r="E13" t="str">
+        <v>active</v>
+      </c>
       <c r="F13" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
         <v/>
       </c>
     </row>
@@ -7329,16 +7343,16 @@
         <v>Jessica Löfström</v>
       </c>
       <c r="E14" t="str">
+        <v>active</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
         <v>Carolina Årman</v>
-      </c>
-      <c r="F14" t="str">
-        <v>active</v>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
       </c>
     </row>
     <row r="15">
@@ -7352,16 +7366,16 @@
         <v>Independent</v>
       </c>
       <c r="E15" t="str">
+        <v>active</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
         <v>Peter Grape</v>
-      </c>
-      <c r="F15" t="str">
-        <v>active</v>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
       </c>
     </row>
     <row r="16">
@@ -7377,13 +7391,13 @@
       <c r="D16" t="str">
         <v>Ebba Dyrell</v>
       </c>
+      <c r="E16" t="str">
+        <v>phaseOut</v>
+      </c>
       <c r="F16" t="str">
-        <v>phaseOut</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
         <v/>
       </c>
     </row>
@@ -7401,16 +7415,16 @@
         <v>Jakob Mäehans</v>
       </c>
       <c r="E17" t="str">
+        <v>active</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
         <v>Jakob Mäehans</v>
-      </c>
-      <c r="F17" t="str">
-        <v>active</v>
-      </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
       </c>
     </row>
     <row r="18">
@@ -7427,16 +7441,16 @@
         <v>Linnea Borg</v>
       </c>
       <c r="E18" t="str">
+        <v>active</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
         <v>Shanmugaraj Gopalaswami</v>
-      </c>
-      <c r="F18" t="str">
-        <v>active</v>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
       </c>
     </row>
     <row r="19">
@@ -7450,16 +7464,16 @@
         <v>Independent</v>
       </c>
       <c r="E19" t="str">
+        <v>active</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
         <v>Ronnie Viklund</v>
-      </c>
-      <c r="F19" t="str">
-        <v>active</v>
-      </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <v/>
       </c>
     </row>
     <row r="20">
@@ -7473,16 +7487,16 @@
         <v>Independent</v>
       </c>
       <c r="E20" t="str">
+        <v>active</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
         <v>Robin Wikingsson</v>
-      </c>
-      <c r="F20" t="str">
-        <v>active</v>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <v/>
       </c>
     </row>
     <row r="21">
@@ -7498,13 +7512,13 @@
       <c r="D21" t="str">
         <v>Anne Malmqvist</v>
       </c>
+      <c r="E21" t="str">
+        <v>active</v>
+      </c>
       <c r="F21" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
         <v/>
       </c>
     </row>
@@ -7522,16 +7536,16 @@
         <v>Tomas Hebbou</v>
       </c>
       <c r="E22" t="str">
+        <v>phaseOut</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
         <v>Shanmugaraj Gopalaswami</v>
-      </c>
-      <c r="F22" t="str">
-        <v>phaseOut</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
       </c>
     </row>
     <row r="23">
@@ -7548,16 +7562,16 @@
         <v>Robin Högberg</v>
       </c>
       <c r="E23" t="str">
+        <v>active</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
         <v>Subhendu Tripathy</v>
-      </c>
-      <c r="F23" t="str">
-        <v>active</v>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
       </c>
     </row>
     <row r="24">
@@ -7574,16 +7588,16 @@
         <v>Rosiane Andretta-Sundman</v>
       </c>
       <c r="E24" t="str">
+        <v>active</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
         <v>Åke Johansson</v>
-      </c>
-      <c r="F24" t="str">
-        <v>active</v>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <v/>
       </c>
     </row>
     <row r="25">
@@ -7600,16 +7614,16 @@
         <v>Peter Lönnqvist</v>
       </c>
       <c r="E25" t="str">
+        <v>active</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
         <v>Muhammad Asim Feroze</v>
-      </c>
-      <c r="F25" t="str">
-        <v>active</v>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
       </c>
     </row>
     <row r="26">
@@ -7626,16 +7640,16 @@
         <v>Tobias Abrahmsen</v>
       </c>
       <c r="E26" t="str">
+        <v>phaseOut</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
         <v>Jungkan Iljas</v>
-      </c>
-      <c r="F26" t="str">
-        <v>phaseOut</v>
-      </c>
-      <c r="G26" t="str">
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <v/>
       </c>
     </row>
     <row r="27">
@@ -7652,16 +7666,16 @@
         <v>Fernanda Marques</v>
       </c>
       <c r="E27" t="str">
+        <v>active</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
         <v>Evandro Miranda</v>
-      </c>
-      <c r="F27" t="str">
-        <v>active</v>
-      </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <v/>
       </c>
     </row>
     <row r="28">
@@ -7678,16 +7692,16 @@
         <v>Rickard Ångman</v>
       </c>
       <c r="E28" t="str">
+        <v>active</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
         <v>Rickard Ångman</v>
-      </c>
-      <c r="F28" t="str">
-        <v>active</v>
-      </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <v/>
       </c>
     </row>
     <row r="29">
@@ -7704,16 +7718,16 @@
         <v>richard.grabert@scania.com</v>
       </c>
       <c r="E29" t="str">
+        <v>active</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
         <v>Jonas Simonsson</v>
-      </c>
-      <c r="F29" t="str">
-        <v>active</v>
-      </c>
-      <c r="G29" t="str">
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <v/>
       </c>
     </row>
     <row r="30">
@@ -7730,16 +7744,16 @@
         <v>Martina Pettersson</v>
       </c>
       <c r="E30" t="str">
+        <v>active</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
         <v>Bianca Björkman</v>
-      </c>
-      <c r="F30" t="str">
-        <v>active</v>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <v/>
       </c>
     </row>
     <row r="31">
@@ -7755,13 +7769,13 @@
       <c r="D31" t="str">
         <v>Jonas Hagström</v>
       </c>
+      <c r="E31" t="str">
+        <v>plan</v>
+      </c>
       <c r="F31" t="str">
-        <v>plan</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
         <v/>
       </c>
     </row>
@@ -7778,13 +7792,13 @@
       <c r="D32" t="str">
         <v>Katarina Stensson</v>
       </c>
+      <c r="E32" t="str">
+        <v>active</v>
+      </c>
       <c r="F32" t="str">
-        <v>active</v>
+        <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
-      </c>
-      <c r="H32" t="str">
         <v/>
       </c>
     </row>
@@ -7802,16 +7816,16 @@
         <v>Jonas Hagström</v>
       </c>
       <c r="E33" t="str">
+        <v>active</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
         <v>Christer Åberg</v>
-      </c>
-      <c r="F33" t="str">
-        <v>active</v>
-      </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <v/>
       </c>
     </row>
     <row r="34">
@@ -7828,16 +7842,16 @@
         <v>Magnus Nordlund</v>
       </c>
       <c r="E34" t="str">
+        <v>active</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
         <v>Jan Ålund</v>
-      </c>
-      <c r="F34" t="str">
-        <v>active</v>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <v/>
       </c>
     </row>
     <row r="35">
@@ -7854,16 +7868,16 @@
         <v>Gustav Dahlman</v>
       </c>
       <c r="E35" t="str">
+        <v>active</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
         <v>Eduardo Abrigo</v>
-      </c>
-      <c r="F35" t="str">
-        <v>active</v>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <v/>
       </c>
     </row>
     <row r="36">
@@ -7880,16 +7894,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E36" t="str">
+        <v>active</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
         <v>Albert Isik</v>
-      </c>
-      <c r="F36" t="str">
-        <v>active</v>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <v/>
       </c>
     </row>
     <row r="37">
@@ -7906,16 +7920,16 @@
         <v>Mattias Wemmenborn</v>
       </c>
       <c r="E37" t="str">
+        <v>active</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
         <v>Anders Asplund</v>
-      </c>
-      <c r="F37" t="str">
-        <v>active</v>
-      </c>
-      <c r="G37" t="str">
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <v/>
       </c>
     </row>
     <row r="38">
@@ -7932,16 +7946,16 @@
         <v>soren.hagglof@scania.com</v>
       </c>
       <c r="E38" t="str">
+        <v>active</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
         <v>Lars Tärnbrant</v>
-      </c>
-      <c r="F38" t="str">
-        <v>active</v>
-      </c>
-      <c r="G38" t="str">
-        <v/>
-      </c>
-      <c r="H38" t="str">
-        <v/>
       </c>
     </row>
     <row r="39">
@@ -7958,16 +7972,16 @@
         <v>lars.x.karlsson@scania.com</v>
       </c>
       <c r="E39" t="str">
+        <v>active</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
         <v>Fredrik Fagervall</v>
-      </c>
-      <c r="F39" t="str">
-        <v>active</v>
-      </c>
-      <c r="G39" t="str">
-        <v/>
-      </c>
-      <c r="H39" t="str">
-        <v/>
       </c>
     </row>
     <row r="40">
@@ -7984,16 +7998,16 @@
         <v>Andreas Holmgren</v>
       </c>
       <c r="E40" t="str">
+        <v>active</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
         <v>Nina Helenius Sidén</v>
-      </c>
-      <c r="F40" t="str">
-        <v>active</v>
-      </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\excel-parse\backend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3BF094-53AF-4E89-8D21-C7C2126DA208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9625FD6-4E3E-42DE-8961-BFF0D852E1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33000" yWindow="8715" windowWidth="20955" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34830" yWindow="5910" windowWidth="20955" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rootApp" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="681">
   <si>
     <t>Independent App</t>
   </si>
@@ -2065,17 +2065,13 @@
   </si>
   <si>
     <t>ToolsTalk2 SE</t>
-  </si>
-  <si>
-    <t>Sub Due Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2085,14 +2081,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2122,7 +2110,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2464,11 +2452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2512,8 +2504,8 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="G2" s="2">
+        <v>45556</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -3478,7 +3470,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H40" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H1 A3:H40 A2:F2 H2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10076,10 +10068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10087,13 +10079,13 @@
     <col min="1" max="1" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
@@ -10106,29 +10098,26 @@
       <c r="D1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>681</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>613</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10141,17 +10130,18 @@
       <c r="D2" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2">
+        <v>45494</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>615</v>
       </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10164,17 +10154,18 @@
       <c r="D3" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2">
+        <v>45647</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>618</v>
       </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -10189,19 +10180,18 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -10216,19 +10206,18 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -10243,17 +10232,16 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -10268,19 +10256,18 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>623</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -10295,19 +10282,18 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -10322,19 +10308,18 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -10349,19 +10334,18 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -10376,19 +10360,18 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -10403,19 +10386,18 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -10429,16 +10411,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -10452,16 +10433,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -10475,16 +10455,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -10498,16 +10477,15 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -10521,16 +10499,15 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -10545,13 +10522,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -10566,19 +10542,18 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -10593,19 +10568,18 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -10620,19 +10594,18 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -10647,19 +10620,18 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -10674,19 +10646,18 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -10701,19 +10672,18 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -10728,19 +10698,18 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -10755,19 +10724,18 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -10782,19 +10750,18 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -10809,19 +10776,18 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -10836,19 +10802,18 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -10863,19 +10828,18 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -10890,19 +10854,18 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>645</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -10917,17 +10880,16 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -10942,19 +10904,18 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>645</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -10968,16 +10929,15 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="I34" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -10991,16 +10951,15 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -11014,16 +10973,15 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="I36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -11037,16 +10995,15 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="I37" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -11060,16 +11017,15 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="I38" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -11083,16 +11039,15 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -11106,16 +11061,15 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="I40" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -11130,19 +11084,18 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>662</v>
+        <v>52</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -11156,16 +11109,15 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="I42" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -11179,16 +11131,15 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="I43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -11202,16 +11153,15 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -11226,13 +11176,12 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -11247,19 +11196,18 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>668</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -11273,16 +11221,15 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
@@ -11297,17 +11244,16 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -11322,17 +11268,16 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -11347,17 +11292,16 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -11372,19 +11316,18 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>675</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -11399,17 +11342,16 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -11423,16 +11365,15 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="I53" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -11447,19 +11388,18 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="H54" s="1" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -11474,17 +11414,16 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H55" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\excel-parse\backend\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9625FD6-4E3E-42DE-8961-BFF0D852E1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB21167-0E1A-473A-9CF8-F9FE0C2AF7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34830" yWindow="5910" windowWidth="20955" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="682">
   <si>
     <t>Independent App</t>
   </si>
@@ -2065,6 +2065,10 @@
   </si>
   <si>
     <t>ToolsTalk2 SE</t>
+  </si>
+  <si>
+    <t>toConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2450,19 +2454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2487,8 +2492,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2511,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2563,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2664,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2687,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2765,7 +2773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2785,7 +2793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2811,7 +2819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2834,7 +2842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3469,6 +3477,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:H1 A3:H40 A2:F2 H2" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="686">
   <si>
     <t>Independent App</t>
   </si>
@@ -63,11 +63,15 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-05 17:04:11 修改了 Target Due Date: 9/21/24 =&gt; 2024-09-20
-2023-09-06 09:58:57 修改了 Target Due Date: 2024-09-20 =&gt; 2024-09-19</t>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-06 10:07:42 修改了 Target Due Date: 2024-09-19 =&gt; 2024-09-10
+2023-09-06 13:13:01 修改了 Target Due Date: 2024-09-10 =&gt; 2025-09-22
+2023-09-06 13:13:07 修改了 Target Due Date: 2025-09-22 =&gt; 2024-09-11</t>
   </si>
   <si>
     <t>WinCC</t>
@@ -2460,7 +2464,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
@@ -2524,16 +2528,16 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2542,10 +2546,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -2559,19 +2563,19 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -2585,7 +2589,7 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2594,10 +2598,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -2611,7 +2615,7 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2620,10 +2624,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -2637,7 +2641,7 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2646,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -2663,7 +2667,7 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2672,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -2686,7 +2690,7 @@
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2695,7 +2699,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -2709,7 +2713,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2718,10 +2722,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -2735,7 +2739,7 @@
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2744,10 +2748,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -2761,7 +2765,7 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2770,10 +2774,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -2787,7 +2791,7 @@
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -2807,7 +2811,7 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -2816,10 +2820,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2833,7 +2837,7 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -2842,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -2856,7 +2860,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2865,10 +2869,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -2879,7 +2883,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -2888,10 +2892,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -2905,7 +2909,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2914,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -2931,7 +2935,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2940,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -2954,7 +2958,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -2963,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -2977,7 +2981,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -2986,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3000,7 +3004,7 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3009,13 +3013,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -3026,7 +3030,7 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3035,10 +3039,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3052,7 +3056,7 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -3061,10 +3065,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3078,7 +3082,7 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -3087,10 +3091,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3104,7 +3108,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3113,13 +3117,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3130,7 +3134,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -3139,10 +3143,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3156,7 +3160,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3165,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3182,7 +3186,7 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -3191,10 +3195,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3208,7 +3212,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -3217,10 +3221,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3234,7 +3238,7 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3243,10 +3247,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3257,7 +3261,7 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -3266,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -3280,7 +3284,7 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -3289,10 +3293,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3306,7 +3310,7 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -3315,10 +3319,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3332,7 +3336,7 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -3341,10 +3345,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3367,10 +3371,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3384,7 +3388,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3393,10 +3397,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -3410,7 +3414,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3419,10 +3423,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -3436,7 +3440,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -3445,10 +3449,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -3462,7 +3466,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -3471,10 +3475,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -3528,7 +3532,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3537,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -3551,7 +3555,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3560,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -3574,7 +3578,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3583,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3606,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -3620,7 +3624,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3649,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3660,7 +3664,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3669,10 +3673,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3686,7 +3690,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3706,7 +3710,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3715,10 +3719,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3732,7 +3736,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3741,10 +3745,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3767,10 +3771,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -3784,7 +3788,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3793,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3807,7 +3811,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3816,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3830,7 +3834,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3839,10 +3843,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3856,7 +3860,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3865,10 +3869,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -3882,7 +3886,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3891,10 +3895,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3908,7 +3912,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -3917,13 +3921,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -3934,7 +3938,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -3943,10 +3947,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3960,7 +3964,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3969,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3983,7 +3987,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3992,10 +3996,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4009,7 +4013,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4018,10 +4022,10 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -4035,7 +4039,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4044,10 +4048,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -4061,7 +4065,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4070,10 +4074,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -4087,7 +4091,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4096,10 +4100,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -4113,7 +4117,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -4122,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -4136,7 +4140,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -4145,10 +4149,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4162,7 +4166,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -4171,10 +4175,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4188,7 +4192,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -4197,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -4211,7 +4215,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -4220,10 +4224,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -4237,7 +4241,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4246,10 +4250,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4263,7 +4267,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4272,10 +4276,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -4289,7 +4293,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4298,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -4315,7 +4319,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -4324,10 +4328,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4341,7 +4345,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -4350,10 +4354,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -4367,7 +4371,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -4376,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -4390,7 +4394,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -4399,10 +4403,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -4416,7 +4420,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -4425,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -4442,7 +4446,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -4451,10 +4455,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4468,7 +4472,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -4477,10 +4481,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -4494,7 +4498,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -4503,10 +4507,10 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4520,7 +4524,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -4529,10 +4533,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4546,7 +4550,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -4555,10 +4559,10 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4572,7 +4576,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -4581,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -4598,7 +4602,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -4607,10 +4611,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4624,7 +4628,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -4633,10 +4637,10 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4650,7 +4654,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4659,10 +4663,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -4673,7 +4677,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4682,10 +4686,10 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4699,7 +4703,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -4708,10 +4712,10 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -4725,7 +4729,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -4734,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -4748,7 +4752,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -4757,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -4771,7 +4775,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -4780,10 +4784,10 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -4797,7 +4801,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -4817,7 +4821,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -4826,10 +4830,10 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -4843,7 +4847,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -4863,7 +4867,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -4872,10 +4876,10 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -4889,7 +4893,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -4898,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -4909,7 +4913,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -4929,7 +4933,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -4938,10 +4942,10 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -4955,7 +4959,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -4964,10 +4968,10 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -4981,7 +4985,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -4990,13 +4994,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -5007,7 +5011,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -5016,10 +5020,10 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -5033,7 +5037,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -5042,10 +5046,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -5059,7 +5063,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -5068,13 +5072,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5085,7 +5089,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -5094,10 +5098,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -5111,7 +5115,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -5120,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5134,7 +5138,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -5143,10 +5147,10 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -5160,7 +5164,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -5169,10 +5173,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5186,7 +5190,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -5195,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -5209,7 +5213,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -5218,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5232,7 +5236,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -5241,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5255,7 +5259,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -5264,10 +5268,10 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -5281,7 +5285,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -5290,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5301,7 +5305,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -5310,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -5324,7 +5328,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -5333,10 +5337,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -5359,10 +5363,10 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -5376,7 +5380,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -5385,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -5399,7 +5403,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -5408,10 +5412,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -5425,7 +5429,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -5434,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5448,7 +5452,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -5457,10 +5461,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -5474,7 +5478,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -5483,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5497,7 +5501,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -5506,10 +5510,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5523,19 +5527,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" t="s">
         <v>287</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>285</v>
-      </c>
-      <c r="E83" t="s">
-        <v>286</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5549,7 +5553,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -5558,10 +5562,10 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5575,7 +5579,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -5584,7 +5588,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5598,7 +5602,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -5607,13 +5611,13 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5624,7 +5628,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -5633,10 +5637,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5650,7 +5654,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -5659,7 +5663,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5673,7 +5677,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -5682,10 +5686,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -5699,7 +5703,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -5708,10 +5712,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -5725,7 +5729,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -5734,10 +5738,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -5751,7 +5755,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -5760,10 +5764,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -5777,7 +5781,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -5786,10 +5790,10 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -5800,7 +5804,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -5809,10 +5813,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -5826,7 +5830,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -5835,10 +5839,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -5852,7 +5856,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -5861,7 +5865,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -5875,7 +5879,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -5884,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -5895,7 +5899,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -5904,10 +5908,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -5921,7 +5925,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -5930,10 +5934,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -5947,7 +5951,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -5956,10 +5960,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E100" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -5973,7 +5977,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -5982,10 +5986,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -5999,7 +6003,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6008,10 +6012,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -6031,10 +6035,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6048,7 +6052,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -6057,7 +6061,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -6071,7 +6075,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -6080,10 +6084,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -6097,7 +6101,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -6106,10 +6110,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -6123,7 +6127,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -6132,10 +6136,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -6149,7 +6153,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -6158,10 +6162,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E108" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -6175,7 +6179,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -6184,10 +6188,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6201,7 +6205,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -6210,10 +6214,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E110" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6227,7 +6231,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -6236,10 +6240,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E111" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6253,7 +6257,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -6262,10 +6266,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -6276,7 +6280,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -6285,10 +6289,10 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -6302,7 +6306,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -6311,10 +6315,10 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E114" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6328,7 +6332,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -6337,13 +6341,13 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -6354,7 +6358,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -6374,7 +6378,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -6383,10 +6387,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -6397,7 +6401,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -6406,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -6417,7 +6421,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -6426,10 +6430,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -6443,7 +6447,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -6452,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -6466,7 +6470,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -6475,10 +6479,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -6492,7 +6496,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -6501,10 +6505,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E122" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -6518,7 +6522,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -6527,13 +6531,13 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -6544,7 +6548,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -6553,10 +6557,10 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E124" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -6570,7 +6574,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -6579,10 +6583,10 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6596,7 +6600,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -6605,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6619,7 +6623,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -6628,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6642,7 +6646,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -6651,10 +6655,10 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -6668,7 +6672,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -6688,7 +6692,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -6697,10 +6701,10 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E130" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -6714,7 +6718,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -6723,10 +6727,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6740,7 +6744,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -6749,10 +6753,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E132" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -6766,7 +6770,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -6775,10 +6779,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -6792,7 +6796,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -6812,7 +6816,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -6821,10 +6825,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E135" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -6838,7 +6842,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -6847,10 +6851,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E136" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -6864,7 +6868,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -6873,10 +6877,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E137" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -6890,7 +6894,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -6899,10 +6903,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -6916,7 +6920,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -6936,7 +6940,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -6945,7 +6949,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6959,7 +6963,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -6968,7 +6972,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -6982,7 +6986,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -6991,10 +6995,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -7008,7 +7012,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -7017,7 +7021,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -7031,7 +7035,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -7051,7 +7055,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -7060,10 +7064,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E145" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7077,7 +7081,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -7097,7 +7101,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -7106,7 +7110,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7120,7 +7124,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -7129,10 +7133,10 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7146,7 +7150,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -7155,10 +7159,10 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7172,7 +7176,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -7181,10 +7185,10 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E150" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7198,7 +7202,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -7207,10 +7211,10 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E151" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -7224,7 +7228,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -7233,10 +7237,10 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E152" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -7250,7 +7254,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -7259,10 +7263,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E153" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7276,7 +7280,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -7285,10 +7289,10 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E154" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7302,7 +7306,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -7311,10 +7315,10 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E155" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -7328,7 +7332,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -7337,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -7351,7 +7355,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -7360,10 +7364,10 @@
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -7374,7 +7378,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -7383,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -7397,7 +7401,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -7406,10 +7410,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E159" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -7423,7 +7427,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -7443,7 +7447,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -7452,10 +7456,10 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E161" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -7478,10 +7482,10 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -7495,7 +7499,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -7504,13 +7508,13 @@
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F163" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -7521,7 +7525,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -7530,7 +7534,7 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -7544,7 +7548,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -7553,10 +7557,10 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7570,7 +7574,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -7590,7 +7594,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -7599,10 +7603,10 @@
         <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -7636,7 +7640,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -7645,10 +7649,10 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7662,7 +7666,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -7671,10 +7675,10 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E170" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7688,7 +7692,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -7697,10 +7701,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E171" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -7714,7 +7718,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -7723,10 +7727,10 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E172" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -7740,7 +7744,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -7749,10 +7753,10 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7766,7 +7770,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -7775,10 +7779,10 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E174" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -7792,7 +7796,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -7801,10 +7805,10 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E175" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -7818,7 +7822,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -7827,13 +7831,13 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E176" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F176" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
@@ -7844,19 +7848,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>457</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>301</v>
+      </c>
+      <c r="E177" t="s">
         <v>456</v>
-      </c>
-      <c r="B177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" t="s">
-        <v>300</v>
-      </c>
-      <c r="E177" t="s">
-        <v>455</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -7870,7 +7874,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -7879,7 +7883,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -7893,7 +7897,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -7902,7 +7906,7 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -7916,7 +7920,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -7925,7 +7929,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -7939,7 +7943,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -7959,7 +7963,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -7968,10 +7972,10 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E182" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -7985,7 +7989,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -7994,10 +7998,10 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E183" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -8011,7 +8015,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -8020,10 +8024,10 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E184" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -8046,10 +8050,10 @@
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E185" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -8063,7 +8067,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -8072,10 +8076,10 @@
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E186" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -8089,7 +8093,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -8098,10 +8102,10 @@
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -8115,7 +8119,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -8124,10 +8128,10 @@
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E188" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -8141,7 +8145,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -8150,10 +8154,10 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E189" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -8167,7 +8171,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -8176,10 +8180,10 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E190" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -8193,7 +8197,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -8202,7 +8206,7 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -8216,7 +8220,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -8225,10 +8229,10 @@
         <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F192" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
@@ -8239,7 +8243,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -8248,10 +8252,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E193" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -8265,7 +8269,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -8274,10 +8278,10 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E194" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -8291,7 +8295,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -8300,13 +8304,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E195" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F195" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
@@ -8317,7 +8321,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -8326,10 +8330,10 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -8343,7 +8347,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -8352,10 +8356,10 @@
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
@@ -8369,7 +8373,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -8378,10 +8382,10 @@
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E198" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -8395,7 +8399,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -8404,10 +8408,10 @@
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E199" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8421,7 +8425,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -8430,10 +8434,10 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -8444,7 +8448,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -8453,10 +8457,10 @@
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E201" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8470,7 +8474,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -8479,10 +8483,10 @@
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E202" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8496,7 +8500,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -8505,13 +8509,13 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E203" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F203" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
@@ -8522,7 +8526,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -8531,7 +8535,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -8545,7 +8549,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -8554,10 +8558,10 @@
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E205" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -8571,7 +8575,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -8580,10 +8584,10 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E206" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -8597,7 +8601,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -8606,7 +8610,7 @@
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -8620,7 +8624,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -8629,7 +8633,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -8643,7 +8647,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -8652,7 +8656,7 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -8666,7 +8670,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -8675,10 +8679,10 @@
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E210" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -8692,7 +8696,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -8701,10 +8705,10 @@
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E211" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -8718,7 +8722,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -8727,10 +8731,10 @@
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E212" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -8744,7 +8748,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -8753,10 +8757,10 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F213" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
@@ -8767,7 +8771,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -8776,10 +8780,10 @@
         <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -8793,7 +8797,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -8813,7 +8817,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -8822,13 +8826,13 @@
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E216" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F216" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
@@ -8839,7 +8843,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -8848,7 +8852,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -8862,7 +8866,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -8882,7 +8886,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -8891,7 +8895,7 @@
         <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
@@ -8905,7 +8909,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -8914,10 +8918,10 @@
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -8931,7 +8935,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -8940,10 +8944,10 @@
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E221" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
@@ -8957,7 +8961,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -8966,10 +8970,10 @@
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E222" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -8983,7 +8987,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -8992,13 +8996,13 @@
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E223" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F223" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G223" t="s">
         <v>11</v>
@@ -9009,7 +9013,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -9018,10 +9022,10 @@
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F224" t="s">
         <v>14</v>
@@ -9035,7 +9039,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -9044,10 +9048,10 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E225" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
@@ -9061,7 +9065,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -9070,10 +9074,10 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E226" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F226" t="s">
         <v>14</v>
@@ -9087,7 +9091,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -9096,10 +9100,10 @@
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E227" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F227" t="s">
         <v>14</v>
@@ -9113,7 +9117,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -9122,10 +9126,10 @@
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E228" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F228" t="s">
         <v>11</v>
@@ -9139,7 +9143,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -9148,10 +9152,10 @@
         <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E229" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9165,7 +9169,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -9174,10 +9178,10 @@
         <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E230" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9191,7 +9195,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -9200,10 +9204,10 @@
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E231" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9217,7 +9221,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -9226,7 +9230,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -9240,7 +9244,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -9260,7 +9264,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -9269,10 +9273,10 @@
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E234" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9286,7 +9290,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -9295,13 +9299,13 @@
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F235" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
@@ -9312,7 +9316,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -9321,13 +9325,13 @@
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E236" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F236" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
@@ -9338,7 +9342,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -9347,10 +9351,10 @@
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E237" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -9364,7 +9368,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -9373,7 +9377,7 @@
         <v>12</v>
       </c>
       <c r="E238" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F238" t="s">
         <v>14</v>
@@ -9387,7 +9391,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -9396,10 +9400,10 @@
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E239" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -9413,7 +9417,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -9422,13 +9426,13 @@
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E240" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
@@ -9439,7 +9443,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -9448,10 +9452,10 @@
         <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F241" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
@@ -9462,7 +9466,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -9471,10 +9475,10 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F242" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
@@ -9485,7 +9489,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -9494,7 +9498,7 @@
         <v>12</v>
       </c>
       <c r="E243" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -9508,7 +9512,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -9517,10 +9521,10 @@
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E244" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F244" t="s">
         <v>14</v>
@@ -9534,7 +9538,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -9543,7 +9547,7 @@
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -9557,7 +9561,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -9577,7 +9581,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -9586,10 +9590,10 @@
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E247" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -9603,7 +9607,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -9612,10 +9616,10 @@
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E248" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F248" t="s">
         <v>14</v>
@@ -9629,7 +9633,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -9638,10 +9642,10 @@
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E249" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -9655,7 +9659,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -9664,7 +9668,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F250" t="s">
         <v>14</v>
@@ -9678,7 +9682,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -9687,10 +9691,10 @@
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E251" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F251" t="s">
         <v>14</v>
@@ -9704,7 +9708,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -9713,10 +9717,10 @@
         <v>12</v>
       </c>
       <c r="E252" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F252" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
@@ -9727,7 +9731,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -9736,7 +9740,7 @@
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F253" t="s">
         <v>14</v>
@@ -9750,7 +9754,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -9759,10 +9763,10 @@
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E254" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -9776,7 +9780,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -9785,10 +9789,10 @@
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
@@ -9799,7 +9803,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -9808,10 +9812,10 @@
         <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E256" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F256" t="s">
         <v>14</v>
@@ -9825,7 +9829,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -9834,10 +9838,10 @@
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E257" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F257" t="s">
         <v>14</v>
@@ -9851,7 +9855,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -9860,7 +9864,7 @@
         <v>12</v>
       </c>
       <c r="E258" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F258" t="s">
         <v>14</v>
@@ -9874,7 +9878,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -9883,13 +9887,13 @@
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E259" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F259" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G259" t="s">
         <v>11</v>
@@ -9900,7 +9904,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -9909,13 +9913,13 @@
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E260" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F260" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
@@ -9926,7 +9930,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -9935,10 +9939,10 @@
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -9952,7 +9956,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -9961,10 +9965,10 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E262" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F262" t="s">
         <v>14</v>
@@ -9978,7 +9982,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -9987,7 +9991,7 @@
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F263" t="s">
         <v>14</v>
@@ -10001,7 +10005,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -10010,10 +10014,10 @@
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E264" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F264" t="s">
         <v>14</v>
@@ -10027,7 +10031,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -10036,10 +10040,10 @@
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E265" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F265" t="s">
         <v>14</v>
@@ -10053,7 +10057,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -10062,7 +10066,7 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F266" t="s">
         <v>14</v>
@@ -10100,22 +10104,22 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -10135,20 +10139,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E2" s="1">
         <v>45494</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -10159,20 +10163,20 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="E3" s="1">
         <v>45647</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -10180,73 +10184,73 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -10256,24 +10260,24 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -10282,24 +10286,24 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
@@ -10308,24 +10312,24 @@
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>14</v>
@@ -10334,24 +10338,24 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>14</v>
@@ -10360,24 +10364,24 @@
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>14</v>
@@ -10386,24 +10390,24 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>14</v>
@@ -10412,20 +10416,20 @@
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
@@ -10434,20 +10438,20 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>14</v>
@@ -10456,20 +10460,20 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>14</v>
@@ -10478,20 +10482,20 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>14</v>
@@ -10500,20 +10504,20 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -10522,14 +10526,14 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -10542,24 +10546,24 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
@@ -10568,24 +10572,24 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>14</v>
@@ -10594,24 +10598,24 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>14</v>
@@ -10620,24 +10624,24 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
@@ -10646,24 +10650,24 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>14</v>
@@ -10672,24 +10676,24 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>14</v>
@@ -10698,24 +10702,24 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>14</v>
@@ -10724,24 +10728,24 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>14</v>
@@ -10750,102 +10754,102 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -10854,24 +10858,24 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -10880,21 +10884,21 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -10904,24 +10908,24 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -10930,20 +10934,20 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -10952,20 +10956,20 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
@@ -10974,20 +10978,20 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -10996,20 +11000,20 @@
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -11018,20 +11022,20 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>14</v>
@@ -11040,20 +11044,20 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>14</v>
@@ -11062,20 +11066,20 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>14</v>
@@ -11084,24 +11088,24 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>14</v>
@@ -11110,20 +11114,20 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>14</v>
@@ -11132,20 +11136,20 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
@@ -11154,20 +11158,20 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>14</v>
@@ -11176,66 +11180,66 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>14</v>
@@ -11244,21 +11248,21 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -11268,21 +11272,21 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
@@ -11292,21 +11296,21 @@
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -11316,24 +11320,24 @@
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -11342,44 +11346,44 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -11388,24 +11392,24 @@
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -11414,24 +11418,24 @@
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="690">
   <si>
     <t>Independent App</t>
   </si>
@@ -63,7 +63,7 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-09-11</t>
+    <t>2024-09-10</t>
   </si>
   <si>
     <t>是</t>
@@ -71,7 +71,8 @@
   <si>
     <t xml:space="preserve">2023-09-06 10:07:42 修改了 Target Due Date: 2024-09-19 =&gt; 2024-09-10
 2023-09-06 13:13:01 修改了 Target Due Date: 2024-09-10 =&gt; 2025-09-22
-2023-09-06 13:13:07 修改了 Target Due Date: 2025-09-22 =&gt; 2024-09-11</t>
+2023-09-06 13:13:07 修改了 Target Due Date: 2025-09-22 =&gt; 2024-09-11
+2023-09-06 13:20:01 修改了 Target Due Date: 2024-09-11 =&gt; 2024-09-10</t>
   </si>
   <si>
     <t>WinCC</t>
@@ -1886,6 +1887,13 @@
     <t>Integration</t>
   </si>
   <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-06 13:29:02 修改了 Target Due Date: 7/21/24 =&gt; 2024-07-20
+2023-09-06 13:34:11 修改了 Target Due Date: 2024-07-20 =&gt; 2024-07-19</t>
+  </si>
+  <si>
     <t>Digital Dealer Support</t>
   </si>
   <si>
@@ -1893,6 +1901,12 @@
   </si>
   <si>
     <t>Didrik CMC</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-06 13:37:36 修改了 Target Due Date: 空值 =&gt; 2023-09-20</t>
   </si>
   <si>
     <t>Didrik CMS</t>
@@ -10085,7 +10099,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E3" sqref="E3"/>
@@ -10102,7 +10116,7 @@
     <col min="9" max="9" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>614</v>
       </c>
@@ -10133,8 +10147,14 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -10147,8 +10167,8 @@
       <c r="D2" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E2" s="1">
-        <v>45494</v>
+      <c r="E2" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -10157,16 +10177,22 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>621</v>
@@ -10176,18 +10202,18 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -10195,7 +10221,9 @@
       <c r="D4" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -10207,13 +10235,19 @@
         <v>91</v>
       </c>
       <c r="J4" s="2"/>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -10239,7 +10273,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -10263,7 +10297,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -10277,7 +10311,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -10289,7 +10323,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -10315,7 +10349,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -10341,7 +10375,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -10367,7 +10401,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -10393,7 +10427,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -10419,7 +10453,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -10441,7 +10475,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -10463,7 +10497,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -10485,7 +10519,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -10507,7 +10541,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -10529,7 +10563,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -10549,7 +10583,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -10575,7 +10609,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -10601,7 +10635,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -10627,7 +10661,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -10653,7 +10687,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -10679,7 +10713,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -10705,7 +10739,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
@@ -10731,7 +10765,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -10757,10 +10791,10 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>621</v>
@@ -10768,10 +10802,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>91</v>
@@ -10783,10 +10817,10 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>621</v>
@@ -10794,10 +10828,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>91</v>
@@ -10809,10 +10843,10 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>621</v>
@@ -10820,10 +10854,10 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>91</v>
@@ -10835,10 +10869,10 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>621</v>
@@ -10846,10 +10880,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -10861,7 +10895,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
@@ -10875,7 +10909,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -10887,7 +10921,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
@@ -10911,7 +10945,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>42</v>
@@ -10925,7 +10959,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -10937,7 +10971,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -10947,7 +10981,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -10959,7 +10993,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -10969,7 +11003,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
@@ -10981,7 +11015,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -11003,7 +11037,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -11013,7 +11047,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -11025,7 +11059,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -11035,7 +11069,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>14</v>
@@ -11047,7 +11081,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
@@ -11057,7 +11091,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>14</v>
@@ -11069,7 +11103,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -11079,7 +11113,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>14</v>
@@ -11091,10 +11125,10 @@
         <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>621</v>
@@ -11102,7 +11136,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>57</v>
@@ -11117,7 +11151,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -11139,7 +11173,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -11161,7 +11195,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -11183,7 +11217,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
@@ -11203,10 +11237,10 @@
         <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>621</v>
@@ -11214,7 +11248,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>74</v>
@@ -11229,7 +11263,7 @@
         <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
@@ -11251,7 +11285,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>87</v>
@@ -11275,10 +11309,10 @@
         <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>621</v>
@@ -11286,7 +11320,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
@@ -11299,7 +11333,7 @@
         <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>588</v>
@@ -11323,7 +11357,7 @@
         <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>97</v>
@@ -11337,7 +11371,7 @@
         <v>97</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -11349,7 +11383,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
@@ -11373,7 +11407,7 @@
         <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
@@ -11383,7 +11417,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -11395,7 +11429,7 @@
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>252</v>
@@ -11421,7 +11455,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="739">
   <si>
     <t>Independent App</t>
   </si>
@@ -84,6 +84,12 @@
     <t>Conny Friborg</t>
   </si>
   <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:03:03 修改了 Target Due Date: 空值 =&gt; 2023-09-14</t>
+  </si>
+  <si>
     <t>DIDRIK</t>
   </si>
   <si>
@@ -96,6 +102,12 @@
     <t>Elaheh Yazdi</t>
   </si>
   <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:03:21 修改了 Target Due Date: 空值 =&gt; 2023-09-30</t>
+  </si>
+  <si>
     <t>SWAT</t>
   </si>
   <si>
@@ -105,6 +117,9 @@
     <t>Peter Schönwell</t>
   </si>
   <si>
+    <t>2023-09-20 17:04:47 修改了 Target Due Date: 空值 =&gt; 2023-09-30</t>
+  </si>
+  <si>
     <t>PII</t>
   </si>
   <si>
@@ -114,12 +129,24 @@
     <t>Ahmer Shaikh</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:03:51 修改了 Target Due Date: 空值 =&gt; 2023-10-19</t>
+  </si>
+  <si>
     <t>Oracle Financials (EBS)</t>
   </si>
   <si>
     <t>Fredrik Nyberg</t>
   </si>
   <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:04:37 修改了 Target Due Date: 空值 =&gt; 2023-09-21</t>
+  </si>
+  <si>
     <t>INCA</t>
   </si>
   <si>
@@ -135,6 +162,9 @@
     <t>Yasmine Mohamed</t>
   </si>
   <si>
+    <t>2023-09-20 17:04:55 修改了 Target Due Date: 空值 =&gt; 2023-09-30</t>
+  </si>
+  <si>
     <t>eQ2</t>
   </si>
   <si>
@@ -144,6 +174,15 @@
     <t>elin.kinnander@scania.com</t>
   </si>
   <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-20 17:04:55 修改了 Target Due Date: 空值 =&gt; 2023-09-30
+2023-09-20 17:05:03 修改了 Target Due Date: 2023-09-30 =&gt; 2023-09-22
+2023-09-20 17:05:07 修改了 Target Due Date: 2023-09-22 =&gt; 2023-09-30
+2023-09-20 17:05:49 修改了 Target Due Date: 2023-09-30 =&gt; 2023-09-22</t>
+  </si>
+  <si>
     <t>EBBA Parent</t>
   </si>
   <si>
@@ -303,6 +342,12 @@
     <t>Katarina Stensson</t>
   </si>
   <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-20 16:28:50 修改了 Target Due Date: 空值 =&gt; 2023-09-06</t>
+  </si>
+  <si>
     <t>Industrial ERP Backbone (IEB)</t>
   </si>
   <si>
@@ -1891,7 +1936,8 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09-06 13:29:02 修改了 Target Due Date: 7/21/24 =&gt; 2024-07-20
-2023-09-06 13:34:11 修改了 Target Due Date: 2024-07-20 =&gt; 2024-07-19</t>
+2023-09-06 13:34:11 修改了 Target Due Date: 2024-07-20 =&gt; 2024-07-19
+2023-09-20 16:23:24 修改了 Status: 空值 =&gt; active</t>
   </si>
   <si>
     <t>Digital Dealer Support</t>
@@ -1900,6 +1946,12 @@
     <t>Ericka Guimarães Saulo</t>
   </si>
   <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2023-09-20 16:25:22 修改了 Target Due Date: 12/21/24 =&gt; 2024-12-20</t>
+  </si>
+  <si>
     <t>Didrik CMC</t>
   </si>
   <si>
@@ -1912,70 +1964,169 @@
     <t>Didrik CMS</t>
   </si>
   <si>
+    <t>2023-09-20 17:03:08 修改了 Target Due Date: 空值 =&gt; 2023-09-22</t>
+  </si>
+  <si>
     <t>DIDRIK MC</t>
   </si>
   <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:03:11 修改了 Target Due Date: 空值 =&gt; 2023-09-29</t>
+  </si>
+  <si>
     <t>DIDRIK TCT</t>
   </si>
   <si>
     <t>Jacob Rydgård</t>
   </si>
   <si>
+    <t>2023-09-20 17:03:16 修改了 Target Due Date: 空值 =&gt; 2023-09-21</t>
+  </si>
+  <si>
     <t>CANalyzer</t>
   </si>
   <si>
+    <t>2023-09-20 17:03:25 修改了 Target Due Date: 空值 =&gt; 2023-09-14</t>
+  </si>
+  <si>
     <t>CANdb++</t>
   </si>
   <si>
+    <t>2023-09-20 17:03:29 修改了 Target Due Date: 空值 =&gt; 2023-09-29</t>
+  </si>
+  <si>
     <t>CANdelaStudio</t>
   </si>
   <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:03:34 修改了 Target Due Date: 空值 =&gt; 2023-10-12</t>
+  </si>
+  <si>
     <t>CANoe</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:03:40 修改了 Target Due Date: 空值 =&gt; 2023-10-13</t>
+  </si>
+  <si>
     <t>PC Lint</t>
   </si>
   <si>
+    <t>2023-09-20 17:03:45 修改了 Target Due Date: 空值 =&gt; 2023-09-14</t>
+  </si>
+  <si>
     <t>eBS_AP</t>
   </si>
   <si>
+    <t>2023-09-20 17:03:56 修改了 Target Due Date: 空值 =&gt; 2023-10-13</t>
+  </si>
+  <si>
     <t>eBS_AR</t>
   </si>
   <si>
+    <t>2023-09-20 17:04:01 修改了 Target Due Date: 空值 =&gt; 2023-10-13</t>
+  </si>
+  <si>
     <t>eBS_FA</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:04:05 修改了 Target Due Date: 空值 =&gt; 2023-11-10</t>
+  </si>
+  <si>
     <t>eBS_GL</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:04:10 修改了 Target Due Date: 空值 =&gt; 2023-11-09</t>
+  </si>
+  <si>
     <t>Noetix</t>
   </si>
   <si>
+    <t>2023-09-20 17:04:42 修改了 Target Due Date: 空值 =&gt; 2023-09-06</t>
+  </si>
+  <si>
     <t>ETAS MDA</t>
   </si>
   <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:04:50 修改了 Target Due Date: 空值 =&gt; 2023-09-15</t>
+  </si>
+  <si>
     <t>eCarrier</t>
   </si>
   <si>
+    <t>2023-09-20 17:05:11 修改了 Target Due Date: 空值 =&gt; 2023-09-29</t>
+  </si>
+  <si>
     <t>eInternal</t>
   </si>
   <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:05:16 修改了 Target Due Date: 空值 =&gt; 2023-09-19</t>
+  </si>
+  <si>
     <t>eInvoice</t>
   </si>
   <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:05:20 修改了 Target Due Date: 空值 =&gt; 2023-09-16</t>
+  </si>
+  <si>
     <t>ePPAP</t>
   </si>
   <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:05:24 修改了 Target Due Date: 空值 =&gt; 2023-09-28</t>
+  </si>
+  <si>
     <t>eQuality</t>
   </si>
   <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:05:28 修改了 Target Due Date: 空值 =&gt; 2023-11-03</t>
+  </si>
+  <si>
     <t>eQW</t>
   </si>
   <si>
+    <t>2023-09-20 17:06:13 修改了 Target Due Date: 空值 =&gt; 2023-09-30</t>
+  </si>
+  <si>
     <t>eSCR</t>
   </si>
   <si>
+    <t>2023-09-20 17:06:17 修改了 Target Due Date: 空值 =&gt; 2023-09-28</t>
+  </si>
+  <si>
     <t>eWarranty</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-20 17:06:21 修改了 Target Due Date: 空值 =&gt; 2023-09-25</t>
   </si>
   <si>
     <t>EBBA CMB</t>
@@ -2549,7 +2700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2569,15 +2720,21 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2601,9 +2758,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2612,24 +2769,30 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2638,24 +2801,30 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2664,24 +2833,30 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2690,21 +2865,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2713,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -2725,9 +2906,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2736,24 +2917,30 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2762,24 +2949,30 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2788,10 +2981,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -2805,7 +2998,7 @@
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -2825,7 +3018,7 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -2834,10 +3027,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2851,7 +3044,7 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -2860,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -2874,7 +3067,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2883,10 +3076,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -2897,7 +3090,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -2906,10 +3099,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -2923,7 +3116,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2932,10 +3125,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -2949,7 +3142,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2958,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -2972,7 +3165,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -2981,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -2995,7 +3188,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3004,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3018,22 +3211,22 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -3044,7 +3237,7 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3053,10 +3246,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3070,7 +3263,7 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -3079,10 +3272,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3096,7 +3289,7 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -3105,10 +3298,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3122,7 +3315,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3131,13 +3324,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3148,7 +3341,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -3157,10 +3350,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3174,7 +3367,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3183,10 +3376,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3200,7 +3393,7 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -3209,10 +3402,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3226,7 +3419,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -3235,10 +3428,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3252,7 +3445,7 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3261,10 +3454,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3273,9 +3466,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -3284,21 +3477,27 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -3307,10 +3506,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3324,7 +3523,7 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -3333,10 +3532,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3350,7 +3549,7 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -3359,10 +3558,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -3376,7 +3575,7 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3388,7 +3587,7 @@
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3402,7 +3601,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3411,10 +3610,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -3428,7 +3627,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3437,10 +3636,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -3454,7 +3653,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -3463,10 +3662,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -3480,7 +3679,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -3492,7 +3691,7 @@
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -3546,7 +3745,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3555,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -3569,7 +3768,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3578,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -3592,7 +3791,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3601,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -3615,7 +3814,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3624,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -3638,7 +3837,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3658,7 +3857,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3667,7 +3866,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3678,7 +3877,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3687,10 +3886,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3704,7 +3903,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3724,7 +3923,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3733,10 +3932,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3750,7 +3949,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3759,10 +3958,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3776,7 +3975,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3785,10 +3984,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -3802,7 +4001,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3811,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3825,7 +4024,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3834,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3848,7 +4047,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3857,10 +4056,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3874,7 +4073,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3883,10 +4082,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -3900,7 +4099,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3909,10 +4108,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3926,7 +4125,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -3935,13 +4134,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -3952,7 +4151,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -3961,10 +4160,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3978,7 +4177,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3987,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -4001,7 +4200,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -4010,10 +4209,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4027,7 +4226,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4036,10 +4235,10 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -4053,7 +4252,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4062,10 +4261,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -4079,7 +4278,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4088,10 +4287,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -4105,7 +4304,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4114,10 +4313,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -4131,7 +4330,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -4140,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -4154,7 +4353,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -4163,10 +4362,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4180,7 +4379,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -4189,10 +4388,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4206,7 +4405,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -4215,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -4229,7 +4428,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -4255,7 +4454,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4264,10 +4463,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4281,7 +4480,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4290,10 +4489,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -4307,7 +4506,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4316,10 +4515,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -4333,7 +4532,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -4342,10 +4541,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4359,7 +4558,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -4368,10 +4567,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -4385,7 +4584,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -4394,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -4408,7 +4607,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -4417,10 +4616,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -4434,7 +4633,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -4443,10 +4642,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -4460,7 +4659,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -4469,10 +4668,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4486,7 +4685,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -4495,10 +4694,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -4512,7 +4711,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -4521,10 +4720,10 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4538,7 +4737,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -4547,10 +4746,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4564,7 +4763,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -4573,10 +4772,10 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4590,7 +4789,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -4599,10 +4798,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -4616,7 +4815,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -4625,10 +4824,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4642,7 +4841,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -4651,10 +4850,10 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4668,7 +4867,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4677,10 +4876,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -4691,7 +4890,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4700,10 +4899,10 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4717,7 +4916,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -4743,7 +4942,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -4752,7 +4951,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -4766,7 +4965,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -4775,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -4789,7 +4988,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -4798,10 +4997,10 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -4815,7 +5014,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -4835,7 +5034,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -4844,10 +5043,10 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -4861,7 +5060,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -4881,7 +5080,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -4890,10 +5089,10 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -4907,7 +5106,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -4916,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -4927,7 +5126,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -4947,7 +5146,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -4956,10 +5155,10 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -4973,7 +5172,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -4982,10 +5181,10 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -4999,7 +5198,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -5008,13 +5207,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -5025,7 +5224,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -5034,10 +5233,10 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -5051,7 +5250,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -5060,10 +5259,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -5077,7 +5276,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -5086,13 +5285,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5103,7 +5302,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -5112,10 +5311,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -5129,7 +5328,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -5138,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5152,7 +5351,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -5178,7 +5377,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -5187,10 +5386,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5204,7 +5403,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -5213,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -5227,7 +5426,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -5236,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5250,7 +5449,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -5259,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5273,7 +5472,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -5282,10 +5481,10 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E72" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -5299,7 +5498,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -5308,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5319,7 +5518,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -5328,7 +5527,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -5342,7 +5541,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -5351,10 +5550,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -5368,7 +5567,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -5377,10 +5576,10 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -5394,7 +5593,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -5403,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -5417,7 +5616,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -5426,10 +5625,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -5443,7 +5642,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -5452,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5466,7 +5665,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -5475,10 +5674,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -5492,7 +5691,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -5501,7 +5700,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5515,7 +5714,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -5524,10 +5723,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5541,7 +5740,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -5550,10 +5749,10 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5567,7 +5766,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -5576,10 +5775,10 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5593,7 +5792,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -5602,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5616,7 +5815,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -5625,13 +5824,13 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5642,7 +5841,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -5651,10 +5850,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5668,7 +5867,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -5677,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5691,7 +5890,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -5700,10 +5899,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -5717,7 +5916,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -5726,10 +5925,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E90" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -5743,7 +5942,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -5752,10 +5951,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E91" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -5769,7 +5968,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -5778,10 +5977,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E92" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -5795,7 +5994,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -5804,10 +6003,10 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -5818,7 +6017,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -5827,10 +6026,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -5844,7 +6043,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -5853,10 +6052,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E95" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -5870,7 +6069,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -5879,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -5893,7 +6092,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -5902,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -5913,7 +6112,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -5922,10 +6121,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -5939,7 +6138,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -5948,10 +6147,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -5965,7 +6164,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -5974,10 +6173,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E100" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -5991,7 +6190,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -6000,10 +6199,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E101" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -6017,7 +6216,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6026,10 +6225,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -6040,7 +6239,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -6049,10 +6248,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E103" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6066,7 +6265,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -6075,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -6089,7 +6288,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -6098,10 +6297,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E105" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -6115,7 +6314,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -6124,10 +6323,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E106" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -6141,7 +6340,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -6150,10 +6349,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -6167,7 +6366,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -6176,10 +6375,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E108" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -6193,7 +6392,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -6202,10 +6401,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E109" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6219,7 +6418,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -6228,10 +6427,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6245,7 +6444,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -6254,10 +6453,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E111" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6271,7 +6470,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -6280,10 +6479,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -6294,7 +6493,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -6320,7 +6519,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -6329,10 +6528,10 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6346,7 +6545,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -6355,13 +6554,13 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -6372,7 +6571,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -6392,7 +6591,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -6401,10 +6600,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F117" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -6415,7 +6614,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -6424,7 +6623,7 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -6435,7 +6634,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -6444,10 +6643,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E119" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -6461,7 +6660,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -6470,7 +6669,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -6484,7 +6683,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -6493,10 +6692,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E121" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -6510,7 +6709,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -6519,10 +6718,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E122" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -6536,7 +6735,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -6545,13 +6744,13 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E123" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -6562,7 +6761,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -6571,10 +6770,10 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E124" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -6588,7 +6787,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -6597,10 +6796,10 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E125" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6614,7 +6813,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -6623,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6637,7 +6836,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -6646,7 +6845,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6660,7 +6859,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -6669,10 +6868,10 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E128" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -6686,7 +6885,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -6706,7 +6905,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -6715,10 +6914,10 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E130" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -6732,7 +6931,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -6741,10 +6940,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E131" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6758,7 +6957,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -6767,10 +6966,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E132" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -6784,7 +6983,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -6793,10 +6992,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E133" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -6810,7 +7009,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -6830,7 +7029,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -6839,10 +7038,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -6856,7 +7055,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -6865,10 +7064,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E136" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -6882,7 +7081,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -6891,10 +7090,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E137" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -6908,7 +7107,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -6917,10 +7116,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E138" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -6934,7 +7133,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -6954,7 +7153,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -6963,7 +7162,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6977,7 +7176,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -6986,7 +7185,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -7000,7 +7199,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -7009,10 +7208,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -7026,7 +7225,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -7035,7 +7234,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -7049,7 +7248,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -7069,7 +7268,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -7078,10 +7277,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E145" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7095,7 +7294,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -7115,7 +7314,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -7124,7 +7323,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7138,7 +7337,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -7147,10 +7346,10 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E148" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7164,7 +7363,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -7173,10 +7372,10 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7190,7 +7389,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -7199,10 +7398,10 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E150" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7216,7 +7415,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -7225,10 +7424,10 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E151" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -7242,7 +7441,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -7251,10 +7450,10 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E152" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -7268,7 +7467,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -7277,10 +7476,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="E153" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7294,7 +7493,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -7303,10 +7502,10 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="E154" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7320,7 +7519,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -7329,10 +7528,10 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="E155" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -7346,7 +7545,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -7355,7 +7554,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -7369,7 +7568,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -7378,10 +7577,10 @@
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F157" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -7392,7 +7591,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -7401,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -7415,7 +7614,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -7424,10 +7623,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E159" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -7441,7 +7640,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -7461,7 +7660,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -7470,10 +7669,10 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="E161" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -7487,7 +7686,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -7496,10 +7695,10 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -7513,7 +7712,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -7522,13 +7721,13 @@
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E163" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F163" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -7539,7 +7738,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -7548,7 +7747,7 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -7562,7 +7761,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -7571,10 +7770,10 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E165" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7588,7 +7787,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -7608,7 +7807,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -7634,7 +7833,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -7654,7 +7853,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -7663,10 +7862,10 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E169" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7680,7 +7879,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -7689,10 +7888,10 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="E170" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7706,7 +7905,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -7715,10 +7914,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E171" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -7732,7 +7931,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -7741,10 +7940,10 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E172" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -7758,7 +7957,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -7767,10 +7966,10 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="E173" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7784,7 +7983,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -7793,10 +7992,10 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="E174" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -7810,7 +8009,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -7819,10 +8018,10 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="E175" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -7836,7 +8035,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -7845,13 +8044,13 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E176" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F176" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
@@ -7862,7 +8061,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -7871,10 +8070,10 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E177" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -7888,7 +8087,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -7897,7 +8096,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -7911,7 +8110,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -7920,7 +8119,7 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -7934,7 +8133,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -7943,7 +8142,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -7957,7 +8156,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -7977,7 +8176,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -7986,10 +8185,10 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E182" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -8003,7 +8202,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -8012,10 +8211,10 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E183" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -8029,7 +8228,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -8038,10 +8237,10 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E184" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -8055,7 +8254,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -8064,10 +8263,10 @@
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E185" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -8081,7 +8280,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -8090,10 +8289,10 @@
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E186" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -8107,7 +8306,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -8133,7 +8332,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -8142,10 +8341,10 @@
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E188" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -8159,7 +8358,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -8168,10 +8367,10 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E189" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -8185,7 +8384,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -8194,10 +8393,10 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E190" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -8211,7 +8410,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -8220,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -8234,7 +8433,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -8243,10 +8442,10 @@
         <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F192" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
@@ -8257,7 +8456,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -8266,10 +8465,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E193" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -8283,7 +8482,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -8292,10 +8491,10 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E194" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -8309,7 +8508,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -8318,13 +8517,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E195" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F195" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
@@ -8335,7 +8534,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -8344,10 +8543,10 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="E196" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -8361,7 +8560,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -8370,10 +8569,10 @@
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E197" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
@@ -8387,7 +8586,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -8396,10 +8595,10 @@
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="E198" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -8413,7 +8612,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -8422,10 +8621,10 @@
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E199" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8439,7 +8638,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -8448,10 +8647,10 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F200" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -8462,7 +8661,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -8471,10 +8670,10 @@
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E201" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8488,7 +8687,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -8497,10 +8696,10 @@
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="E202" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8514,7 +8713,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -8523,13 +8722,13 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E203" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F203" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
@@ -8540,7 +8739,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -8549,7 +8748,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -8563,7 +8762,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -8572,10 +8771,10 @@
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E205" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -8589,7 +8788,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -8598,10 +8797,10 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E206" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -8615,7 +8814,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -8624,7 +8823,7 @@
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -8638,7 +8837,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -8647,7 +8846,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -8661,7 +8860,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -8670,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -8684,7 +8883,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -8693,10 +8892,10 @@
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="E210" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -8710,7 +8909,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -8719,10 +8918,10 @@
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="E211" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -8736,7 +8935,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -8745,10 +8944,10 @@
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E212" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -8762,7 +8961,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -8771,10 +8970,10 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F213" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
@@ -8785,7 +8984,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -8811,7 +9010,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -8831,7 +9030,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -8840,13 +9039,13 @@
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="E216" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F216" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
@@ -8857,7 +9056,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -8866,7 +9065,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -8880,7 +9079,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -8900,7 +9099,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -8909,7 +9108,7 @@
         <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
@@ -8923,7 +9122,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -8932,10 +9131,10 @@
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E220" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -8949,7 +9148,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -8958,10 +9157,10 @@
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="E221" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
@@ -8975,7 +9174,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -8984,10 +9183,10 @@
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="E222" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -9001,7 +9200,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -9010,13 +9209,13 @@
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E223" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F223" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G223" t="s">
         <v>11</v>
@@ -9027,7 +9226,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -9036,10 +9235,10 @@
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="E224" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F224" t="s">
         <v>14</v>
@@ -9053,7 +9252,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -9062,10 +9261,10 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E225" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
@@ -9079,7 +9278,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -9088,10 +9287,10 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E226" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F226" t="s">
         <v>14</v>
@@ -9105,7 +9304,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -9114,10 +9313,10 @@
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E227" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F227" t="s">
         <v>14</v>
@@ -9131,7 +9330,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -9140,10 +9339,10 @@
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E228" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F228" t="s">
         <v>11</v>
@@ -9157,7 +9356,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -9166,10 +9365,10 @@
         <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="E229" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9183,7 +9382,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -9192,10 +9391,10 @@
         <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E230" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9209,7 +9408,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -9218,10 +9417,10 @@
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E231" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9235,7 +9434,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -9244,7 +9443,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -9258,7 +9457,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -9278,7 +9477,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -9287,10 +9486,10 @@
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="E234" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9304,7 +9503,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -9313,13 +9512,13 @@
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E235" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F235" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
@@ -9330,7 +9529,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -9339,13 +9538,13 @@
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E236" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F236" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
@@ -9356,7 +9555,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -9365,10 +9564,10 @@
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E237" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -9382,7 +9581,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -9391,7 +9590,7 @@
         <v>12</v>
       </c>
       <c r="E238" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F238" t="s">
         <v>14</v>
@@ -9405,7 +9604,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -9414,10 +9613,10 @@
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E239" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -9431,7 +9630,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -9440,13 +9639,13 @@
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E240" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F240" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
@@ -9457,7 +9656,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -9466,10 +9665,10 @@
         <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="F241" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
@@ -9480,7 +9679,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -9489,10 +9688,10 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="F242" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
@@ -9503,7 +9702,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -9512,7 +9711,7 @@
         <v>12</v>
       </c>
       <c r="E243" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -9526,7 +9725,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -9535,10 +9734,10 @@
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E244" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F244" t="s">
         <v>14</v>
@@ -9552,7 +9751,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -9561,7 +9760,7 @@
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -9575,7 +9774,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -9595,7 +9794,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -9604,10 +9803,10 @@
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="E247" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -9621,7 +9820,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -9630,10 +9829,10 @@
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="E248" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F248" t="s">
         <v>14</v>
@@ -9647,7 +9846,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -9656,10 +9855,10 @@
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="E249" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -9673,7 +9872,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -9682,7 +9881,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F250" t="s">
         <v>14</v>
@@ -9696,7 +9895,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -9705,10 +9904,10 @@
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="E251" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F251" t="s">
         <v>14</v>
@@ -9722,7 +9921,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -9731,10 +9930,10 @@
         <v>12</v>
       </c>
       <c r="E252" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F252" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
@@ -9745,7 +9944,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -9754,7 +9953,7 @@
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="F253" t="s">
         <v>14</v>
@@ -9768,7 +9967,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -9777,10 +9976,10 @@
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="E254" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -9794,7 +9993,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -9803,10 +10002,10 @@
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F255" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
@@ -9817,7 +10016,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -9826,10 +10025,10 @@
         <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E256" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F256" t="s">
         <v>14</v>
@@ -9843,7 +10042,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -9852,10 +10051,10 @@
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E257" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F257" t="s">
         <v>14</v>
@@ -9869,7 +10068,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -9878,7 +10077,7 @@
         <v>12</v>
       </c>
       <c r="E258" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="F258" t="s">
         <v>14</v>
@@ -9892,7 +10091,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -9901,13 +10100,13 @@
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="E259" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F259" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G259" t="s">
         <v>11</v>
@@ -9918,7 +10117,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -9927,13 +10126,13 @@
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="E260" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F260" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
@@ -9944,7 +10143,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -9953,10 +10152,10 @@
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E261" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -9970,7 +10169,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -9979,10 +10178,10 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="E262" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="F262" t="s">
         <v>14</v>
@@ -9996,7 +10195,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -10005,7 +10204,7 @@
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="F263" t="s">
         <v>14</v>
@@ -10019,7 +10218,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -10028,10 +10227,10 @@
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="E264" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F264" t="s">
         <v>14</v>
@@ -10045,7 +10244,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -10054,10 +10253,10 @@
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="E265" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F265" t="s">
         <v>14</v>
@@ -10071,7 +10270,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -10080,7 +10279,7 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="F266" t="s">
         <v>14</v>
@@ -10118,22 +10317,22 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -10159,70 +10358,78 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45647</v>
+        <v>635</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -10232,30 +10439,32 @@
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -10264,24 +10473,32 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -10291,285 +10508,381 @@
         <v>14</v>
       </c>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B10" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>678</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -10577,313 +10890,383 @@
         <v>14</v>
       </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>686</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="2"/>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -10892,16 +11275,16 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -10909,7 +11292,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -10918,16 +11301,16 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -10942,24 +11325,24 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>661</v>
+        <v>710</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -10968,20 +11351,20 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -10990,20 +11373,20 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
@@ -11012,20 +11395,20 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -11034,20 +11417,20 @@
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -11056,20 +11439,20 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>14</v>
@@ -11078,20 +11461,20 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>14</v>
@@ -11100,20 +11483,20 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>14</v>
@@ -11122,24 +11505,24 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>14</v>
@@ -11148,20 +11531,20 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>14</v>
@@ -11170,20 +11553,20 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
@@ -11192,20 +11575,20 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>14</v>
@@ -11214,66 +11597,66 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>678</v>
+        <v>727</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>14</v>
@@ -11282,21 +11665,21 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>679</v>
+        <v>728</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -11306,21 +11689,21 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
@@ -11330,21 +11713,21 @@
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -11354,24 +11737,24 @@
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -11380,16 +11763,16 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -11397,27 +11780,27 @@
         <v>19</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>687</v>
+        <v>736</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -11426,24 +11809,24 @@
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>688</v>
+        <v>737</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -11452,16 +11835,16 @@
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>689</v>
+        <v>738</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -11469,7 +11852,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="742">
   <si>
     <t>Independent App</t>
   </si>
@@ -192,6 +192,12 @@
     <t>Vaishali Khandagale</t>
   </si>
   <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-22 09:29:58 修改了 Target Due Date: 空值 =&gt; 2023-09-01</t>
+  </si>
+  <si>
     <t>INVENTOR</t>
   </si>
   <si>
@@ -2136,6 +2142,9 @@
   </si>
   <si>
     <t>Carl-Henrik Hilborn</t>
+  </si>
+  <si>
+    <t>2023-09-22 09:30:02 修改了 Target Due Date: 空值 =&gt; 2023-09-16</t>
   </si>
   <si>
     <t>EBBA CMBPP</t>
@@ -2970,7 +2979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2990,15 +2999,21 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3018,7 +3033,7 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3027,10 +3042,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3044,7 +3059,7 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3053,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3067,7 +3082,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3076,10 +3091,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3090,7 +3105,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3099,10 +3114,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3116,7 +3131,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -3125,10 +3140,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3142,7 +3157,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -3151,7 +3166,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3165,7 +3180,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3174,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3188,7 +3203,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3197,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3211,7 +3226,7 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3220,13 +3235,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -3237,7 +3252,7 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3246,10 +3261,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3263,7 +3278,7 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -3272,10 +3287,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3289,7 +3304,7 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -3298,10 +3313,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3315,7 +3330,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3324,13 +3339,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3341,7 +3356,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -3350,10 +3365,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3367,7 +3382,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3376,10 +3391,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3393,7 +3408,7 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -3402,10 +3417,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3419,7 +3434,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -3428,10 +3443,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3445,7 +3460,7 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3454,10 +3469,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3468,7 +3483,7 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -3477,13 +3492,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -3492,12 +3507,12 @@
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -3506,10 +3521,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3523,7 +3538,7 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -3532,10 +3547,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3549,7 +3564,7 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -3558,10 +3573,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -3575,7 +3590,7 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3587,7 +3602,7 @@
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3601,7 +3616,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3610,10 +3625,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -3627,7 +3642,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3636,10 +3651,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -3653,7 +3668,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -3662,10 +3677,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -3679,7 +3694,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -3691,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -3745,7 +3760,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3754,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -3768,7 +3783,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3777,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -3791,7 +3806,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3800,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -3814,7 +3829,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3823,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -3837,7 +3852,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3857,7 +3872,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3866,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3877,7 +3892,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3886,10 +3901,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3903,7 +3918,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3923,7 +3938,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3932,10 +3947,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3949,7 +3964,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3958,10 +3973,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3975,7 +3990,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3984,10 +3999,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -4001,7 +4016,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -4010,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -4024,7 +4039,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4033,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4047,7 +4062,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -4056,10 +4071,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -4073,7 +4088,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -4082,10 +4097,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -4099,7 +4114,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -4108,10 +4123,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -4125,7 +4140,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -4134,13 +4149,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -4151,7 +4166,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -4160,10 +4175,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -4177,7 +4192,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -4186,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -4200,7 +4215,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -4209,10 +4224,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4226,7 +4241,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4235,10 +4250,10 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -4252,7 +4267,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4261,10 +4276,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -4278,7 +4293,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4287,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -4304,7 +4319,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4313,10 +4328,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -4330,7 +4345,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -4339,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -4353,7 +4368,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -4362,10 +4377,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4379,7 +4394,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -4388,10 +4403,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4405,7 +4420,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -4414,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -4428,7 +4443,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -4454,7 +4469,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4463,10 +4478,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4480,7 +4495,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4489,10 +4504,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -4506,7 +4521,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4515,10 +4530,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -4532,7 +4547,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -4541,10 +4556,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4558,7 +4573,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -4567,10 +4582,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -4584,7 +4599,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -4593,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -4607,7 +4622,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -4616,10 +4631,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -4633,7 +4648,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -4642,10 +4657,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -4659,7 +4674,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -4668,10 +4683,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4685,7 +4700,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -4694,10 +4709,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -4711,7 +4726,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -4720,10 +4735,10 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4737,7 +4752,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -4746,10 +4761,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4763,7 +4778,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -4772,10 +4787,10 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4789,7 +4804,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -4798,10 +4813,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -4815,7 +4830,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -4824,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4841,7 +4856,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -4850,10 +4865,10 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4867,7 +4882,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4876,10 +4891,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -4890,7 +4905,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4899,10 +4914,10 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4916,7 +4931,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -4942,7 +4957,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -4951,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -4965,7 +4980,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -4974,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -4988,7 +5003,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -4997,10 +5012,10 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -5014,7 +5029,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -5034,7 +5049,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -5043,10 +5058,10 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -5060,7 +5075,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -5080,7 +5095,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -5089,10 +5104,10 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -5106,7 +5121,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -5115,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -5126,7 +5141,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -5146,7 +5161,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -5155,10 +5170,10 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -5172,7 +5187,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -5181,10 +5196,10 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -5198,7 +5213,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -5207,13 +5222,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -5224,7 +5239,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -5233,10 +5248,10 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -5250,7 +5265,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -5259,10 +5274,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -5276,7 +5291,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -5285,13 +5300,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5302,7 +5317,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -5311,10 +5326,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -5328,7 +5343,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -5337,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5351,7 +5366,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -5377,7 +5392,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -5386,10 +5401,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5403,7 +5418,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -5426,7 +5441,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -5435,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5449,7 +5464,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -5458,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5472,7 +5487,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -5481,10 +5496,10 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -5498,7 +5513,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -5507,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5518,7 +5533,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -5527,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -5541,7 +5556,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -5550,10 +5565,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -5567,7 +5582,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -5576,10 +5591,10 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -5593,7 +5608,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -5602,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -5616,7 +5631,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -5625,10 +5640,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E78" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -5642,7 +5657,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -5651,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5665,7 +5680,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -5674,10 +5689,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -5691,7 +5706,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -5700,7 +5715,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5714,7 +5729,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -5723,10 +5738,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5740,19 +5755,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
         <v>302</v>
       </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>300</v>
-      </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5766,7 +5781,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -5775,10 +5790,10 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5792,7 +5807,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -5801,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5815,7 +5830,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -5824,13 +5839,13 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E86" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5841,7 +5856,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -5850,10 +5865,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5867,7 +5882,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -5876,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5890,7 +5905,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -5899,10 +5914,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -5916,7 +5931,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -5925,10 +5940,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -5942,7 +5957,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -5951,10 +5966,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -5968,7 +5983,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -5977,10 +5992,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -5994,7 +6009,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -6003,10 +6018,10 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -6017,7 +6032,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -6026,10 +6041,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -6043,7 +6058,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -6052,10 +6067,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E95" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -6069,7 +6084,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -6078,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -6092,7 +6107,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -6101,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -6112,7 +6127,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -6121,10 +6136,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E98" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -6138,7 +6153,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -6147,10 +6162,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -6164,7 +6179,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -6173,10 +6188,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E100" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -6190,7 +6205,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -6199,10 +6214,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E101" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -6216,7 +6231,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6225,10 +6240,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -6239,7 +6254,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -6248,10 +6263,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6265,7 +6280,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -6274,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -6288,7 +6303,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -6297,10 +6312,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -6314,7 +6329,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -6323,10 +6338,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -6340,7 +6355,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -6349,10 +6364,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -6366,7 +6381,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -6375,10 +6390,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -6392,7 +6407,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -6401,10 +6416,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E109" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6418,7 +6433,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -6427,10 +6442,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6444,7 +6459,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -6453,10 +6468,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6470,7 +6485,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -6479,10 +6494,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F112" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -6493,7 +6508,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -6519,7 +6534,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -6528,10 +6543,10 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E114" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6545,7 +6560,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -6554,13 +6569,13 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -6571,7 +6586,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -6591,7 +6606,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -6600,10 +6615,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -6614,7 +6629,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -6623,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -6634,7 +6649,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -6643,10 +6658,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E119" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -6660,7 +6675,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -6683,7 +6698,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -6692,10 +6707,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -6709,7 +6724,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -6718,10 +6733,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -6735,7 +6750,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -6744,13 +6759,13 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -6761,7 +6776,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -6770,10 +6785,10 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E124" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -6787,7 +6802,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -6796,10 +6811,10 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6813,7 +6828,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -6822,7 +6837,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6836,7 +6851,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -6845,7 +6860,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6859,7 +6874,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -6868,10 +6883,10 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E128" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -6885,7 +6900,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -6905,7 +6920,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -6914,10 +6929,10 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -6931,7 +6946,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -6940,10 +6955,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E131" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6957,7 +6972,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -6966,10 +6981,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E132" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -6983,7 +6998,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -6992,10 +7007,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -7009,7 +7024,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -7029,7 +7044,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -7038,10 +7053,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E135" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -7055,7 +7070,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -7064,10 +7079,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E136" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -7081,7 +7096,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -7090,10 +7105,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E137" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -7107,7 +7122,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -7116,10 +7131,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E138" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -7133,7 +7148,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -7153,7 +7168,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -7162,7 +7177,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -7176,7 +7191,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -7185,7 +7200,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -7199,7 +7214,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -7208,10 +7223,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E142" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -7225,7 +7240,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -7234,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -7248,7 +7263,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -7268,7 +7283,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -7277,10 +7292,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E145" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7294,7 +7309,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -7314,7 +7329,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -7323,7 +7338,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7337,7 +7352,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -7346,10 +7361,10 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E148" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7363,7 +7378,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -7372,10 +7387,10 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7389,7 +7404,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -7398,10 +7413,10 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E150" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7415,7 +7430,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -7424,10 +7439,10 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E151" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -7441,7 +7456,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -7450,10 +7465,10 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E152" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -7467,7 +7482,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -7476,10 +7491,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E153" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7493,7 +7508,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -7502,10 +7517,10 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E154" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7519,7 +7534,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -7528,10 +7543,10 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E155" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -7545,7 +7560,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -7554,7 +7569,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -7568,7 +7583,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -7577,10 +7592,10 @@
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F157" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -7591,7 +7606,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -7600,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -7614,7 +7629,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -7623,10 +7638,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E159" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -7640,7 +7655,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -7660,7 +7675,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -7669,10 +7684,10 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E161" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -7686,7 +7701,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -7695,10 +7710,10 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -7712,7 +7727,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -7721,13 +7736,13 @@
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E163" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F163" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -7738,7 +7753,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -7747,7 +7762,7 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -7761,7 +7776,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -7770,10 +7785,10 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7787,7 +7802,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -7807,7 +7822,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -7833,7 +7848,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -7853,7 +7868,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -7862,10 +7877,10 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E169" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7879,7 +7894,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -7888,10 +7903,10 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E170" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7905,7 +7920,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -7914,10 +7929,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E171" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -7931,7 +7946,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -7940,10 +7955,10 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E172" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -7957,7 +7972,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -7966,10 +7981,10 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7983,7 +7998,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -7992,10 +8007,10 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E174" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -8009,7 +8024,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -8018,10 +8033,10 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E175" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -8035,7 +8050,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -8044,13 +8059,13 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E176" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F176" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
@@ -8061,7 +8076,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -8070,10 +8085,10 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E177" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -8087,7 +8102,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -8096,7 +8111,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -8110,7 +8125,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -8119,7 +8134,7 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -8133,7 +8148,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -8142,7 +8157,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -8156,7 +8171,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -8176,7 +8191,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -8185,10 +8200,10 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E182" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -8202,7 +8217,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -8211,10 +8226,10 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E183" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -8228,7 +8243,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -8237,10 +8252,10 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E184" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -8254,7 +8269,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -8263,10 +8278,10 @@
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E185" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -8280,7 +8295,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -8289,10 +8304,10 @@
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E186" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -8306,7 +8321,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -8332,7 +8347,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -8341,10 +8356,10 @@
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E188" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -8358,7 +8373,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -8367,10 +8382,10 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E189" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -8384,7 +8399,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -8393,10 +8408,10 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E190" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -8410,7 +8425,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -8419,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -8433,7 +8448,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -8442,10 +8457,10 @@
         <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F192" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
@@ -8456,7 +8471,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -8465,10 +8480,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E193" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -8482,7 +8497,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -8491,10 +8506,10 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E194" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -8508,7 +8523,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -8517,13 +8532,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E195" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F195" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
@@ -8534,7 +8549,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -8543,10 +8558,10 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E196" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -8560,7 +8575,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -8569,7 +8584,7 @@
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E197" t="s">
         <v>26</v>
@@ -8586,7 +8601,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -8595,10 +8610,10 @@
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E198" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -8612,7 +8627,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -8621,10 +8636,10 @@
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E199" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8638,7 +8653,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -8647,10 +8662,10 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F200" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -8661,7 +8676,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -8670,10 +8685,10 @@
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E201" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8687,7 +8702,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -8696,10 +8711,10 @@
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E202" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8713,7 +8728,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -8722,13 +8737,13 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E203" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F203" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
@@ -8739,7 +8754,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -8748,7 +8763,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -8762,7 +8777,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -8771,10 +8786,10 @@
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E205" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -8788,7 +8803,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -8797,10 +8812,10 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E206" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -8814,7 +8829,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -8823,7 +8838,7 @@
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -8837,7 +8852,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -8846,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -8860,7 +8875,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -8869,7 +8884,7 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -8883,7 +8898,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -8892,10 +8907,10 @@
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E210" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -8909,7 +8924,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -8918,10 +8933,10 @@
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E211" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -8935,7 +8950,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -8944,10 +8959,10 @@
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E212" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -8961,7 +8976,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -8970,10 +8985,10 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F213" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
@@ -8984,7 +8999,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -9010,7 +9025,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -9030,7 +9045,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -9039,13 +9054,13 @@
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E216" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F216" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
@@ -9056,7 +9071,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -9065,7 +9080,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -9079,7 +9094,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -9099,7 +9114,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -9108,7 +9123,7 @@
         <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
@@ -9122,7 +9137,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -9148,7 +9163,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -9157,10 +9172,10 @@
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E221" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
@@ -9174,7 +9189,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -9183,10 +9198,10 @@
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E222" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -9200,7 +9215,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -9209,13 +9224,13 @@
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E223" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F223" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G223" t="s">
         <v>11</v>
@@ -9226,7 +9241,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -9235,7 +9250,7 @@
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E224" t="s">
         <v>26</v>
@@ -9252,7 +9267,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -9261,10 +9276,10 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E225" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
@@ -9278,7 +9293,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -9287,10 +9302,10 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E226" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F226" t="s">
         <v>14</v>
@@ -9304,7 +9319,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -9313,10 +9328,10 @@
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E227" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F227" t="s">
         <v>14</v>
@@ -9330,7 +9345,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -9339,10 +9354,10 @@
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E228" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F228" t="s">
         <v>11</v>
@@ -9356,7 +9371,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -9365,10 +9380,10 @@
         <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E229" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9382,7 +9397,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -9391,10 +9406,10 @@
         <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9408,7 +9423,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -9417,10 +9432,10 @@
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E231" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9434,7 +9449,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -9443,7 +9458,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -9457,7 +9472,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -9477,7 +9492,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -9486,10 +9501,10 @@
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E234" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9503,7 +9518,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -9512,13 +9527,13 @@
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E235" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F235" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
@@ -9529,7 +9544,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -9538,13 +9553,13 @@
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E236" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F236" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
@@ -9555,7 +9570,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -9564,10 +9579,10 @@
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E237" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -9581,7 +9596,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -9604,7 +9619,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -9613,10 +9628,10 @@
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E239" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -9630,7 +9645,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -9639,13 +9654,13 @@
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E240" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F240" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
@@ -9656,7 +9671,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -9665,10 +9680,10 @@
         <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F241" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
@@ -9679,7 +9694,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -9688,10 +9703,10 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F242" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
@@ -9702,7 +9717,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -9711,7 +9726,7 @@
         <v>12</v>
       </c>
       <c r="E243" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -9725,7 +9740,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -9734,10 +9749,10 @@
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E244" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F244" t="s">
         <v>14</v>
@@ -9751,7 +9766,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -9760,7 +9775,7 @@
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -9774,7 +9789,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -9794,7 +9809,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -9803,10 +9818,10 @@
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E247" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -9820,7 +9835,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -9829,10 +9844,10 @@
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E248" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F248" t="s">
         <v>14</v>
@@ -9846,7 +9861,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -9855,10 +9870,10 @@
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E249" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -9872,7 +9887,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -9881,7 +9896,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F250" t="s">
         <v>14</v>
@@ -9895,7 +9910,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -9904,10 +9919,10 @@
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E251" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F251" t="s">
         <v>14</v>
@@ -9921,7 +9936,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -9930,10 +9945,10 @@
         <v>12</v>
       </c>
       <c r="E252" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F252" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
@@ -9944,7 +9959,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -9953,7 +9968,7 @@
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F253" t="s">
         <v>14</v>
@@ -9967,7 +9982,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -9976,10 +9991,10 @@
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E254" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -9993,7 +10008,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -10002,10 +10017,10 @@
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F255" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
@@ -10016,7 +10031,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -10025,10 +10040,10 @@
         <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E256" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F256" t="s">
         <v>14</v>
@@ -10042,7 +10057,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -10051,10 +10066,10 @@
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E257" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F257" t="s">
         <v>14</v>
@@ -10068,7 +10083,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -10077,7 +10092,7 @@
         <v>12</v>
       </c>
       <c r="E258" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F258" t="s">
         <v>14</v>
@@ -10091,7 +10106,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -10100,13 +10115,13 @@
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E259" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F259" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G259" t="s">
         <v>11</v>
@@ -10117,7 +10132,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -10126,13 +10141,13 @@
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E260" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F260" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
@@ -10143,7 +10158,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -10152,10 +10167,10 @@
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E261" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -10169,7 +10184,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -10178,10 +10193,10 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E262" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F262" t="s">
         <v>14</v>
@@ -10195,7 +10210,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -10204,7 +10219,7 @@
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F263" t="s">
         <v>14</v>
@@ -10218,7 +10233,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -10227,10 +10242,10 @@
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E264" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F264" t="s">
         <v>14</v>
@@ -10244,7 +10259,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -10253,10 +10268,10 @@
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E265" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F265" t="s">
         <v>14</v>
@@ -10270,7 +10285,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -10279,7 +10294,7 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F266" t="s">
         <v>14</v>
@@ -10317,22 +10332,22 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -10358,20 +10373,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
@@ -10382,7 +10397,7 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10390,20 +10405,20 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -10412,7 +10427,7 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10420,16 +10435,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -10439,14 +10454,14 @@
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10454,13 +10469,13 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
@@ -10473,14 +10488,14 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10488,16 +10503,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -10512,7 +10527,7 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10520,13 +10535,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>40</v>
@@ -10536,7 +10551,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -10546,7 +10561,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10554,13 +10569,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -10580,7 +10595,7 @@
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10588,16 +10603,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
@@ -10614,7 +10629,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10622,16 +10637,16 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -10648,7 +10663,7 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10656,16 +10671,16 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -10682,7 +10697,7 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10690,13 +10705,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -10716,7 +10731,7 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10724,14 +10739,14 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10746,7 +10761,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10754,14 +10769,14 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -10776,7 +10791,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10784,14 +10799,14 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -10806,7 +10821,7 @@
         <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10814,14 +10829,14 @@
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -10836,7 +10851,7 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10844,14 +10859,14 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -10866,7 +10881,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10874,14 +10889,14 @@
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -10894,7 +10909,7 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10902,16 +10917,16 @@
         <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
@@ -10928,7 +10943,7 @@
         <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10936,16 +10951,16 @@
         <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
@@ -10962,7 +10977,7 @@
         <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10970,16 +10985,16 @@
         <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
@@ -10996,7 +11011,7 @@
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11004,16 +11019,16 @@
         <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -11030,7 +11045,7 @@
         <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11038,16 +11053,16 @@
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
@@ -11064,7 +11079,7 @@
         <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11072,13 +11087,13 @@
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -11098,7 +11113,7 @@
         <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11106,16 +11121,16 @@
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
@@ -11132,7 +11147,7 @@
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11140,16 +11155,16 @@
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
@@ -11166,58 +11181,66 @@
         <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>688</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J27" s="2"/>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -11226,24 +11249,24 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -11252,21 +11275,21 @@
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -11278,13 +11301,13 @@
         <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -11292,7 +11315,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -11304,13 +11327,13 @@
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -11328,13 +11351,13 @@
         <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -11342,7 +11365,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -11351,20 +11374,20 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -11373,20 +11396,20 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
@@ -11395,20 +11418,20 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -11417,20 +11440,20 @@
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -11439,20 +11462,20 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>14</v>
@@ -11461,20 +11484,20 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>14</v>
@@ -11483,20 +11506,20 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>14</v>
@@ -11505,24 +11528,24 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>14</v>
@@ -11531,20 +11554,20 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>14</v>
@@ -11553,20 +11576,20 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
@@ -11575,20 +11598,20 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>14</v>
@@ -11597,66 +11620,66 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>14</v>
@@ -11665,21 +11688,21 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -11689,21 +11712,21 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
@@ -11713,21 +11736,21 @@
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -11737,24 +11760,24 @@
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -11763,16 +11786,16 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -11780,27 +11803,27 @@
         <v>19</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -11809,24 +11832,24 @@
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -11835,16 +11858,16 @@
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -11852,7 +11875,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="746">
   <si>
     <t>Independent App</t>
   </si>
@@ -66,13 +66,26 @@
     <t>2024-09-10</t>
   </si>
   <si>
-    <t>是</t>
+    <t>33333442332212</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-06 10:07:42 修改了 Target Due Date: 2024-09-19 =&gt; 2024-09-10
 2023-09-06 13:13:01 修改了 Target Due Date: 2024-09-10 =&gt; 2025-09-22
 2023-09-06 13:13:07 修改了 Target Due Date: 2025-09-22 =&gt; 2024-09-11
-2023-09-06 13:20:01 修改了 Target Due Date: 2024-09-11 =&gt; 2024-09-10</t>
+2023-09-06 13:20:01 修改了 Target Due Date: 2024-09-11 =&gt; 2024-09-10
+2023-09-22 09:44:03 修改了 Risk Description: 空值 =&gt; 333
+2023-09-22 09:44:08 修改了 Risk Description: 333 =&gt; 33333
+2023-09-22 09:44:13 修改了 Risk Description: 33333 =&gt; 3333344
+2023-09-22 09:45:11 修改了 Risk Description: 3333344 =&gt; 33333442
+2023-09-22 09:45:42 修改了 Risk Description: 33333442 =&gt; 333334423
+2023-09-22 10:04:45 修改了 Risk Description: 333334423 =&gt; 3333344233
+2023-09-22 10:04:52 修改了 Risk Description: 3333344233 =&gt; 333334423322
+2023-09-22 10:05:00 修改了 Risk Description: 333334423322 =&gt; 3333344233221
+2023-09-22 10:09:11 修改了 Risk Description: 3333344233221 =&gt; 33333442332212
+2023-09-22 10:09:18 确认了 记录变更</t>
   </si>
   <si>
     <t>WinCC</t>
@@ -85,6 +98,9 @@
   </si>
   <si>
     <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>2023-09-20 17:03:03 修改了 Target Due Date: 空值 =&gt; 2023-09-14</t>
@@ -1941,9 +1957,14 @@
     <t>2024-07-19</t>
   </si>
   <si>
+    <t>44441111</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-09-06 13:29:02 修改了 Target Due Date: 7/21/24 =&gt; 2024-07-20
 2023-09-06 13:34:11 修改了 Target Due Date: 2024-07-20 =&gt; 2024-07-19
-2023-09-20 16:23:24 修改了 Status: 空值 =&gt; active</t>
+2023-09-20 16:23:24 修改了 Status: 空值 =&gt; active
+2023-09-22 09:46:01 修改了 Risk Description: 空值 =&gt; 4444
+2023-09-22 09:46:04 修改了 Risk Description: 4444 =&gt; 44441111</t>
   </si>
   <si>
     <t>Digital Dealer Support</t>
@@ -1955,7 +1976,11 @@
     <t>2024-12-20</t>
   </si>
   <si>
-    <t>2023-09-20 16:25:22 修改了 Target Due Date: 12/21/24 =&gt; 2024-12-20</t>
+    <t>444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-20 16:25:22 修改了 Target Due Date: 12/21/24 =&gt; 2024-12-20
+2023-09-22 09:46:09 修改了 Risk Description: 空值 =&gt; 444</t>
   </si>
   <si>
     <t>Didrik CMC</t>
@@ -2700,18 +2725,18 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2720,30 +2745,30 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2752,10 +2777,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -2769,7 +2794,7 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2778,62 +2803,62 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2842,30 +2867,30 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2874,27 +2899,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2903,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -2917,7 +2942,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2926,30 +2951,30 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2958,30 +2983,30 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2990,30 +3015,30 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3033,7 +3058,7 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3042,10 +3067,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3059,7 +3084,7 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3068,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3082,7 +3107,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3091,10 +3116,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3105,7 +3130,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3114,10 +3139,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3131,7 +3156,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -3140,10 +3165,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3157,7 +3182,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -3166,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3180,7 +3205,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3189,7 +3214,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3203,7 +3228,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3212,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3226,7 +3251,7 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3235,13 +3260,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -3252,7 +3277,7 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3261,10 +3286,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3278,7 +3303,7 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -3287,10 +3312,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3304,7 +3329,7 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -3313,10 +3338,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3330,7 +3355,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3339,13 +3364,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3356,7 +3381,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -3365,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3382,7 +3407,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3391,10 +3416,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3408,7 +3433,7 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -3417,10 +3442,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3434,7 +3459,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -3443,10 +3468,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3460,7 +3485,7 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3469,10 +3494,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3483,7 +3508,7 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -3492,27 +3517,27 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -3521,10 +3546,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3538,7 +3563,7 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -3547,10 +3572,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3564,7 +3589,7 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -3573,10 +3598,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -3590,7 +3615,7 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3599,10 +3624,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3616,7 +3641,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3625,10 +3650,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -3642,7 +3667,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3651,10 +3676,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -3668,7 +3693,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -3677,10 +3702,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -3694,7 +3719,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -3703,10 +3728,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -3760,7 +3785,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3769,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -3783,7 +3808,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3792,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -3806,7 +3831,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3815,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -3829,7 +3854,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3838,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -3852,7 +3877,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3872,7 +3897,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3881,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3892,7 +3917,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3901,10 +3926,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3918,7 +3943,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3938,7 +3963,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3947,10 +3972,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3973,10 +3998,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3990,7 +4015,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3999,10 +4024,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -4016,7 +4041,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -4025,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -4039,7 +4064,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4048,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4062,7 +4087,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -4071,10 +4096,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -4088,7 +4113,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -4097,10 +4122,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -4114,7 +4139,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -4123,10 +4148,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -4140,7 +4165,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -4149,13 +4174,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -4166,7 +4191,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -4175,10 +4200,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -4192,7 +4217,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -4201,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -4215,7 +4240,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -4224,10 +4249,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4241,7 +4266,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4250,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -4267,7 +4292,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4276,10 +4301,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -4293,7 +4318,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4302,10 +4327,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -4319,7 +4344,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4328,10 +4353,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -4345,7 +4370,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -4354,7 +4379,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -4368,7 +4393,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -4377,10 +4402,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4394,7 +4419,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -4403,10 +4428,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4420,7 +4445,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -4429,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -4443,7 +4468,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -4452,10 +4477,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -4469,7 +4494,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4478,10 +4503,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4495,7 +4520,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4504,10 +4529,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -4521,7 +4546,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4530,10 +4555,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -4547,7 +4572,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -4556,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4573,7 +4598,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -4582,10 +4607,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -4599,7 +4624,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -4608,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -4622,7 +4647,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -4631,10 +4656,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -4648,7 +4673,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -4657,10 +4682,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -4674,7 +4699,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -4683,10 +4708,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4700,7 +4725,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -4709,10 +4734,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -4726,7 +4751,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -4735,10 +4760,10 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4752,7 +4777,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -4761,10 +4786,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4778,7 +4803,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -4787,10 +4812,10 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4804,7 +4829,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -4813,10 +4838,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -4830,7 +4855,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -4839,10 +4864,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4856,7 +4881,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -4865,10 +4890,10 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4882,7 +4907,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4891,10 +4916,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -4905,7 +4930,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4914,10 +4939,10 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4931,7 +4956,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -4940,10 +4965,10 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -4957,7 +4982,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -4966,7 +4991,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -4980,7 +5005,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -4989,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -5003,7 +5028,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -5012,10 +5037,10 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -5029,7 +5054,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -5049,7 +5074,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -5058,10 +5083,10 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -5075,7 +5100,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -5095,7 +5120,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -5104,10 +5129,10 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -5121,7 +5146,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -5130,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -5141,7 +5166,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -5161,7 +5186,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -5170,10 +5195,10 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -5187,7 +5212,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -5196,10 +5221,10 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -5213,7 +5238,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -5222,13 +5247,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -5239,7 +5264,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -5248,10 +5273,10 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -5265,7 +5290,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -5274,10 +5299,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -5291,7 +5316,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -5300,13 +5325,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5317,7 +5342,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -5326,10 +5351,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -5343,7 +5368,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -5352,7 +5377,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5366,7 +5391,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -5375,10 +5400,10 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -5392,7 +5417,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -5401,10 +5426,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5418,7 +5443,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -5427,7 +5452,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -5441,7 +5466,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -5450,7 +5475,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5464,7 +5489,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -5473,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5487,7 +5512,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -5496,10 +5521,10 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -5513,7 +5538,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -5522,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5533,7 +5558,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -5542,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -5556,7 +5581,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -5565,10 +5590,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -5582,7 +5607,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -5591,10 +5616,10 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -5608,7 +5633,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -5617,7 +5642,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -5631,7 +5656,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -5640,10 +5665,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -5657,7 +5682,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -5666,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5680,7 +5705,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -5689,10 +5714,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -5706,7 +5731,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -5715,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5729,7 +5754,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -5738,10 +5763,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5755,19 +5780,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
         <v>304</v>
       </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>302</v>
-      </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5781,7 +5806,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -5790,10 +5815,10 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5807,7 +5832,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -5816,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5830,7 +5855,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -5839,13 +5864,13 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5856,7 +5881,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -5865,10 +5890,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5882,7 +5907,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -5891,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5905,7 +5930,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -5914,10 +5939,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -5931,7 +5956,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -5940,10 +5965,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -5957,7 +5982,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -5966,10 +5991,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -5983,7 +6008,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -5992,10 +6017,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -6009,7 +6034,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -6018,10 +6043,10 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -6032,7 +6057,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -6041,10 +6066,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E94" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -6058,7 +6083,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -6067,10 +6092,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E95" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -6084,7 +6109,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -6093,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -6107,7 +6132,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -6116,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -6127,7 +6152,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -6136,10 +6161,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E98" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -6153,7 +6178,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -6162,10 +6187,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -6179,7 +6204,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -6188,10 +6213,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E100" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -6205,7 +6230,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -6214,10 +6239,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -6231,7 +6256,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6240,10 +6265,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -6254,7 +6279,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -6263,10 +6288,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6280,7 +6305,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -6289,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -6303,7 +6328,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -6312,10 +6337,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -6329,7 +6354,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -6338,10 +6363,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -6355,7 +6380,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -6364,10 +6389,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -6381,7 +6406,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -6390,10 +6415,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E108" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -6407,7 +6432,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -6416,10 +6441,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6433,7 +6458,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -6442,10 +6467,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E110" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6459,7 +6484,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -6468,10 +6493,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E111" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6485,7 +6510,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -6494,10 +6519,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F112" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -6508,7 +6533,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -6517,10 +6542,10 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -6534,7 +6559,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -6543,10 +6568,10 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6560,7 +6585,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -6569,13 +6594,13 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F115" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -6586,7 +6611,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -6606,7 +6631,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -6615,10 +6640,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -6629,7 +6654,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -6638,7 +6663,7 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -6649,7 +6674,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -6658,10 +6683,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E119" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -6675,7 +6700,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -6684,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -6698,7 +6723,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -6707,10 +6732,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -6724,7 +6749,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -6733,10 +6758,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -6750,7 +6775,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -6759,13 +6784,13 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E123" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F123" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -6776,7 +6801,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -6785,10 +6810,10 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E124" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -6802,7 +6827,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -6811,10 +6836,10 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6828,7 +6853,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -6837,7 +6862,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6851,7 +6876,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -6860,7 +6885,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6874,7 +6899,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -6883,10 +6908,10 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E128" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -6900,7 +6925,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -6920,7 +6945,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -6929,10 +6954,10 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E130" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -6946,7 +6971,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -6955,10 +6980,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E131" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6972,7 +6997,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -6981,10 +7006,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E132" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -6998,7 +7023,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -7007,10 +7032,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E133" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -7024,7 +7049,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -7044,7 +7069,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -7053,10 +7078,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E135" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -7070,7 +7095,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -7079,10 +7104,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E136" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -7096,7 +7121,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -7105,10 +7130,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E137" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -7122,7 +7147,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -7131,10 +7156,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E138" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -7148,7 +7173,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -7168,7 +7193,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -7177,7 +7202,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -7191,7 +7216,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -7200,7 +7225,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -7214,7 +7239,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -7223,10 +7248,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -7240,7 +7265,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -7249,7 +7274,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -7263,7 +7288,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -7283,7 +7308,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -7292,10 +7317,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E145" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7309,7 +7334,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -7329,7 +7354,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -7338,7 +7363,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7352,7 +7377,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -7361,10 +7386,10 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E148" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7378,7 +7403,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -7387,10 +7412,10 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E149" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7404,7 +7429,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -7413,10 +7438,10 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E150" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7430,7 +7455,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -7439,10 +7464,10 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E151" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -7456,7 +7481,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -7465,10 +7490,10 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E152" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -7482,7 +7507,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -7491,10 +7516,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E153" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7508,7 +7533,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -7517,10 +7542,10 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E154" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7534,7 +7559,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -7543,10 +7568,10 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E155" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -7560,7 +7585,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -7569,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -7583,7 +7608,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -7592,10 +7617,10 @@
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F157" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -7606,7 +7631,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -7615,7 +7640,7 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -7629,7 +7654,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -7638,10 +7663,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E159" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -7655,7 +7680,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -7675,7 +7700,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -7684,10 +7709,10 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E161" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -7701,7 +7726,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -7710,10 +7735,10 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -7727,7 +7752,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -7736,13 +7761,13 @@
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E163" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F163" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -7753,7 +7778,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -7762,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -7776,7 +7801,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -7785,10 +7810,10 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E165" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7802,7 +7827,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -7822,7 +7847,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -7831,10 +7856,10 @@
         <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -7848,7 +7873,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -7868,7 +7893,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -7877,10 +7902,10 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E169" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7894,7 +7919,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -7903,10 +7928,10 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E170" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7920,7 +7945,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -7929,10 +7954,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E171" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -7946,7 +7971,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -7955,10 +7980,10 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E172" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -7972,7 +7997,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -7981,10 +8006,10 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E173" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7998,7 +8023,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -8007,10 +8032,10 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E174" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -8024,7 +8049,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -8033,10 +8058,10 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E175" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -8050,7 +8075,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -8059,13 +8084,13 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E176" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F176" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
@@ -8076,7 +8101,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -8085,10 +8110,10 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E177" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -8102,7 +8127,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -8111,7 +8136,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -8125,7 +8150,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -8134,7 +8159,7 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -8148,7 +8173,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -8157,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -8171,7 +8196,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -8191,7 +8216,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -8200,10 +8225,10 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E182" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -8217,7 +8242,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -8226,10 +8251,10 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E183" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -8243,7 +8268,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -8252,10 +8277,10 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E184" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -8269,7 +8294,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -8278,10 +8303,10 @@
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E185" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -8295,7 +8320,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -8304,10 +8329,10 @@
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E186" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -8321,7 +8346,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -8330,10 +8355,10 @@
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -8347,7 +8372,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -8356,10 +8381,10 @@
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E188" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -8373,7 +8398,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -8382,10 +8407,10 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E189" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -8399,7 +8424,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -8408,10 +8433,10 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E190" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -8425,7 +8450,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -8434,7 +8459,7 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -8448,7 +8473,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -8457,10 +8482,10 @@
         <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F192" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
@@ -8471,7 +8496,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -8480,10 +8505,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E193" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -8497,7 +8522,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -8506,10 +8531,10 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E194" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -8523,7 +8548,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -8532,13 +8557,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E195" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F195" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
@@ -8549,7 +8574,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -8558,10 +8583,10 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E196" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -8575,7 +8600,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -8584,10 +8609,10 @@
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E197" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
@@ -8601,7 +8626,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -8610,10 +8635,10 @@
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E198" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -8627,7 +8652,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -8636,10 +8661,10 @@
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E199" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8653,7 +8678,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -8662,10 +8687,10 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F200" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -8676,7 +8701,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -8685,10 +8710,10 @@
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E201" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8702,7 +8727,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -8711,10 +8736,10 @@
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E202" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8728,7 +8753,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -8737,13 +8762,13 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E203" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F203" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
@@ -8754,7 +8779,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -8763,7 +8788,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -8777,7 +8802,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -8786,10 +8811,10 @@
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E205" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -8803,7 +8828,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -8812,10 +8837,10 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E206" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -8829,7 +8854,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -8838,7 +8863,7 @@
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -8852,7 +8877,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -8861,7 +8886,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -8875,7 +8900,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -8884,7 +8909,7 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -8898,7 +8923,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -8907,10 +8932,10 @@
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E210" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -8924,7 +8949,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -8933,10 +8958,10 @@
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E211" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -8950,7 +8975,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -8959,10 +8984,10 @@
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E212" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -8976,7 +9001,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -8985,10 +9010,10 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F213" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
@@ -8999,7 +9024,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -9008,10 +9033,10 @@
         <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -9025,7 +9050,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -9045,7 +9070,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -9054,13 +9079,13 @@
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E216" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F216" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
@@ -9071,7 +9096,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -9080,7 +9105,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -9094,7 +9119,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -9114,7 +9139,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -9123,7 +9148,7 @@
         <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
@@ -9137,7 +9162,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -9146,10 +9171,10 @@
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -9163,7 +9188,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -9172,10 +9197,10 @@
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E221" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
@@ -9189,7 +9214,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -9198,10 +9223,10 @@
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E222" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -9215,7 +9240,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -9224,13 +9249,13 @@
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E223" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F223" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G223" t="s">
         <v>11</v>
@@ -9241,7 +9266,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -9250,10 +9275,10 @@
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E224" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F224" t="s">
         <v>14</v>
@@ -9267,7 +9292,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -9276,10 +9301,10 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E225" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
@@ -9293,7 +9318,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -9302,10 +9327,10 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E226" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F226" t="s">
         <v>14</v>
@@ -9319,7 +9344,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -9328,10 +9353,10 @@
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E227" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F227" t="s">
         <v>14</v>
@@ -9345,7 +9370,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -9354,10 +9379,10 @@
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E228" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F228" t="s">
         <v>11</v>
@@ -9371,7 +9396,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -9380,10 +9405,10 @@
         <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E229" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9397,7 +9422,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -9406,10 +9431,10 @@
         <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E230" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9423,7 +9448,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -9432,10 +9457,10 @@
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E231" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9449,7 +9474,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -9458,7 +9483,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -9472,7 +9497,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -9492,7 +9517,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -9501,10 +9526,10 @@
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E234" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9518,7 +9543,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -9527,13 +9552,13 @@
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E235" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F235" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
@@ -9544,7 +9569,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -9553,13 +9578,13 @@
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E236" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F236" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
@@ -9570,7 +9595,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -9579,10 +9604,10 @@
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E237" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -9596,7 +9621,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -9605,7 +9630,7 @@
         <v>12</v>
       </c>
       <c r="E238" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F238" t="s">
         <v>14</v>
@@ -9619,7 +9644,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -9628,10 +9653,10 @@
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E239" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -9645,7 +9670,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -9654,13 +9679,13 @@
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E240" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F240" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
@@ -9671,7 +9696,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -9680,10 +9705,10 @@
         <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F241" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
@@ -9694,7 +9719,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -9703,10 +9728,10 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F242" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
@@ -9717,7 +9742,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -9726,7 +9751,7 @@
         <v>12</v>
       </c>
       <c r="E243" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -9740,7 +9765,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -9749,10 +9774,10 @@
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E244" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F244" t="s">
         <v>14</v>
@@ -9766,7 +9791,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -9775,7 +9800,7 @@
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -9789,7 +9814,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -9809,7 +9834,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -9818,10 +9843,10 @@
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E247" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -9835,7 +9860,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -9844,10 +9869,10 @@
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E248" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F248" t="s">
         <v>14</v>
@@ -9861,7 +9886,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -9870,10 +9895,10 @@
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E249" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -9887,7 +9912,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -9896,7 +9921,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F250" t="s">
         <v>14</v>
@@ -9910,7 +9935,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -9919,10 +9944,10 @@
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E251" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F251" t="s">
         <v>14</v>
@@ -9936,7 +9961,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -9945,10 +9970,10 @@
         <v>12</v>
       </c>
       <c r="E252" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F252" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
@@ -9959,7 +9984,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -9968,7 +9993,7 @@
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F253" t="s">
         <v>14</v>
@@ -9982,7 +10007,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -9991,10 +10016,10 @@
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E254" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -10008,7 +10033,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -10017,10 +10042,10 @@
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F255" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
@@ -10031,7 +10056,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -10040,10 +10065,10 @@
         <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E256" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F256" t="s">
         <v>14</v>
@@ -10057,7 +10082,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -10066,10 +10091,10 @@
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E257" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F257" t="s">
         <v>14</v>
@@ -10083,7 +10108,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -10092,7 +10117,7 @@
         <v>12</v>
       </c>
       <c r="E258" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F258" t="s">
         <v>14</v>
@@ -10106,7 +10131,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -10115,13 +10140,13 @@
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E259" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F259" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G259" t="s">
         <v>11</v>
@@ -10132,7 +10157,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -10141,13 +10166,13 @@
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E260" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F260" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
@@ -10158,7 +10183,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -10167,10 +10192,10 @@
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E261" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -10184,7 +10209,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -10193,10 +10218,10 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E262" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F262" t="s">
         <v>14</v>
@@ -10210,7 +10235,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -10219,7 +10244,7 @@
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F263" t="s">
         <v>14</v>
@@ -10233,7 +10258,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -10242,10 +10267,10 @@
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E264" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F264" t="s">
         <v>14</v>
@@ -10259,7 +10284,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -10268,10 +10293,10 @@
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E265" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F265" t="s">
         <v>14</v>
@@ -10285,7 +10310,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -10294,7 +10319,7 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F266" t="s">
         <v>14</v>
@@ -10332,22 +10357,22 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -10373,31 +10398,33 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>641</v>
+      </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10405,118 +10432,120 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -10524,379 +10553,379 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -10906,390 +10935,390 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>705</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -11298,24 +11327,24 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -11324,21 +11353,21 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -11348,24 +11377,24 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -11374,20 +11403,20 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -11396,20 +11425,20 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
@@ -11418,20 +11447,20 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -11440,20 +11469,20 @@
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -11462,20 +11491,20 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>14</v>
@@ -11484,20 +11513,20 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>14</v>
@@ -11506,20 +11535,20 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>14</v>
@@ -11528,24 +11557,24 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>14</v>
@@ -11554,20 +11583,20 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>14</v>
@@ -11576,20 +11605,20 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
@@ -11598,20 +11627,20 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>14</v>
@@ -11620,66 +11649,66 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>14</v>
@@ -11688,21 +11717,21 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -11712,21 +11741,21 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
@@ -11736,21 +11765,21 @@
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -11760,24 +11789,24 @@
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -11786,44 +11815,44 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -11832,24 +11861,24 @@
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -11858,24 +11887,24 @@
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>

--- a/backend/src/test.xlsx
+++ b/backend/src/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="748">
   <si>
     <t>Independent App</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Magendran Padmanaban</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-22 10:12:42 修改了 Target Due Date: 空值 =&gt; 2023-09-08</t>
   </si>
   <si>
     <t>QING</t>
@@ -2917,7 +2923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2934,15 +2940,21 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2951,10 +2963,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -2969,12 +2981,12 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2983,16 +2995,16 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -3001,12 +3013,12 @@
         <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3015,16 +3027,16 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -3033,12 +3045,12 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3058,7 +3070,7 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3067,10 +3079,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3084,7 +3096,7 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3093,7 +3105,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3107,7 +3119,7 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3116,10 +3128,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3130,7 +3142,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3139,10 +3151,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3156,7 +3168,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -3165,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3182,7 +3194,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -3191,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3205,7 +3217,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3214,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3228,7 +3240,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3237,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3251,7 +3263,7 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3260,13 +3272,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -3277,7 +3289,7 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3286,10 +3298,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3303,7 +3315,7 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -3312,10 +3324,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3329,7 +3341,7 @@
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -3338,10 +3350,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3355,7 +3367,7 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3364,13 +3376,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3381,7 +3393,7 @@
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -3390,10 +3402,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3407,7 +3419,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3416,10 +3428,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3433,7 +3445,7 @@
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -3442,10 +3454,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3459,7 +3471,7 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -3468,10 +3480,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3485,7 +3497,7 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3494,10 +3506,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3508,7 +3520,7 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -3517,13 +3529,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -3532,12 +3544,12 @@
         <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -3546,10 +3558,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3563,7 +3575,7 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -3572,10 +3584,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3589,7 +3601,7 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -3598,10 +3610,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -3615,7 +3627,7 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -3627,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3641,7 +3653,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3650,10 +3662,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -3667,7 +3679,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3676,10 +3688,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -3693,7 +3705,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -3702,10 +3714,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -3719,7 +3731,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -3731,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -3785,7 +3797,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3794,7 +3806,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -3808,7 +3820,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3817,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -3831,7 +3843,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3840,7 +3852,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -3854,7 +3866,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3863,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -3877,7 +3889,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3906,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3917,7 +3929,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3926,10 +3938,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3943,7 +3955,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3963,7 +3975,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3972,10 +3984,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3989,7 +4001,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3998,10 +4010,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -4015,7 +4027,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -4024,10 +4036,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -4041,7 +4053,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -4050,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -4064,7 +4076,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4073,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4087,7 +4099,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -4096,10 +4108,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -4113,7 +4125,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -4122,10 +4134,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -4139,7 +4151,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -4148,10 +4160,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -4165,7 +4177,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -4174,13 +4186,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -4191,7 +4203,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -4200,10 +4212,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -4217,7 +4229,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -4226,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -4240,7 +4252,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -4249,10 +4261,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4266,7 +4278,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -4275,10 +4287,10 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -4292,7 +4304,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4301,10 +4313,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -4318,7 +4330,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4327,10 +4339,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -4344,7 +4356,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -4353,10 +4365,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -4370,7 +4382,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -4379,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -4393,7 +4405,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -4402,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4419,7 +4431,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -4428,10 +4440,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4445,7 +4457,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -4454,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -4468,7 +4480,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -4494,7 +4506,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4503,10 +4515,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4520,7 +4532,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4529,10 +4541,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -4546,7 +4558,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4555,10 +4567,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -4572,7 +4584,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -4581,10 +4593,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4598,7 +4610,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -4607,10 +4619,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -4624,7 +4636,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -4633,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -4647,7 +4659,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -4656,10 +4668,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -4673,7 +4685,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -4682,10 +4694,10 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -4699,7 +4711,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -4708,10 +4720,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4725,7 +4737,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -4734,10 +4746,10 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -4751,7 +4763,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -4760,10 +4772,10 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4777,7 +4789,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -4786,10 +4798,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4803,7 +4815,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -4812,10 +4824,10 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4829,7 +4841,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -4838,10 +4850,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -4855,7 +4867,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -4864,10 +4876,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4881,7 +4893,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -4890,10 +4902,10 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4907,7 +4919,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -4916,10 +4928,10 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -4930,7 +4942,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -4939,10 +4951,10 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4956,7 +4968,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -4982,7 +4994,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -4991,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -5005,7 +5017,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -5014,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -5028,7 +5040,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -5037,10 +5049,10 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -5054,7 +5066,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -5074,7 +5086,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -5083,10 +5095,10 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -5100,7 +5112,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -5120,7 +5132,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -5129,10 +5141,10 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -5146,7 +5158,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -5155,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -5166,7 +5178,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -5186,7 +5198,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -5195,10 +5207,10 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -5212,7 +5224,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -5221,10 +5233,10 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -5238,7 +5250,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -5247,13 +5259,13 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -5264,7 +5276,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -5273,10 +5285,10 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -5290,7 +5302,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -5299,10 +5311,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -5316,7 +5328,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -5325,13 +5337,13 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5342,7 +5354,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -5351,10 +5363,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -5368,7 +5380,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -5377,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5391,7 +5403,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -5417,7 +5429,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -5426,10 +5438,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5443,7 +5455,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -5466,7 +5478,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -5475,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5489,7 +5501,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -5498,7 +5510,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5512,7 +5524,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -5521,10 +5533,10 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -5538,7 +5550,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -5547,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5558,7 +5570,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -5567,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -5581,7 +5593,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -5590,10 +5602,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -5607,7 +5619,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -5616,10 +5628,10 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -5633,7 +5645,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -5642,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -5656,7 +5668,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -5665,10 +5677,10 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -5682,7 +5694,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -5691,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5705,7 +5717,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -5714,10 +5726,10 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -5731,7 +5743,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -5740,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5754,7 +5766,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -5763,10 +5775,10 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5780,19 +5792,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
         <v>306</v>
       </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>304</v>
-      </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -5806,7 +5818,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -5815,10 +5827,10 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -5832,7 +5844,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -5841,7 +5853,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -5855,7 +5867,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -5864,13 +5876,13 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5881,7 +5893,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -5890,10 +5902,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -5907,7 +5919,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -5916,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -5930,7 +5942,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -5939,10 +5951,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -5956,7 +5968,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -5965,10 +5977,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -5982,7 +5994,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -5991,10 +6003,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -6008,7 +6020,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -6017,10 +6029,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -6034,7 +6046,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -6043,10 +6055,10 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -6057,7 +6069,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -6066,10 +6078,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E94" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -6083,7 +6095,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -6092,10 +6104,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E95" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -6109,7 +6121,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -6118,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -6132,7 +6144,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -6141,7 +6153,7 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -6152,7 +6164,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -6161,10 +6173,10 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E98" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -6178,7 +6190,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -6187,10 +6199,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -6204,7 +6216,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -6213,10 +6225,10 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -6230,7 +6242,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -6239,10 +6251,10 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -6256,7 +6268,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -6265,10 +6277,10 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -6279,7 +6291,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -6288,10 +6300,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6305,7 +6317,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -6314,7 +6326,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -6328,7 +6340,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -6337,10 +6349,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -6354,7 +6366,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -6363,10 +6375,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -6380,7 +6392,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -6389,10 +6401,10 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -6406,7 +6418,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -6415,10 +6427,10 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E108" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -6432,7 +6444,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -6441,10 +6453,10 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E109" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6458,7 +6470,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -6467,10 +6479,10 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E110" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -6484,7 +6496,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -6493,10 +6505,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E111" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -6510,7 +6522,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -6519,10 +6531,10 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -6533,7 +6545,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -6559,7 +6571,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -6568,10 +6580,10 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -6585,7 +6597,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -6594,13 +6606,13 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -6611,7 +6623,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -6631,7 +6643,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -6640,10 +6652,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -6654,7 +6666,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -6663,7 +6675,7 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -6674,7 +6686,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -6683,10 +6695,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E119" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -6700,7 +6712,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -6723,7 +6735,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -6732,10 +6744,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -6749,7 +6761,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -6758,10 +6770,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E122" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -6775,7 +6787,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -6784,13 +6796,13 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -6801,7 +6813,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -6810,10 +6822,10 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E124" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -6827,7 +6839,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -6836,10 +6848,10 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E125" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6853,7 +6865,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -6862,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -6876,7 +6888,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -6885,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -6899,7 +6911,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -6908,10 +6920,10 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E128" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -6925,7 +6937,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -6945,7 +6957,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -6954,10 +6966,10 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E130" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -6971,7 +6983,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -6980,10 +6992,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E131" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -6997,7 +7009,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -7006,10 +7018,10 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E132" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -7023,7 +7035,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -7032,10 +7044,10 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E133" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -7049,7 +7061,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -7069,7 +7081,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -7078,10 +7090,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -7095,7 +7107,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -7104,10 +7116,10 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E136" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -7121,7 +7133,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -7130,10 +7142,10 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E137" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -7147,7 +7159,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -7156,10 +7168,10 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E138" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -7173,7 +7185,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -7193,7 +7205,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -7202,7 +7214,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -7216,7 +7228,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -7225,7 +7237,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -7239,7 +7251,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -7248,10 +7260,10 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -7265,7 +7277,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -7274,7 +7286,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -7288,7 +7300,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -7308,7 +7320,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -7317,10 +7329,10 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E145" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -7334,7 +7346,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -7354,7 +7366,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -7363,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -7377,7 +7389,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -7386,10 +7398,10 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E148" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -7403,7 +7415,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -7412,10 +7424,10 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E149" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -7429,7 +7441,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -7438,10 +7450,10 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E150" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7455,7 +7467,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -7464,10 +7476,10 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E151" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -7481,7 +7493,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -7490,10 +7502,10 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E152" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -7507,7 +7519,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -7516,10 +7528,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E153" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
@@ -7533,7 +7545,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -7542,10 +7554,10 @@
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E154" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -7559,7 +7571,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -7568,10 +7580,10 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E155" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -7585,7 +7597,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -7594,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -7608,7 +7620,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -7617,10 +7629,10 @@
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F157" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -7631,7 +7643,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -7640,7 +7652,7 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -7654,7 +7666,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -7663,10 +7675,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E159" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -7680,7 +7692,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -7700,7 +7712,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -7709,10 +7721,10 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E161" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -7726,7 +7738,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -7735,10 +7747,10 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -7752,7 +7764,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -7761,13 +7773,13 @@
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E163" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F163" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -7778,7 +7790,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -7787,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -7801,7 +7813,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -7810,10 +7822,10 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E165" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7827,7 +7839,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -7847,7 +7859,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -7873,7 +7885,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -7893,7 +7905,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -7902,10 +7914,10 @@
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E169" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7919,7 +7931,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -7928,10 +7940,10 @@
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E170" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7945,7 +7957,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -7954,10 +7966,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E171" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -7971,7 +7983,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -7980,10 +7992,10 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E172" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
@@ -7997,7 +8009,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -8006,10 +8018,10 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E173" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -8023,7 +8035,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -8032,10 +8044,10 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E174" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
@@ -8049,7 +8061,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -8058,10 +8070,10 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E175" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -8075,7 +8087,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -8084,13 +8096,13 @@
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E176" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F176" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
@@ -8101,7 +8113,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -8110,10 +8122,10 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E177" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -8127,7 +8139,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -8136,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -8150,7 +8162,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -8159,7 +8171,7 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -8173,7 +8185,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -8182,7 +8194,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -8196,7 +8208,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -8216,7 +8228,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -8225,10 +8237,10 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E182" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -8242,7 +8254,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -8251,10 +8263,10 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E183" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -8268,7 +8280,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -8277,10 +8289,10 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E184" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -8294,7 +8306,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -8303,10 +8315,10 @@
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E185" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -8320,7 +8332,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -8329,10 +8341,10 @@
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E186" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -8346,7 +8358,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -8372,7 +8384,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -8381,10 +8393,10 @@
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E188" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -8398,7 +8410,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -8407,10 +8419,10 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E189" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -8424,7 +8436,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -8433,10 +8445,10 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E190" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -8450,7 +8462,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -8459,7 +8471,7 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -8473,7 +8485,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -8482,10 +8494,10 @@
         <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F192" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
@@ -8496,7 +8508,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -8505,10 +8517,10 @@
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E193" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -8522,7 +8534,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -8531,10 +8543,10 @@
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E194" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -8548,7 +8560,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -8557,13 +8569,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E195" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F195" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
@@ -8574,7 +8586,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -8583,10 +8595,10 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E196" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -8600,7 +8612,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -8609,7 +8621,7 @@
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E197" t="s">
         <v>28</v>
@@ -8626,7 +8638,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -8635,10 +8647,10 @@
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E198" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -8652,7 +8664,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -8661,10 +8673,10 @@
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E199" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -8678,7 +8690,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -8687,10 +8699,10 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F200" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -8701,7 +8713,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -8710,10 +8722,10 @@
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E201" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -8727,7 +8739,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -8736,10 +8748,10 @@
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E202" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -8753,7 +8765,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -8762,13 +8774,13 @@
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E203" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F203" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
@@ -8779,7 +8791,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -8788,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -8802,7 +8814,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -8811,10 +8823,10 @@
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E205" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -8828,7 +8840,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -8837,10 +8849,10 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E206" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -8854,7 +8866,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -8863,7 +8875,7 @@
         <v>12</v>
       </c>
       <c r="E207" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -8877,7 +8889,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -8886,7 +8898,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -8900,7 +8912,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -8909,7 +8921,7 @@
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -8923,7 +8935,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -8932,10 +8944,10 @@
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E210" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -8949,7 +8961,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -8958,10 +8970,10 @@
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E211" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -8975,7 +8987,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -8984,10 +8996,10 @@
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E212" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -9001,7 +9013,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -9010,10 +9022,10 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F213" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
@@ -9024,7 +9036,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -9050,7 +9062,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -9070,7 +9082,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -9079,13 +9091,13 @@
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E216" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F216" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
@@ -9096,7 +9108,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -9105,7 +9117,7 @@
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -9119,7 +9131,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -9139,7 +9151,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -9148,7 +9160,7 @@
         <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
@@ -9162,7 +9174,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -9188,7 +9200,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -9197,10 +9209,10 @@
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E221" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
@@ -9214,7 +9226,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -9223,10 +9235,10 @@
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E222" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -9240,7 +9252,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -9249,13 +9261,13 @@
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E223" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F223" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G223" t="s">
         <v>11</v>
@@ -9266,7 +9278,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -9275,7 +9287,7 @@
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E224" t="s">
         <v>28</v>
@@ -9292,7 +9304,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -9301,10 +9313,10 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E225" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
@@ -9318,7 +9330,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -9327,10 +9339,10 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E226" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F226" t="s">
         <v>14</v>
@@ -9344,7 +9356,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -9353,10 +9365,10 @@
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E227" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F227" t="s">
         <v>14</v>
@@ -9370,7 +9382,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -9379,10 +9391,10 @@
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E228" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F228" t="s">
         <v>11</v>
@@ -9396,7 +9408,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -9405,10 +9417,10 @@
         <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E229" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -9422,7 +9434,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -9431,10 +9443,10 @@
         <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E230" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F230" t="s">
         <v>14</v>
@@ -9448,7 +9460,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -9457,10 +9469,10 @@
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E231" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F231" t="s">
         <v>14</v>
@@ -9474,7 +9486,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -9483,7 +9495,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -9497,7 +9509,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -9517,7 +9529,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -9526,10 +9538,10 @@
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E234" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
@@ -9543,7 +9555,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -9552,13 +9564,13 @@
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E235" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F235" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
@@ -9569,7 +9581,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -9578,13 +9590,13 @@
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E236" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F236" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
@@ -9595,7 +9607,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -9604,10 +9616,10 @@
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E237" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -9621,7 +9633,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -9644,7 +9656,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -9653,10 +9665,10 @@
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E239" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -9670,7 +9682,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -9679,13 +9691,13 @@
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E240" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F240" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
@@ -9696,7 +9708,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -9705,10 +9717,10 @@
         <v>12</v>
       </c>
       <c r="E241" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F241" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
@@ -9719,7 +9731,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -9728,10 +9740,10 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F242" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
@@ -9742,7 +9754,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -9751,7 +9763,7 @@
         <v>12</v>
       </c>
       <c r="E243" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F243" t="s">
         <v>14</v>
@@ -9765,7 +9777,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -9774,10 +9786,10 @@
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E244" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F244" t="s">
         <v>14</v>
@@ -9791,7 +9803,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -9800,7 +9812,7 @@
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -9814,7 +9826,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -9834,7 +9846,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -9843,10 +9855,10 @@
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E247" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -9860,7 +9872,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -9869,10 +9881,10 @@
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E248" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F248" t="s">
         <v>14</v>
@@ -9886,7 +9898,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -9895,10 +9907,10 @@
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E249" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -9912,7 +9924,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -9921,7 +9933,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F250" t="s">
         <v>14</v>
@@ -9935,7 +9947,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -9944,10 +9956,10 @@
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E251" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F251" t="s">
         <v>14</v>
@@ -9961,7 +9973,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -9970,10 +9982,10 @@
         <v>12</v>
       </c>
       <c r="E252" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F252" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
@@ -9984,7 +9996,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -9993,7 +10005,7 @@
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F253" t="s">
         <v>14</v>
@@ -10007,7 +10019,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -10016,10 +10028,10 @@
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E254" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -10033,7 +10045,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -10042,10 +10054,10 @@
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F255" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
@@ -10056,7 +10068,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -10065,10 +10077,10 @@
         <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E256" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F256" t="s">
         <v>14</v>
@@ -10082,7 +10094,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -10091,10 +10103,10 @@
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E257" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F257" t="s">
         <v>14</v>
@@ -10108,7 +10120,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -10117,7 +10129,7 @@
         <v>12</v>
       </c>
       <c r="E258" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F258" t="s">
         <v>14</v>
@@ -10131,7 +10143,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -10140,13 +10152,13 @@
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E259" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F259" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G259" t="s">
         <v>11</v>
@@ -10157,7 +10169,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -10166,13 +10178,13 @@
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E260" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F260" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
@@ -10183,7 +10195,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -10192,10 +10204,10 @@
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E261" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -10209,7 +10221,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -10218,10 +10230,10 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E262" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F262" t="s">
         <v>14</v>
@@ -10235,7 +10247,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -10244,7 +10256,7 @@
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F263" t="s">
         <v>14</v>
@@ -10258,7 +10270,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -10267,10 +10279,10 @@
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E264" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F264" t="s">
         <v>14</v>
@@ -10284,7 +10296,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -10293,10 +10305,10 @@
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E265" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F265" t="s">
         <v>14</v>
@@ -10310,7 +10322,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -10319,7 +10331,7 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F266" t="s">
         <v>14</v>
@@ -10357,22 +10369,22 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -10398,33 +10410,33 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10432,31 +10444,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10464,16 +10476,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -10483,14 +10495,14 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10498,16 +10510,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -10517,14 +10529,14 @@
         <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10532,16 +10544,16 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -10556,7 +10568,7 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10564,13 +10576,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -10580,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -10590,7 +10602,7 @@
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10598,13 +10610,13 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -10624,7 +10636,7 @@
         <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10632,16 +10644,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
@@ -10658,7 +10670,7 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10666,16 +10678,16 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -10692,7 +10704,7 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10700,16 +10712,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -10726,7 +10738,7 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10734,13 +10746,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -10760,7 +10772,7 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10768,14 +10780,14 @@
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10790,7 +10802,7 @@
         <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10798,14 +10810,14 @@
         <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -10820,7 +10832,7 @@
         <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10828,14 +10840,14 @@
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -10850,7 +10862,7 @@
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10858,14 +10870,14 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -10880,7 +10892,7 @@
         <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10888,14 +10900,14 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -10910,7 +10922,7 @@
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10918,14 +10930,14 @@
         <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -10938,31 +10950,31 @@
         <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
@@ -10972,31 +10984,31 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>14</v>
@@ -11006,31 +11018,31 @@
         <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>14</v>
@@ -11040,31 +11052,31 @@
         <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
@@ -11074,31 +11086,31 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>14</v>
@@ -11108,31 +11120,31 @@
         <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>14</v>
@@ -11142,31 +11154,31 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>14</v>
@@ -11176,31 +11188,31 @@
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>14</v>
@@ -11210,115 +11222,115 @@
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="s">
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -11327,16 +11339,16 @@
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -11344,7 +11356,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -11353,16 +11365,16 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -11377,24 +11389,24 @@
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -11403,20 +11415,20 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>14</v>
@@ -11425,20 +11437,20 @@
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>14</v>
@@ -11447,20 +11459,20 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -11469,20 +11481,20 @@
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -11491,20 +11503,20 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>14</v>
@@ -11513,20 +11525,20 @@
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>14</v>
@@ -11535,20 +11547,20 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>14</v>
@@ -11557,24 +11569,24 @@
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>14</v>
@@ -11583,20 +11595,20 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>14</v>
@@ -11605,20 +11617,20 @@
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>14</v>
@@ -11627,20 +11639,20 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>14</v>
@@ -11649,66 +11661,66 @@
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>14</v>
@@ -11717,21 +11729,21 @@
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -11741,21 +11753,21 @@
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
@@ -11765,21 +11777,21 @@
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -11789,24 +11801,24 @@
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>14</v>
@@ -11815,16 +11827,16 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -11832,27 +11844,27 @@
         <v>20</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>14</v>
@@ -11861,24 +11873,24 @@
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>14</v>
@@ -11887,16 +11899,16 @@
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -11904,7 +11916,7 @@
         <v>20</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>14</v>
